--- a/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
+++ b/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8346FF26-1993-483D-ACCD-705F53171C85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ECBD9C-C822-4EB4-8BFB-208DB94BCF78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="102">
   <si>
     <t>Escenario</t>
   </si>
@@ -311,6 +311,30 @@
   </si>
   <si>
     <t>El usuario ingresa el "Apellido Materno".||El sistema permite ingresar al información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Crear".||El sistema muestra la pantalla de confirmación con el banner verde y el mensaje:
+"El registro del beneficiario fue exitoso y quedará activado 30 minutos.
+Número de operación: "</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el valor "Contribuciones Gubernamentales" del campo "Tipo de beneficiario".||El sistema permite seleccionar el valor del campo "Tipo de beneficiario" y se habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Asignar el impuesto
+(Paso 2 de 3)"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la lista desplegable del campo "Tipo de impuesto".||El sistema muestra varios valores:</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el valor "Contribuciones Gubernamentales del Estado de México" del campo "Tipo de impuesto".||El sistema permite seleccionar el valor del campo "Tipo de impuesto" y se habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario valida la información de solo lectura: Sección "Tipo de beneficiario". Sección "Impuesto". Campo "Tipo de impuesto". El sistema muestra la página "Ingresa datos de autenticación".||El sistema muestra la página "Ingresa datos de autenticación".</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el valor "Contribuciones Gubernamentales de la Ciudad de México" del campo "Tipo de impuesto".||El sistema permite seleccionar el valor del campo "Tipo de impuesto" y se habilita el botón "Continuar".</t>
   </si>
 </sst>
 </file>
@@ -353,11 +377,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J5" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="P7" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1209,42 @@
       <c r="K7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" spans="1:32" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1216,7 +1278,33 @@
       <c r="K8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:32" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1250,7 +1338,33 @@
       <c r="K9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="10" spans="1:32" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">

--- a/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
+++ b/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ECBD9C-C822-4EB4-8BFB-208DB94BCF78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D328E74-35E2-4911-B06A-1F585DCA1615}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="364">
   <si>
     <t>Escenario</t>
   </si>
@@ -137,9 +137,6 @@
     <t>El usuario da clic en la pestaña "Pagos y transferencias"||El sistema muestra la página del submenú "Consulta de transacciones".</t>
   </si>
   <si>
-    <t>El usuario da clic en el submenú "Administración de beneficiarios".||El sistema muestra la sección correspondiente a "Beneficiarios". Cuadro de Búsqueda. Opción "Filtrar". Botón "Crear beneficiario"</t>
-  </si>
-  <si>
     <t>Paso11</t>
   </si>
   <si>
@@ -182,31 +179,15 @@
     <t>Paso24</t>
   </si>
   <si>
-    <t>El usuario da clic en el botón "Crear beneficiario".||El sistema muestra la página "Crea el perfil del beneficiario (Paso 1 de 3)" con: Campo "Tipo de beneficiario" con lista desplegable. Nombre del perfil. Botón "Cancelar". Botón "Continuar" deshabilitado</t>
-  </si>
-  <si>
-    <t>El usuario da clic en la lista desplegable del campo "Tipo de beneficiario".||El sistema muestra los valores: Contribuciones Federales. Contribuciones Gubernamentales. Pago de servicios y facturas. Persona física. Persona moral</t>
-  </si>
-  <si>
     <t>El usuario selecciona el valor "Pago de servicios y facturas " del campo "Tipo de beneficiario".||El sistema permite seleccionar el valor del campo "Tipo de beneficiario"</t>
   </si>
   <si>
-    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Asigna el servicio o factura (Paso 2 de 3)": Campo "Tipo de beneficiario": Pago de servicios y facturas. Campo "Seleccionar empresa prestadora de servicios". Botón "Regresar". Botón "Continuar" deshabilitado</t>
-  </si>
-  <si>
-    <t>El usuario despliega la lista del campo "Seleccionar empresa prestadora de servicios" o teclea el número de convenio para pago de facturas deseado en donde se selecciona el valor mostrado.||El sistema permite seleccionar el valor del campo "Seleccionar empresa prestadora de servicios" y muestra los campos: "Número de cliente". "Alias"</t>
-  </si>
-  <si>
     <t>El usuario ingresa información en el campo "Número de cliente".||El sistema permite ingresar la información de forma correcta.</t>
   </si>
   <si>
     <t>El usuario ingresa información en el campo "Alias".||El sistema permite ingresar al información de forma correcta y habilita el botón "Continuar".</t>
   </si>
   <si>
-    <t xml:space="preserve">El usuario da clic en el botón "Continuar".||El sistema muestra la página "Revisa el resumen y envía
-(Paso 3 de 3)": </t>
-  </si>
-  <si>
     <t>El usuario da clic en el Botón "Siguiente"||El sistema muestra la página "Ingresa datos de autenticación".</t>
   </si>
   <si>
@@ -214,127 +195,1916 @@
   </si>
   <si>
     <t>El usuario ingresa el token en el campo "Ingresa tu token".||El sistema permite ingresar el token de forma correcta y se habilita el botón "Crear".</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el valor "Persona moral" del campo "Tipo de beneficiario".||El sistema permite seleccionar el valor del campo "Tipo de beneficiario" y muestra el campo "Nombre del perfil".</t>
+  </si>
+  <si>
+    <t>El usuario ingresa "Nombre del perfil".||El sistema permite ingresar el nombre del perfil y se habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el "Número de cuenta.||El sistema permite ingresar al información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el campo "Banco de la cuenta" y selecciona uno de los valores correspondientes a la cuenta.||El sistema permite seleccionar el banco asociado a la cuenta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el "Número de identificación".||El sistema permite ingresar al información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el "Nombre /Razón social".||El sistema permite ingresar al información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario indica si es necesario establecer un límite de abono en "¿Necesistas límite de abono para esta cuenta?" seleccionando el valor "Si".||El sistema muestra el campo "Ingresa el límite de abono para esta cuenta".</t>
+  </si>
+  <si>
+    <t>El usuario ingresa un valor numérico en el campo "Ingresa el límite de abono para esta cuenta".||El sistema permite ingresar al información de forma correcta.</t>
+  </si>
+  <si>
+    <t>Paso25</t>
+  </si>
+  <si>
+    <t>Paso26</t>
+  </si>
+  <si>
+    <t>Paso27</t>
+  </si>
+  <si>
+    <t>Paso28</t>
+  </si>
+  <si>
+    <t>Paso29</t>
+  </si>
+  <si>
+    <t>Paso30</t>
+  </si>
+  <si>
+    <t>El usuario ingresa un valor numérico en el campo "Ingresa el límite de abono para esta cuenta".||El sistema permite ingresar al información de forma correcta y habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el valor "Persona física" del campo "Tipo de beneficiario".||El sistema permite seleccionar el valor del campo "Tipo de beneficiario"</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el "Nombres".||El sistema permite ingresar al información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el "Apellido Paterno".||El sistema permite ingresar al información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el "Apellido Materno".||El sistema permite ingresar al información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el valor "Contribuciones Gubernamentales" del campo "Tipo de beneficiario".||El sistema permite seleccionar el valor del campo "Tipo de beneficiario" y se habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el valor "Contribuciones Gubernamentales del Estado de México" del campo "Tipo de impuesto".||El sistema permite seleccionar el valor del campo "Tipo de impuesto" y se habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el valor "Contribuciones Gubernamentales de la Ciudad de México" del campo "Tipo de impuesto".||El sistema permite seleccionar el valor del campo "Tipo de impuesto" y se habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el submenú "Administración de beneficiarios".||El sistema muestra la sección correspondiente a "Beneficiarios".
+Cuadro de Búsqueda
+Opción "Filtrar"
+Botón "Crear beneficiario"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Crear beneficiario".||El sistema muestra la página "Crea el perfil del beneficiario (Paso 1 de 3)" con:
+Campo "Tipo de beneficiario" con lista desplegable.
+Nombre del perfil
+Botón "Cancelar"
+Botón "Continuar" deshabilitado</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la lista desplegable del campo "Tipo de beneficiario".||El sistema muestra los valores:
+Contribuciones Federales
+Contribuciones Gubernamentales
+Pago de servicios y facturas
+Persona física
+Persona moral</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Asigna el servicio o factura (Paso 2 de 3)":
+Campo "Tipo de beneficiario": Pago de servicios y facturas
+Campo "Seleccionar empresa prestadora de servicios"
+Botón "Regresar"
+Botón "Continuar" deshabilitado</t>
+  </si>
+  <si>
+    <t>El usuario despliega la lista del campo "Seleccionar empresa prestadora de servicios" o teclea el número de convenio para pago de facturas deseado en donde se selecciona el valor mostrado.||El sistema permite seleccionar el valor del campo "Seleccionar empresa prestadora de servicios" y muestra los campos:
+"Número de cliente"
+"Alias"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||"El sistema muestra la página ""Revisa el resumen y envía
+(Paso 3 de 3)"":"
+Sección Beneficiario
+Campo "Tipo de beneficiario": Pago de servicios y facturas
+Campo "Empresa prestadora de servicios"
+Campo "Número de Convenio"
+Campo "Número de cliente"
+Campo "Alias"
+Botón "Regresar"
+Botón "Siguiente"</t>
+  </si>
+  <si>
+    <t>El sistema muestra la pantalla de confirmación con el banner verde y el mensaje:
+"La creación del beneficiario fue éxitosa y quedará activado 30 minutos después de su autorización.
+Número de operación:"
+Sección "Resumen de la información"
+Campo "Tipo de beneficiario": Pagos de servicios y facturas
+Campo "Empresa prestadora de servicios"
+Campo "Número de Convenio"
+Campo "Alias"
+Botón ""Ir al inicio"
+Botón "Crear otro beneficiario"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Configurar cuentas de destino (Paso 2 de 3)":
+Campo "Tipo de beneficiario": Persona moral
+Campo "Nombre del perfil": nombre de perfil ingresado en el paso 1.
+Sección "Cuenta destino"
+Opción "Cuentas Scotiabank"
+Opción "Cuentas otro banco"
+Botón "Regresar"
+Botón "Continuar" deshabilitado</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción "Cuentas otro banco"||El sistema muestra los campos:
+"Destino de pago" deshabilitado
+"Divisa" deshabilitado
+"Tipo de cuenta"
+"Número de cuenta"
+"Banco de la cuenta"
+"Alias de la cuenta (Opcional)"
+Título "Se requiere identificación personal del beneficiario"
+"Tipo de identificación"
+"Número de identificación"
+"Nombre /Razón social"
+"Email (Opcional)"
+"Número de teléfono (Opcional)"
+"¿Necesistas límite de abono para esta cuenta?" con las opciones "Si" y "No".
+Botón "Regresar"
+Botón "Continuar" deshabilitado</t>
+  </si>
+  <si>
+    <t>El usuario valida la información de solo lectura:
+Campo "Destino de pago"
+Campo "Divisa"||El sistema muestra de forma correcta la información.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el campo "Tipo de cuenta" y selecciona uno de los valores correspondientes a la cuenta.||El sistema muestra los valores:
+CLABE SPEI
+Tarjeta de débito
+Línea telefónica móvil</t>
+  </si>
+  <si>
+    <t>El usuario valida la información de solo lectura:
+Campo "Tipo de identificación"||El sistema muestra de forma correcta la información.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el "Email (Opcional)".||El sistema permite ingresar al información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el "Número de teléfono (Opcional)".||El sistema permite ingresar al información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Revisa el resumen y envía (Paso 3 de 3)":
+Campo "Tipo de beneficiario": Persona moral
+Campo "Nombre del perfil": Perfil ingresado en el Paso 1.
+Sección "Cuenta destino"
+"Nombre /Razón social"
+"Identificación"
+Mensaje: *Datos que apareceran en tu estado de cuenta sin valor fiscal"
+Número de teléfono
+Email
+Banco de la cuenta
+Alias de la cuenta
+Destino de pago
+Divisa
+Tipo de cuenta
+Número de cuenta
+Límite de abono
+Límite permitido por transacción
+Botón "Regresar"
+Botón "Siguiente"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Crear".||El sistema muestra la pantalla de confirmación con el banner verde y el mensaje:
+"Beneficiario creado con éxito. Este beneficiario quedará activado en 30 minutos.
+Número de operación: "
+Campo "Tipo de beneficiario": Persona moral
+Campo "Nombre del perfil": nombre de perfil ingresado
+Sección "Cuenta destino"
+Nombre / Razón social
+Identificación
+Mensaje "*Datos que apareceran en tu estado de cuenta sin valor fiscal"
+Número de teléfono
+Email
+Banco de la cuenta
+Alias de la cuenta
+Destino de pago
+Divisa
+Tipo de cuenta
+Número de cuenta
+Límite de abono
+Límite permitido por transacción
+Botón "Agregar otra cuenta destino"	
+Botón "Crear otro beneficiario"</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción "Cuentas Scotiabank"||El sistema muestra los campos:
+"Número de cuenta"
+"Alias de la cuenta (Opcional)"
+"Email (Opcional)"
+"Número de teléfono (Opcional)"
+"¿Necesistas límite de abono para esta cuenta?" con las opciones "Si" y "No".</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el "Alias de la cuenta (Opcional)"||El sistema permite ingresar al información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Revisa el resumen y envía (Paso 3 de 3)":
+Campo "Tipo de beneficiario": Persona moral
+Campo "Nombre del perfil": Perfil ingresado en el Paso 1.
+Sección "Cuenta destino"
+Nombre / Razón social
+Número de teléfono
+Email
+Banco de la cuenta
+Alias de la cuenta
+Destino de pago
+Divisa
+Tipo de cuenta
+Número de cuenta
+Límite de abono
+Límite permitido por transacción
+Botón "Regresar"
+Botón "Siguiente"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Crear".||El sistema muestra la pantalla de confirmación con el banner verde y el mensaje:
+"Beneficiario creado con éxito. Este beneficiario quedará activado en 30 minutos.
+Número de operación: "
+Campo "Tipo de beneficiario": Persona moral
+Campo "Nombre del perfil": nombre de perfil ingresado
+Sección "Cuenta destino"
+Nombre / Razón social
+Número de teléfono
+Email
+Banco de la cuenta
+Alias de la cuenta
+Destino de pago
+Divisa
+Tipo de cuenta
+Número de cuenta
+Límite de abono
+Límite permitido por transacción
+Botón "Agregar otra cuenta destino""
+Botón "Crear otro beneficiario"</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el valor "Persona física" del campo "Tipo de beneficiario".||El sistema muestra la página "Configurar cuentas de destino (Paso 2 de 3)":
+Campo "Tipo de beneficiario": Persona física
+Campo "Nombre del perfil": nombre de perfil ingresado en el paso 1.
+Sección "Cuenta destino"
+Opción "Cuentas Scotiabank"
+Opción "Cuentas otro banco"
+Botón "Regresar"
+Botón "Continuar" deshabilitado</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción "Cuentas otro banco"||El sistema muestra los campos:
+"Destino de pago" deshabilitado
+"Divisa" deshabilitado
+"Tipo de cuenta"
+"Número de cuenta"
+"Banco de la cuenta"
+"Alias de la cuenta (Opcional)"
+Título "Se requiere identificación personal del beneficiario"
+"Tipo de identificación"
+"Número de identificación"
+"Nombres"
+"Apellido Paterno"
+"Apellido Materno"
+"Email (Opcional)"
+"Número de teléfono (Opcional)"
+"¿Necesistas límite de abono para esta cuenta?" con las opciones "Si" y "No".</t>
+  </si>
+  <si>
+    <t>El usuario valida la información de solo lectura:
+Campo "Destino de pago"
+Campo "Divisa""||El sistema muestra de forma correcta la información.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Revisar el resumen y envía (Paso 3 de 3)":
+Campo "Tipo de beneficiario": Persona física
+Campo "Nombre del perfil": Perfil ingresado en el Paso 1.
+Sección "Cuenta destino"
+Mensaje: *Datos que apareceran en tu estado de cuenta sin valor fiscal
+Nombres
+Apellido Paterno
+Apellido Materno
+Identificación
+Número de teléfono
+Email
+Banco de la cuenta
+Alias de la cuenta
+Destino de pago
+Divisa
+Tipo de cuenta
+Número de cuenta
+Límite de abono
+Límite permitido por transacción
+Botón "Regresar"
+Botón "Siguiente"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Crear".||El sistema muestra la pantalla de confirmación con el banner verde y el mensaje:
+"Beneficiario creado con éxito. Este beneficiario quedará activado en 30 minutos.
+Número de operación: "
+Campo "Tipo de beneficiario": Persona física
+Campo "Nombre del perfil": nombre de perfil ingresado
+Sección "Cuenta destino"
+Mensaje: *Datos que apareceran en tu estado de cuenta sin valor fiscal
+Nombres
+Apellido Paterno
+Apellido Materno
+Identificación
+Número de teléfono
+Email
+Banco de la cuenta
+Alias de la cuenta
+Destino de pago
+Divisa
+Tipo de cuenta
+Número de cuenta
+Límite de abono
+"Límite permitido por transacción
+Botón "Agregar otra cuenta destino"
+Botón "Crear otro beneficiario"</t>
+  </si>
+  <si>
+    <t>Paso31</t>
+  </si>
+  <si>
+    <t>Paso32</t>
+  </si>
+  <si>
+    <t>Paso33</t>
+  </si>
+  <si>
+    <t>Paso34</t>
+  </si>
+  <si>
+    <t>Paso35</t>
+  </si>
+  <si>
+    <t>Paso36</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Revisar el resumen y envía (Paso 3 de 3)":
+Campo "Tipo de beneficiario": Persona física
+Campo "Nombre del perfil": Perfil ingresado en el Paso 1.
+Sección "Cuenta destino"
+Mensaje: *Datos que apareceran en tu estado de cuenta sin valor fiscal
+Nombres
+Apellido Paterno
+Apellido Materno
+Número de teléfono
+Email
+Banco de la cuenta
+Alias de la cuenta
+Destino de pago
+Divisa
+Tipo de cuenta
+Número de cuenta
+Límite de abono
+Límite permitido por transacción
+Botón "Regresar"
+Botón "Siguiente"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario da clic en el botón "Crear".||El sistema muestra la pantalla de confirmación con el banner verde y el mensaje:
+"El registro del beneficiario fue exitoso y quedará activado 30 minutos.
+Número de operación: "
+Campo "Tipo de beneficiario": Persona física
+Campo "Nombre del perfil": nombre de perfil ingresado
+Sección "Cuenta destino"
+Mensaje: *Datos que apareceran en tu estado de cuenta sin valor fiscal
+Nombres
+Apellido Paterno
+Apellido Materno
+Número de teléfono
+Email
+Banco de la cuenta
+Alias de la cuenta
+Destino de pago
+Divisa
+Tipo de cuenta
+Número de cuenta
+Límite de abono
+"Límite permitido por transacción
+Botón "Agregar otra cuenta destino"
+Botón "Crear otro beneficiario"
+</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Asignar el impuesto
+(Paso 2 de 3)":
+Sección "Tipo de beneficiario"
+Sección "Impuesto"
+Campo "Tipo de impuesto" con lista desplegable.
+Campo "Alias (opcional)"
+Botón "Cancelar"
+Botón "Continuar" deshabilitado</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la lista desplegable del campo "Tipo de impuesto".||El sistema muestra los valores:
+Contribuciones Gubernamentales de la Ciudad de México
+Contribuciones Gubernamentales del Estado de México</t>
+  </si>
+  <si>
+    <t>El usuario ingresa un valor en el campo "Alias (opcional)".||El sistema permite ingresar un valor en el campo Alias.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Revisar el resumen y enviar (Paso 3 de 3)":
+Sección "Tipo de beneficiario"
+Sección "Impuesto"
+Campo "Tipo de impuesto" con lista desplegable.
+Campo "Alias (opcional)"
+Botón "Regresar"
+Botón "Crear"</t>
+  </si>
+  <si>
+    <t>El usuario valida la información de solo lectura:
+Sección "Tipo de beneficiario"
+Sección "Impuesto"
+Campo "Tipo de impuesto"
+Campo "Alias (opcional)"
+Da clic en el botón Crear.||El sistema muestra la página "Ingresa datos de autenticación".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Crear".||El sistema muestra la pantalla de confirmación con el banner verde y el mensaje:
+"El registro del beneficiario fue exitoso y quedará activado 30 minutos.
+Número de operación: "
+Sección "Tipo de beneficiario"
+Sección "Impuesto"
+Campo "Tipo de impuesto"
+Campo "Alias (opcional)"
+Botón "Agregar otro impuesto"
+Botón "Crear otro beneficiario"</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el valor "Contribuciones Federales" del campo "Tipo de beneficiario".||El sistema permite seleccionar el valor del campo "Tipo de beneficiario" y se habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Asignar el impuesto
+(Paso 2 de 3)":"
+Sección "Tipo de beneficiario"
+Sección "Impuesto"
+Campo "Tipo de impuesto" con lista desplegable.
+Campo "Alias (opcional)"
+Botón "Cancelar"
+Botón "Continuar" deshabilitado</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la lista desplegable del campo "Tipo de impuesto".||El sistema muestra los valores:
+Derechos, Productos y Aprovechamientos
+Pago Referenciado SAT</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el valor "Pago Referenciado SAT" del campo "Tipo de impuesto".||El sistema permite seleccionar el valor del campo "Tipo de impuesto" y se habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el valor "Derechos, Productos y Aprovechamientos" del campo "Tipo de impuesto".||El sistema permite seleccionar el valor del campo "Tipo de impuesto" y se habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el submenú "Pago de servicios y facturas".||El sistema muestra la página "Establecer origen y destino de pago (Paso 1 de 3)" :
+Campo "Cuenta o producto de origen"
+Botón "Continuar"</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la cuenta de origen de Cheques MXN en el campo "Cuenta o producto de origen".||El sistema permite seleccionar la cuenta de origen en el campo "Cuenta o producto de origen" y muestra los campos:
+Saldo total (formato moneda)
+Saldo disponible (formato moneda)
+Campo "Empresa prestadora de servicios"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el campo "Empresa prestadora de servicios" y selecciona el número de convenio para pago de servicios.||El sistema permite seleccionar el número de convenio para pago de servicios de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar"||El sistema muestra la pantalla "Información del Pago (Paso 2 de 3)":
+Sección "Información de origen"
+Campo "Cuenta o producto de origen"
+Campo "Divisa"
+Sección "Información del destino"
+Campo "Empresa prestadora de servicios"
+Campo "Alias"
+Número de convenio
+Sección "Referencias del servicio a pagar"
+(Los campos dinámicos dependen del servicio seleccionado)
+Botón "Cancelar"
+Botón "Agregar factura"
+Botón "Regresar"
+Botón "Continuar"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Agregar factura"||El sistema muestra la referencia agregada:
+Sección "Referencia 1 agrupada con el check habilitado.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el chevron de la referencia a pagar.||El sistema muestra el detalle de la referencia agregada:
+Campo "Monto a pagar"
+Campo "Fecha de pago"
+Campo "Matricula"
+Campo "Captura siempre uno"
+Campo "Divisa"
+Botón "Agregar otra factura"
+Botón "Regresar"
+Botón "Continuar"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar"||El sistema muestra la pantalla "Confirmación del pago (Paso 3 de 3)":
+Sección "Información de origen"
+Campo "Cuenta o producto de origen"
+Campo "Divisa"
+Sección "Información del destino"
+Campo "Empresa prestadora de servicios"
+Campo "Alias"
+Campo "Número de convenio"
+Sección "Referencias del servicio a pagar"
+Referencia 1 agrupada
+Botón "Regresar"
+Botón "Continuar"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar" para confirmar la información mostrada.||El sistema muestra la pantalla "Ingresa datos de autenticación".</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el token en el campo "Ingresa tu token".||El sistema permite ingresar el token de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Autenticar".||El sistema muestra la página "Confirmación pago de facturas" con el banner color verde con el mensaje:
+"Transacción creada con éxito. Para hacer seguimiento visitar Transacciones realizadas.
+Número de operación: "
+Sección "Servicio(s) pagado(s)
+Campo "Referencia 1"
+Campo "Matricula"
+Campo "Captura siempre uno"
+Campo "Importe delpago/dep"
+Campo "Divisa"
+Campo "Importe del recibo"
+Campo "Importe de la comisión"
+Campo "IVA de la comisión"
+Campo "Tipo de cambio"
+Campo "Importe de los intereses"
+Campo "Descuento por pronto pago"
+Campo "Importe total del pago"
+Campo "Importe total del cargo"
+Sección "Información del destino"
+Campo "Empresa prestadora de servicios"
+Campo "Alias"
+Campo "Número de convenio"
+Sección "Información de origen"
+Campo "Cuenta o producto de origen"
+Divisa
+Sección "Flujos de aprobación"
+Sección "Mensaje"
+Botón "Otro pago"
+Botón "Inicio"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Descargar comprobante".||El sistema permite la descarga del comprobante de forma correcta en formato PDF.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el campo "Empresa prestadora de servicios" y selecciona el número de convenio para pago de factura.||El sistema permite seleccionar el número de convenio para pago de factura de forma correcta y muestra el campo "Número de cliente".</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el número de cliente dando clic en el campo "Número de cliente".||El sistema permite seleccionar el número de cliente de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar"||El sistema muestra la pantalla "Información del Pago (Paso 2 de 3)":
+Sección "Información de origen"
+Campo "Cuenta o producto de origen"
+Campo "Divisa"
+Sección "Información del destino"
+Campo "Empresa prestadora de servicios"
+Campo "Alias"
+Número de convenio
+Sección "Referencias del servicio a paga" (muesta la lista de referencias con las que se puede realizar el pago.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el chevron del registro seleccionado.||El sistema muestra el detalle de la referencia:
+Empresa
+"Tipo de pago: Total / Parcial
+(El pago Total está seleccionado por default)"
+Folio documento
+Tipo
+Vencimiento
+Importe a pagar
+Divisa
+Saldo
+Intereses moratorios
+IVA Intereses
+Desc. pronto pago
+Comisión
+IVA Comisión</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el check de la (s) referencia(s) a pagar.||El sistema habilita el check de las referencias seleccionadas y habilita el campo "Tipo de pago".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el radio button "Parcial" del campo "Tipo de pago".||El sistema permite habilitar la opción "Parcial" de tipo de pago y muestra el campo "Importe a pagar".</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el importe el cual es menor al importe total mostrado en el campo de solo lectura "Importe a pagar".||El sistema permite ingresar el valor del campo "Importe a pagar".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar"||El sistema muestra la pantalla "Confirmación del pago (Paso 3 de 3)":
+Sección "Información de origen"
+Campo "Cuenta o producto de origen"
+Campo "Divisa"
+Sección "Información del destino"
+Campo "Empresa prestadora de servicios"
+Campo "Alias"
+Campo "Número de convenio"
+Sección "Referencias del servicio a pagar"
+Pago parcial de la factura
+Folio documento
+Tipo
+Vencimiento
+Pago total de la factura
+Divisa
+Saldo
+Intereses moratorios
+IVA Intereses
+Desc. pronto pago
+Comisión
+IVA Comisión</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Autenticar".||El sistema muestra la página "Confirmación pago de facturas" con el banner color verde con el mensaje:
+"Transacción creada con éxito. Para hacer seguimiento visitar Transacciones realizadas.
+Número de operación: "
+Sección "Factura(s) pagada(s)
+Campo "Cliente"
+Campo "Empresa"
+Campo "Tipo de pago" (Parcial)
+Campo "Pago parcial de la factura"
+Campo "Folio documento"
+Campo "Tipo"
+Campo "Vencimiento"
+Campo "Pago total de la factura"
+Campo "Divisa"
+Campo "Saldo"
+Campo "Intereses moratorios"
+Campo "IVA Intereses"
+Campo "Desc. pronto pago"
+Campo "Comisión"
+Campo "IVA Comisión"
+Sección "Información del destino"
+Campo "Empresa prestadora de servicios"
+Campo "Alias"
+Campo "Número de convenio"
+Sección "Información de origen"
+Campo "Cuenta o producto de origen
+Divisa
+Sección "Flujos de aprobación"
+Sección "Mensaje"
+Botón "Otro pago"
+Botón "Inicio"</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Tipo de pago".||El sistema debe mostrar el radio button "Total" del campo "Tipo de pago" como seleccionado.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar"||El sistema muestra la pantalla "Confirmación del pago (Paso 3 de 3)":
+Sección "Información de origen"
+Campo "Cuenta o producto de origen"
+Campo "Divisa"
+Sección "Información del destino"
+Campo "Empresa prestadora de servicios"
+Campo "Alias"
+Campo "Número de convenio"
+Sección "Referencias del servicio a pagar"
+Folio documento
+Tipo
+Vencimiento
+Pago total de la factura
+Divisa
+Saldo
+Intereses moratorios
+IVA Intereses
+Desc. pronto pago
+Comisión
+IVA Comisión</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Autenticar".||El sistema muestra la página "Confirmación pago de facturas" con el banner color verde con el mensaje:
+"Transacción creada con éxito. Para hacer seguimiento visitar Transacciones realizadas.
+Número de operación: "
+Sección "Factura(s) pagada(s)
+Campo "Cliente"
+Campo "Empresa"
+Campo "Tipo de pago"
+Campo "Folio documento"
+Campo "Tipo"
+Campo "Vencimiento"
+Campo "Pago total de la factura"
+Campo "Divisa"
+Campo "Saldo"
+Campo "Intereses moratorios"
+Campo "IVA Intereses"
+Campo "Desc. pronto pago"
+Campo "Comisión"
+Campo "IVA Comisión"
+Sección "Información del destino"
+Campo "Empresa prestadora de servicios"
+Campo "Alias"
+Campo "Número de convenio"
+Sección "Información de origen"
+Campo "Cuenta o producto de origen
+Divisa
+Sección "Flujos de aprobación"
+Sección "Mensaje"
+Botón "Otro pago"
+Botón "Inicio"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el submenú "Pago de impuestos".||El sistema muestra la página con el menú de Pago de Impuestos:
+Contribuciones Federales
+Contribuciones Gubernamentales
+SIPARE/IMSS-INFONAVIT
+Cuotas IMSS-SUA</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "SIPARE/IMSS-INFONAVIT"||El sistema muestra la página "Establecer origen y destino de pago (Paso 1 de 3)" con el campo de lista desplegable:
+Cuenta o Producto de Origen
+Botón "Cancelar"
+Botón "Continuar" deshabilitado</t>
+  </si>
+  <si>
+    <t>El usuario selecciona una cuenta en el campo "Cuenta o Producto de Origen".||El sistema permite seleccionar una cuenta origen y muestra los siguientes campos:
+Saldo Disponible (formato moneda)
+Saldo Total (formato moneda)
+Se muestra el campo "Registro Patronal"
+Botón "Cancelar"
+Botón "Continuar"</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el dato en el campo "Registro Patronal" (11 posiciones y a partir del segundo carácter solo debe permitir entrada de números).||El sistema muestra de existir, las coincidencias de los periodos pendientes de pago con el "Registro Patronal" ingresado.</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el periodo patronal deseado de existir coincidencias.||El sistema permite seleccionar el periodo de pago de forma correcta y muestra el botón Continuar habilitado.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar"||El sistema muestra la pantalla "Información del Pago (Paso 2 de 3)".</t>
+  </si>
+  <si>
+    <t>El usuario valida la información de los campos en modo lectura:
+“Cuenta o producto de origen”
+"Impuesto a pagar"
+"Registro patronal"
+"Periodo de pago": (formato "AAAAMM")
+"Folio SUA": (numérico de 6 dígitos)
+"Fecha límite"
+"Origen"
+"Importe"
+"Importe IMSS"
+"Importe RCV"
+"Importe Vivienda"
+"Importe Amortización"
+"Fecha de Aplicación"
+"Usuario"
+"Línea de captura": (debe mostrarse por bloques)
+"Folio"
+"Clave de Rastreo"
+"Estado de Operación"
+"Mensaje"||El sistema muestra los campos en modo lectura.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar"||El sistema muestra la pantalla "Confirmación del Pago (Paso 3 de 3)".</t>
+  </si>
+  <si>
+    <t>El usuario valida la información de los campos en modo lectura.||El sistema muestra los campos en modo lectura.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Confirmar"||El sistema muestra la pantalla "Autenticación".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Pagar".||El sistema muestra la pantalla "Recibo Bancario de Pago SIPARE/IMSS-INFONAVIT" con el banner en color verde y el siguiente mensaje de confirmación:
+"El Pago SIPARE/IMSS-INFONAVIT fue exitoso.
+Número de Operación: "
+Opción "Descargar comprobante"
+Se muestran los siguientes campos:
+"Cuenta de Cargo"
+"Registro Patronal"
+"Periodo de pago": (formato "AAAAMM")
+"Origen"
+"Folio SUA": (numérico de 6 dígitos)
+"Fecha Límite"
+"Importe IMSS"
+"Importe RCV"
+"Importe Vivienda"
+"Importe Amortización"
+"Fecha de Aplicación"
+"Usuario"
+"Línea de captura": (debe mostrarse por bloques)
+"Folio"
+"Estado de Operación"
+"Mensaje
+Botón "Otro Pago"
+Botón "Inicio"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Contribuciones Gubernamentales"||El sistema muestra la página "Establecer origen y destino de pago (Paso 1 de 3)" con el campo de lista desplegable:
+Cuenta o Producto de Origen
+Botón "Cancelar"
+Botón "Continuar"</t>
+  </si>
+  <si>
+    <t>El usuario selecciona una cuenta en el campo "Cuenta o Producto de Origen".||El sistema permite seleccionar una cuenta origen y muestra los siguientes campos:
+Saldo Disponible (formato moneda)
+Saldo Total (formato moneda)
+Se muestra el campo " Impuesto Gubernamental a Pagar"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el campo "Impuesto Gubernamental a Pagar".||El sistema muestra los valores de la lista:
+Contribuciones Gubernamentales del Estado de México
+Contribuciones Gubernamentales de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción "Contribuciones Gubernamentales del Estado de México" en el campo "Impuesto Gubernamental a Pagar".||El sistema permite seleccionar el valor de la lista y habilita el campo de lista desplegable "Servicio o Contrato".</t>
+  </si>
+  <si>
+    <t>El usuario selecciona un valor del campo "Servicio o Contrato".||El sistema permite seleccionar el valor de la lista y habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario valida la información en los campos:
+"Cuenta o Producto de Origen"
+"Impuesto Gubernamental a Pagar"
+"Servicio o Contrato"
+"Divisa"
+"Fecha de Aplicación"||El sistema muestra la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa la información en el campo "Línea de Captura":
+Línea de Captura debe ser alfanumérica a 27 posiciones||El sistema permite ingresar la Línea de Captura de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el monto en el campo "Importe".||El sistema ingresa el monto en el campo "Importe" en el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario ingresa la fecha en el campo "Fecha Límite de Pago".||El sistema permite ingresar la fecha en el campo "Fecha Límite de Pago" en formato DD/MM/AAAA.
+Se habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Confirmar".||El sistema muestra la página "Confirmación del Pago (Paso 3 de 3)".</t>
+  </si>
+  <si>
+    <t>El usuario valida la información mostrada en la pantalla de confirmación en los siguientes campos:
+"Cuenta o Producto de Origen"
+"Impuesto Gubernamental a Pagar"
+"Servicio o Contrato"
+"Divisa"
+"Fecha de Aplicación"
+Sección "Referencias del Servicio"
+"Línea de Captura:"
+"Importe:"
+"Fecha Límite de Pago"
+"Importe del Recibo:"
+"Importe de los Intereses:"
+"Descuento por Pronto Pago:"
+"Subtotal:"
+"Importe de la Comisión:"
+"IVA de la Comisión:"
+"Importe Total del Pago:"
+"Tipo de Cambio:"
+"Importe Total del Cargo:"
+Botón "Regresar"
+Botón "Confirmar"||El sistema muestra la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Pagar".||El sistema muestra la pantalla "Recibo Bancario del Pago de Contribuciones Gubernamentales" con el banner en color verde y el siguiente mensaje de confirmación:
+"El Pago de Servicio del Gobierno del Estado de México fue exitoso.
+Número de Operación: "
+Opción "Descargar comprobante"
+Se muestran los siguientes campos:"
+"Cuenta o Producto de Origen"
+"Impuesto Gubernamental a Pagar"
+"Forma de Pago"
+"Servicio o Contrato"
+"Divisa"
+"Fecha de Aplicación"
+Sección "Referencias del Servicio"
+"Línea de Captura:"
+"Importe:"
+"Fecha Límite de Pago"
+"Importe del Recibo:"
+"Importe de los Intereses:"
+"Descuento por Pronto Pago:"
+"Subtotal:"
+"Importe de la Comisión:"
+"IVA de la Comisión:"
+"Importe Total del Pago:"
+"Tipo de Cambio:"
+"Importe Total del Cargo:"
+Botón "Otro Pago"
+Botón "Inicio"</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción "Contribuciones Gubernamentales de la Ciudad de México" en el campo "Impuesto Gubernamental a Pagar".||El sistema permite seleccionar el valor de la lista y habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario valida la información en los campos:
+"Cuenta o Producto de Origen"
+"Impuesto Gubernamental a Pagar"
+"Forma de Pago"
+"Servicio o Contrato"
+"Divisa"
+"Fecha de Aplicación"||El sistema muestra la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa la información en el campo "Línea de Captura":
+Línea de Captura debe ser alfanumérica a 20 posiciones||El sistema permite ingresar la Línea de Captura de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida la información mostrada en la pantalla de confirmación en los siguientes campos:
+"Cuenta o Producto de Origen"
+"Impuesto Gubernamental a Pagar"
+"Forma de Pago"
+"Servicio o Contrato"
+"Divisa"
+"Fecha de Aplicación"
+Sección "Referencias del Servicio"
+"Línea de Cpatura:"
+"Importe a Pagar:"
+"Importe del Recibo:"
+"Importe de la Comisión:"
+"IVA de la Comisión:"
+"Importe Total del Pago:"
+"Tipo de Cambio:"
+"Importe Total del Cargo:"
+Botón "Regresar"
+Botón "Confirmar"||El sistema muestra la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Confirmar".||El sistema muestra la página "Ingresa datos de autenticación".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Pagar".||El sistema muestra la pantalla "Recibo Bancario del Pago de Contribuciones Gubernamentales" con el banner en color verde y el siguiente mensaje de confirmación:
+"El Pago de Servicios del Gobierno de la Ciudad de México fue exitoso.
+Número de Operación: "
+Opción "Descargar comprobante"
+Se muestran los siguientes campos:"
+"Cuenta o Producto de Origen"
+"Impuesto Gubernamental a Pagar"
+"Forma de Pago"
+"Servicio o Contrato"
+"Divisa"
+"Fecha de Aplicación"
+Sección "Referencias del Servicio"
+"Línea de Cpatura:"
+"Importe a Pagar:"
+"Importe del Recibo:"
+"Importe de la Comisión:"
+"IVA de la Comisión:"
+"Importe Total del Pago:"
+"Tipo de Cambio:"
+"Importe Total del Cargo:"
+Botón "Otro Pago"
+Botón "Inicio"</t>
   </si>
   <si>
     <t>El usuario da clic en el botón "Crear".||El sistema muestra la pantalla de confirmación con el banner verde y el mensaje:
 "La creación del beneficiario fue éxitosa y quedará activado 30 minutos después de su autorización.
-Número de operación:"</t>
-  </si>
-  <si>
-    <t>El usuario da clic en el botón "Crear beneficiario".||El sistema muestra la página "Crea el perfil del beneficiario (Paso 1 de 3)"</t>
-  </si>
-  <si>
-    <t>El usuario da clic en la lista desplegable del campo "Tipo de beneficiario".||El sistema muestra varios valores</t>
-  </si>
-  <si>
-    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Asigna el servicio o factura (Paso 2 de 3)"</t>
-  </si>
-  <si>
-    <t>El usuario selecciona el valor "Persona moral" del campo "Tipo de beneficiario".||El sistema permite seleccionar el valor del campo "Tipo de beneficiario" y muestra el campo "Nombre del perfil".</t>
-  </si>
-  <si>
-    <t>El usuario ingresa "Nombre del perfil".||El sistema permite ingresar el nombre del perfil y se habilita el botón "Continuar".</t>
-  </si>
-  <si>
-    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Configurar cuentas de destino (Paso 2 de 3)"</t>
-  </si>
-  <si>
-    <t>El usuario selecciona la opción "Cuentas otro banco"||El sistema muestra varios campos</t>
-  </si>
-  <si>
-    <t>El usuario valida la información de solo lectura: Campo "Destino de pago". Campo "Divisa"||El sistema muestra de forma correcta la información.</t>
-  </si>
-  <si>
-    <t>El usuario da clic en el campo "Tipo de cuenta" y selecciona uno de los valores correspondientes a la cuenta.||El sistema muestra varios valores</t>
-  </si>
-  <si>
-    <t>El usuario ingresa el "Número de cuenta.||El sistema permite ingresar al información de forma correcta.</t>
-  </si>
-  <si>
-    <t>El usuario da clic en el campo "Banco de la cuenta" y selecciona uno de los valores correspondientes a la cuenta.||El sistema permite seleccionar el banco asociado a la cuenta.</t>
-  </si>
-  <si>
-    <t>El usuario valida la información de solo lectura: Campo "Tipo de identificación"||El sistema muestra de forma correcta la información.</t>
-  </si>
-  <si>
-    <t>El usuario ingresa el "Número de identificación".||El sistema permite ingresar al información de forma correcta.</t>
-  </si>
-  <si>
-    <t>El usuario ingresa el "Nombre /Razón social".||El sistema permite ingresar al información de forma correcta.</t>
-  </si>
-  <si>
-    <t>El usuario indica si es necesario establecer un límite de abono en "¿Necesistas límite de abono para esta cuenta?" seleccionando el valor "Si".||El sistema muestra el campo "Ingresa el límite de abono para esta cuenta".</t>
-  </si>
-  <si>
-    <t>El usuario ingresa un valor numérico en el campo "Ingresa el límite de abono para esta cuenta".||El sistema permite ingresar al información de forma correcta.</t>
-  </si>
-  <si>
-    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Revisa el resumen y envía (Paso 3 de 3)"</t>
-  </si>
-  <si>
-    <t>Paso25</t>
-  </si>
-  <si>
-    <t>Paso26</t>
-  </si>
-  <si>
-    <t>Paso27</t>
-  </si>
-  <si>
-    <t>Paso28</t>
-  </si>
-  <si>
-    <t>Paso29</t>
-  </si>
-  <si>
-    <t>Paso30</t>
-  </si>
-  <si>
-    <t>El usuario da clic en el botón "Crear".||El sistema muestra la pantalla de confirmación con el banner verde y el mensaje:
-"Beneficiario creado con éxito. Este beneficiario quedará activado en 30 minutos.
-Número de operación: "</t>
-  </si>
-  <si>
-    <t>El usuario selecciona la opción "Cuentas Scotiabank"||El sistema muestra varios campos</t>
-  </si>
-  <si>
-    <t>El usuario ingresa un valor numérico en el campo "Ingresa el límite de abono para esta cuenta".||El sistema permite ingresar al información de forma correcta y habilita el botón "Continuar".</t>
-  </si>
-  <si>
-    <t>El usuario selecciona el valor "Persona física" del campo "Tipo de beneficiario".||El sistema permite seleccionar el valor del campo "Tipo de beneficiario"</t>
-  </si>
-  <si>
-    <t>El usuario ingresa el "Nombres".||El sistema permite ingresar al información de forma correcta.</t>
-  </si>
-  <si>
-    <t>El usuario ingresa el "Apellido Paterno".||El sistema permite ingresar al información de forma correcta.</t>
-  </si>
-  <si>
-    <t>El usuario ingresa el "Apellido Materno".||El sistema permite ingresar al información de forma correcta.</t>
-  </si>
-  <si>
-    <t>El usuario da clic en el botón "Crear".||El sistema muestra la pantalla de confirmación con el banner verde y el mensaje:
-"El registro del beneficiario fue exitoso y quedará activado 30 minutos.
-Número de operación: "</t>
-  </si>
-  <si>
-    <t>El usuario selecciona el valor "Contribuciones Gubernamentales" del campo "Tipo de beneficiario".||El sistema permite seleccionar el valor del campo "Tipo de beneficiario" y se habilita el botón "Continuar".</t>
-  </si>
-  <si>
-    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Asignar el impuesto
-(Paso 2 de 3)"</t>
-  </si>
-  <si>
-    <t>El usuario da clic en la lista desplegable del campo "Tipo de impuesto".||El sistema muestra varios valores:</t>
-  </si>
-  <si>
-    <t>El usuario selecciona el valor "Contribuciones Gubernamentales del Estado de México" del campo "Tipo de impuesto".||El sistema permite seleccionar el valor del campo "Tipo de impuesto" y se habilita el botón "Continuar".</t>
-  </si>
-  <si>
-    <t>El usuario valida la información de solo lectura: Sección "Tipo de beneficiario". Sección "Impuesto". Campo "Tipo de impuesto". El sistema muestra la página "Ingresa datos de autenticación".||El sistema muestra la página "Ingresa datos de autenticación".</t>
-  </si>
-  <si>
-    <t>El usuario selecciona el valor "Contribuciones Gubernamentales de la Ciudad de México" del campo "Tipo de impuesto".||El sistema permite seleccionar el valor del campo "Tipo de impuesto" y se habilita el botón "Continuar".</t>
+Número de operación:"
+Sección "Resumen de la información"
+Campo "Tipo de beneficiario": Pagos de servicios y facturas
+Campo "Empresa prestadora de servicios"
+Campo "Número de Convenio"
+Campo "Número de cliente"
+Campo "Alias"
+Botón "Ir al inicio"
+Botón "Crear otro beneficiario"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Contribuciones Federales"||El sistema muestra la página "Establecer origen y destino de pago (Paso 1 de 3)" con los campos de lista desplegable:
+Cuenta o Producto de Origen
+Impuesto Federal a Pagar</t>
+  </si>
+  <si>
+    <t>El usuario selecciona una cuenta en el campo "Cuenta o Producto de Origen".||El sistema permite seleccionar una cuenta origen y muestra los siguientes campos:
+Saldo Disponible (formato moneda)
+Saldo Total (formato moneda)</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el campo "Impuesto Federal a Pagar".||El sistema muestra los valores de la lista:
+Derechos, Productos y Aprovechamientos
+Pago Referenciado SAT</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción "Derechos, Productos y Aprovechamientos" en el campo "Impuesto Federal a Pagar".||El sistema permite seleccionar el valor de la lista y habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Información del Pago (Paso 2 de 3)".</t>
+  </si>
+  <si>
+    <t>El usuario valida la información recién ingresada en los campos:
+"Cuenta o Producto de Origen"
+"Impuesto Federal a Pagar"||El sistema muestra la información ingresada en el Paso 1 de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa la información en los campos:
+"RFC"
+"Confirmar RFC"||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa la información en el campo "Denominación o razón social"||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa la información en el campo "Dependencias y Entidades"||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa la información en el campo "Periodicidad"||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa la información en el campo "Ejercicio"||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa la información en el campo "Periodo"||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa la información en el campo "Clave de Referencia del DPA||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa la información en el campo "Cadena de la Dependencia"||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Agregar Concepto"||El sistema permite agregar el concepto en la sección "Detalle".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Confirmar Datos"||El sistema muestra una ventana con el mensaje:
+"Validación de datos
+¿Los datos capturados son correctos?
+Botón "Aceptar"
+Botón "Cancelar"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Aceptar".||El sistema cierra la ventana.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Enviar".||El sistema habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario valida la información mostrada en la pantalla de confirmación en los siguientes campos:
+Se Realiza un Pago de Impuestos por
+Con Cargo a la Cuenta
+Fecha de Aplicación
+Número de Operación
+Folio
+Llave de Pago
+RFC
+Total Efectivamente Pagado
+Divisa
+Dependencia
+Razón Social
+Sección "Derechos, Productos y Aprovechamientos Total a Pagar (indica el importe ingresado)":
+Período
+Ejercicio
+Importe
+Total de Contribuciones
+Cantidad Pagada
+Clave de Referencia del DPA
+Cadena de la Dependencia
+Botón "Regresar"
+Botón "Confirmar"||El sistema muestra la información en la pantalla de confirmación de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Pagar".||El sistema muestra la pantalla "Recibo Bancario de Pago de Contribuciones, Productos y Aprovechamientos Federales" con el banner en color verde y el siguiente mensaje de confirmación:
+"El Pago de Derechos, Productos y Aprovechamientos fue exitoso.
+Número e Operación: ""
+Opción ""Descargar comprobante"
+Se muestran los siguientes campos:"
+Se Realiza un Pago de Impuestos por:
+Con Cargo a la Cuenta:
+Fecha de Aplicación:
+Número de Operación:
+Folio:
+Llave de Pago:
+Fecha de Pago:
+Hora de Pago:
+RFC:
+CURP:
+Total Efectivamente Pagado:
+Denominación o Razón Social
+"Dependencia
+Sección Conceptos:"
+Período
+Ejercicio
+Importe
+Total de Contribuciones
+Cantidad Pagada
+Clave de Referencia del DPA
+Cadena de la Dependencia
+Cadena Original:
+"Sello Digital
+Botón "Otro Pago"
+Botón "Inicio"</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción "Pago Referenciado SAT" en el campo "Impuesto Federal a Pagar".||El sistema permite seleccionar el valor de la lista y habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario ingresa la información en el campo "Línea de Captura":
+Línea de Captura debe ser alfanumérica a 20 posiciones
+Línea de Captura debe iniciar con 00, 01, 02 o 04||El sistema permite ingresar la Línea de Captura de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el monto en el campo "Importe": $100,000.00||El sistema ingresa el monto en el campo "Importe" en el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que muestre la Divisa.||El sistema muestra la Divisa de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la fecha en el campo "Fecha de Aplicación".||El sistema muestra la fecha de aplicación de forma correcta en formato DD/MMM/AAAA.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Confirmación del Pago (Paso 3 de 3)".</t>
+  </si>
+  <si>
+    <t>El usuario valida la información recién ingresada en los campos:
+"Cuenta o Producto de Origen"
+"Impuesto Federal a Pagar"
+"Línea de Captura"
+"Importe"
+"Divisa"
+"Fecha de Pago"
+Botón "Regresar"
+Botón "Confirmar"||El sistema muestra la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Pagar".||El sistema muestra la pantalla "Recibo Bancario de Pago de Contribuciones, Productos y Aprovechamientos Federales" con el banner en color verde y el siguiente mensaje de confirmación:
+“El Pago Referenciado SAT fue exitoso.”
+Número de operación: ""
+Se muestran los siguientes campos:"
+"Cuenta o Producto de Origen"
+"Línea de Captura"
+"Importe Pagado"
+"Número de Operación"
+"Folio"
+"Fecha de Pago"
+"Hora de Pago"
+"Canal de Pago"
+"Forma de Pago"
+"Mensaje"
+Botón "Otro Pago"
+Botón "Inicio"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Descargar comprobante".||El sistema permite la descarga del comprobante de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el submenú "Pagos de Nómina".||El sistema muestra la página "Selecciona un beneficiario (Paso 1 de 3)".</t>
+  </si>
+  <si>
+    <t>El usuario habilita el radio botón correspondiente al campo "Nombre del titular de la cuenta" del beneficiario tipo Persona Física.||El sistema habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Selecciona un beneficiario (Paso 2 de 3)".</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la cuenta de origen en el campo "Origen del pago".||El sistema permite seleccionar la cuenta de origen en el campo "Origen del pago" y muestra los campos:
+Saldo total (formato moneda)
+Saldo disponible (formato moneda)</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestren los datos del beneficiario en los siguientes campos:
+Nombre del titular de la cuenta
+Número de cuenta
+Banco
+"Tipo de cuenta
+Opción Ver detalles"||El sistema muestra de forma correcta la información del beneficiario.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la fecha en el campo "Fecha de transacción".||El sistema muestra la fecha de transacción de forma correcta en formato DD/MMM/AAAA.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la opción "Condiciones de transacciones interbancarias".||El sistema muestra la opción como hipervínculo.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa solo números en el campo "Referencia numérica".||El sistema permite ingresar la referencia numérica de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa una descripción en el campo "Concepto".||El sistema permite ingresar el concepto de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Selecciona un beneficiario
+(Paso 3 de 3)" con la siguiente información:"
+Sección "Detalle La Trannsaccion"
+Sección "Informacion Del Beneficiario"
+Sección "Informacion de Origen"
+Botón "Editar Pago"
+Botón "Cancelar"
+Botón "Confirmar"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Crear".||El sistema muestra la pantalla de Acuse de recibo con el banner en color verde y el siguiente mensaje de confirmación:
+"Transacción creada con éxito. Para hacer seguimiento revisar. Transacciones realizadas.
+Número de operación: "
+Adicional se muestran las siguientes secciones:
+Sección "Detalle La Trannsaccion"
+Sección "Informacion Del Beneficiario
+Sección "Informacion de origen"
+Botón "Crear otro pago"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el chevron correspondiente al Tipo de beneficiario: Persona Física con cuenta Scotiabank.||El sistema muestra los datos del beneficiario:
+Nombre del titular de la cuenta
+Número de cuenta
+Banco
+"Tipo de cuenta
+Opción Ver detalles"</t>
+  </si>
+  <si>
+    <t>El usuario ingresa números y letras en el campo "Referencia alfanumérica (opcional)".||El sistema permite ingresar la referencia alfanumérica de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa solo letras en el campo "Referencia de empresa (opcional)".||El sistema permite ingresar la referencia de la empresa de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Selecciona un beneficiario
+(Paso 3 de 3)" con la siguiente información:
+Sección "Detalle La Trannsaccion"
+Sección "Informacion Del Beneficiario"
+Sección "Informacion de Origen"
+Botón "Editar Pago"
+Botón "Cancelar"
+Botón "Confirmar"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el submenú "Pagos a Proveedores".||El sistema muestra la página "Selecciona un beneficiario (Paso 1 de 3)".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el chevron correspondiente al Tipo de beneficiario: Persona Moral con cuenta de Otro Banco.||El sistema muestra los datos del beneficiario:
+Nombre del titular de la cuenta
+Número de cuenta
+Banco
+"Tipo de cuenta
+Opción Ver detalles"</t>
+  </si>
+  <si>
+    <t>El usuario habilita el radio botón correspondiente al campo "Nombre del titular de la cuenta" del beneficiario tipo Persona Moral.||El sistema habilita el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el iva en el campo "IVA (opcional)".||El sistema permite ingresar el IVA de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Crear".||El sistema muestra la pantalla de Acuse de recibo con el banner en color verde y el siguiente mensaje de confirmación:
+"Transacción creada con éxito. Para hacer seguimiento revisar. Transacciones realizadas.
+Número de operación: "
+Adicional se muestran las siguientes secciones:"
+Sección "Detalle La Trannsaccion"
+Sección "Informacion Del Beneficiario
+Sección "Informacion de origen"
+Botón "Crear otro pago"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el chevron correspondiente al Tipo de beneficiario: Persona Moral con cuenta Scotiabank.||El sistema muestra los datos del beneficiario:
+Nombre del titular de la cuenta
+Número de cuenta
+Banco
+"Tipo de cuenta
+Opción Ver detalles"</t>
+  </si>
+  <si>
+    <t>TC_002_21_pagoProveedoresPersonaMoralOtroBanco</t>
+  </si>
+  <si>
+    <t>TC_002_22_pagoProveedoresPersonaMoralScotiabank</t>
+  </si>
+  <si>
+    <t>TC_002_23_pagoProveedoresPersonaFisicaOtroBanco</t>
+  </si>
+  <si>
+    <t>TC_002_24_pagoProveedoresPersonaFisicaScotiabank</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el chevron correspondiente al Tipo de beneficiario: Persona Física con cuenta de Otro Banco.||El sistema muestra los datos del beneficiario:
+Nombre del titular de la cuenta
+Número de cuenta
+Banco
+Tipo de cuenta
+Opción Ver detalles</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestren los datos del beneficiario en los siguientes campos:
+Nombre del titular de la cuenta
+Número de cuenta
+Banco
+Tipo de cuenta
+Opción Ver detalles||El sistema muestra de forma correcta la información del beneficiario.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el submenú "Transferencias entre productos propios".||El sistema muestra la página "Información de la transferencia (Paso 1 de 3)".</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el Número de cuenta Cheques MXN en el campo "Cuenta o producto de origen".||El sistema permite seleccionar la cuenta y muestra los campos:
+Saldo Disponible (formato moneda)
+Saldo Total (formato moneda)</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el Número de crédito Hipotecario en el campo "Cuenta o producto destino".||El sistema permite seleccionar el crédito hipotecario de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Confirmar transferencia (Paso 2 de 3)" con las siguientes secciones:
+Información de origen
+Información destino
+Importe a transferir
+Información de referencia</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la cuenta seleccionada anteriormente en el campo "Cuenta o producto de origen".||El sistema muestra la cuenta de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la cuenta seleccionada anteriormente en el campo "Cuenta o producto destino".||El sistema muestra la cuenta de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la fecha en el campo "Fecha de aplicación".||El sistema muestra la fecha de aplicación de forma correcta en formato DD/MMM/AAAA.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa solo números en el campo "Referencia numérica (opcional)".||El sistema permite ingresar la referencia numérica de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Confirmación de la transferencia (Paso 3 de 3)" con la siguiente información:
+Sección "Información de la transferencia"
+Sección "Información destino"
+Sección "Información de origen"
+Botón Regresar
+Botón Transferir</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la información en la sección "Información de la transferencia":
+Campo "Importe"
+Campo "Divisa"
+Campo "Fecha de aplicación"
+Campo "Referencia empresa"
+Campo "Referencia numérica"
+Campo "Referencia alfanumérica"||El sistema muestra la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la información en la sección "Información destino":
+Campo "Cuenta o producto destino"||El sistema muestra la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la información en la sección "Información de origen":
+Campo "Cuenta o producto de origen"||El sistema muestra la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Ingresa datos de autenticación".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Transferir".||El sistema muestra la pantalla de Acuse de recibo con el banner en color verde y el siguiente mensaje de confirmación:
+"Transacción realizada con éxito. Para hacer seguimiento visitar Transacciones realizadas.
+Número de operación: "
+Adicional se muestran las siguientes secciones:
+Opción "Descargar comprobante"
+Sección "Información de la transferencia"
+Sección "Información destino"
+Sección "Información de origen"
+Botón "Hacer otro pago"
+Botón "Inicio"</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el Número de crédito de Préstamo Personal en el campo "Cuenta o producto destino".||El sistema permite seleccionar el crédito de préstamo personal de forma correcta.</t>
+  </si>
+  <si>
+    <t>TC_002_26_transferenciaChequesMXNPrestamosPersonales</t>
+  </si>
+  <si>
+    <t>TC_002_25_transferenciaChequesMXNCreditoHipotecario</t>
+  </si>
+  <si>
+    <t>TC_002_27_transferenciaTDCChequesMXN</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el número de Tarjeta de Crédito en el campo "Cuenta o producto de origen".||El sistema permite seleccionar el número de Tarjeta de Crédito de forma correcta y los campos:
+Saldo Disponible (formato moneda)
+Saldo Total (formato moneda)</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el Número de cuenta Cheques MXN en el campo "Cuenta o producto destino".||El sistema permite seleccionar el número de cuenta Cheques MXN de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el Número de Tarjeta de Crédito en el campo "Cuenta o producto destino".||El sistema permite seleccionar el número de tarjeta de crédito de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el Número de cuenta Cheques USD en el campo "Cuenta o producto de origen".||El sistema permite seleccionar la cuenta Cheques USD de forma correcta y los campos:
+Saldo Disponible (formato moneda)
+Saldo Total (formato moneda)</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el Número de cuenta Cheques USD en el campo "Cuenta o producto destino".||El sistema permite seleccionar la cuenta Cheques USD de forma correcta.</t>
+  </si>
+  <si>
+    <t>TC_002_28_transferenciaChequesMXNTDC</t>
+  </si>
+  <si>
+    <t>TC_002_29_ChequesUSDChequesUSD</t>
+  </si>
+  <si>
+    <t>TC_002_30_ChequesMXNChequesMXN</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Admin".||El sistema muestra la página principal de Administración.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Administrador".||El sistema muestra el submenú con las opciones:
+Usuarios
+Empresa</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el submenú "Usuarios".||El sistema muestra la página "Administrador/
+Usuarios" con la pestaña Usuarios resaltada en rojo y muestra la lista de usuarios creados.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Acciones" del usuario a editar.||El sistema muestra las opciones del menú:
+"Editar"
+"Ver detalles"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Ver detalles".||El sistema muestra el detalle de la información del usuario en la opción "Profile" del campo de lista desplegable "Select a tab".
+El campo de lista desplegable "Select a tab" contiene las opciones:
+"Profile"
+"Permisos de Administración"
+"Permisos de Consulta"
+"Permisos Transaccionales"
+"Registro de actividades"</t>
+  </si>
+  <si>
+    <t>TC_002_33_administradorRechazarAprobacion</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón de notificaciones (ícono de la campana)||El sistema muestra la página "Aprobaciones".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Acciones" de la aprobación deseada.||El sistema muestra las opciones del menú:
+"Autorizar"
+"Rechazar"
+"Ver detalles"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Rechazar"||El sistema muestra una ventana flotante con el mensaje:
+¿Estás seguro de esta acción?
+Botón "Cancelar"
+Botón "Si, estoy seguro" resaltado en rojo</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Si, estoy seguro"||El sistema muestra el mensaje en un banner verde:
+"La modificación del perfil del usuario fue rechazada".</t>
+  </si>
+  <si>
+    <t>TC_002_34_administradorAutorizarAprobacion</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Autorizar"||El sistema muestra una ventana flotante con el mensaje:
+¿Estás seguro de esta acción?
+Botón "Cancelar"
+Botón "Si, estoy seguro" resaltado en rojo</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Si, estoy seguro"||El sistema muestra el mensaje en un banner verde:
+"El perfil del usuario fue actualizado exitosamente.".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Editar".||El sistema muestra el detalle de la información del usuario con los campos editables:
+Campo "Primer nombre"
+Campo "Segundo nombre (Opcional)
+Campo "Apellido paterno"
+Campo "Apellido materno"
+Campo "Cargo"
+Campo "Área"
+Campo "Número de celular"
+Campo "Verifica número de celular"
+Campo "Correo electrónico"
+Campo "Verifica correo electrónico"
+Botón "Volver"
+Botón "Enviar"</t>
+  </si>
+  <si>
+    <t>El usuario edita el campo deseado.||El sistema permite editar los campos deseados de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Enviar".||El sistema muestra una ventana flotante con el título "Usuario editado".
+¿Desea continuar con esta acción?
+Botón "Cancelar"
+Botón "Aceptar" resaltado en rojo</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Aceptar".||El sistema muestra el mensaje en un banner verde:
+"Usuario editado
+El usuario ha sido editado con éxito"</t>
+  </si>
+  <si>
+    <t>TC_002_35_administradorEditarUsuarioNoMancomunada</t>
+  </si>
+  <si>
+    <t>TC_002_36_administradorEditarUsuarioMancomunada</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Crear usuario".||El sistema muestra la página "Administrador/Usuarios/
+Crear usuario".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Crear nuevo usuario".||El sistema muestra la página "Ingresa la informacion basica del usuario (Paso 1 de 6)" solicitando los datos:
+"Primer nombre"
+"Segundo nombre (Opcional)
+"Apellido paterno"
+"Apellido materno"
+"Cargo"
+"Área"
+"Número de celular"
+"Verifica número de celular"
+"Correo electrónico"
+"Verifica correo electrónico"
+Botón "Volver"
+Botón "Continuar"</t>
+  </si>
+  <si>
+    <t>El usuario ingresa "Primer nombre".||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa "Segundo nombre (Opcional)".||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa "Apellido paterno".||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa "Apellido materno".||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa "Cargo".||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa "Área".||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa "Número de celular" a 10 dígitos.||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa "Verifica Número de celular" a 10 dígitos..||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa "Correo electrónico".||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa "Verifica Correo electrónico".||El sistema permite ingresar la información de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Asigna permisos de administracion (Paso 2 de 6)" con la siguiente información:
+Primer Nombre
+Tipo de identificación
+Número de identificación
+Cargo
+Área
+Teléfono celular
+Correo electrónico
+¿Es un usuario administrador? con el radio button deshabilitado con la etiqueta "No".
+Botón "Volver"
+Botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario mantiene deshabilitado el radio button "¿Es un usuario administrador?".||El sistema muestra el radio botón deshabilitado con la etiqueta "No".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Asigna permisos de consulta (Paso 3 de 6)" con la siguiente información:
+Primer Nombre
+Tipo de identificación
+Número de identificación
+Cargo
+Área
+Teléfono celular
+Correo electrónico
+¿Este usuario tendrá permisos de consulta? con el radio button deshabilitado con la etiqueta "No".
+Botón "Volver"
+Botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el radio button "¿Este usuario tendrá permisos de consulta?".||El sistema muestra:
+Radio button habilitado de "¿Este usuario tendrá permisos de consulta?"
+Título "Edita los permisos de consulta"
+Radio button "Activar todos los productos" deshabilitado
+Lista de todos los productos deshabilitados
+Botón "Volver"
+Botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario habilita el radio button "Activar todos los productos".||El sistema muestra una ventana flotante con el mensaje:
+"¿Estás seguro de esta acción?
+Al otorgar acceso total, el usuario podrá consultar todas las cuentas y productos sin restricciones"
+Botón "Cancelar"
+Botón "¡Sí, estoy seguro!"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "¡Sí, estoy seguro!".||El sistema muestra el radio button "Activar todos los productos" habilitado así como todos los productos con el estado COMPLETO.
+Botón "Volver"
+Botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Asigna permisos transaccionales (Paso 4 de 6)" con la siguiente información:
+Primer Nombre
+Tipo de identificación
+Número de identificación
+Cargo
+Área
+Teléfono celular
+Correo electrónico
+¿Este usuario tendrá permisos de transacciones? con el radio button deshabilitado con la etiqueta "No".
+Botón "Volver"
+Botón "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el radio button "¿Este usuario tendrá permisos de transacciones?".||El sistema muestra:
+Radio button habilitado de "¿Este usuario tendrá permisos de transacciones?"
+Radio button "Configuración rápida para todos los servicios" deshabilitado
+Lista de todos los productos deshabilitados
+Botón "Volver"
+Botón "Continuar" deshabilitado</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el radio button "Configuración rápida para todos los servicios"||El sistema muestra:
+el estado PENDIENTE de la configuración de los productos
+Sección con el mensaje: "Al establecer los mismos permisos para todo los servicios, se activaran para el usuario todas las cuentas."
+Etiqueta "1. Selecciona el rol del usuario en este servicio"
+Campo "Creador" tipo check deshabilitado
+Campo "Aprobador" tipo check deshabilitado</t>
+  </si>
+  <si>
+    <t>El usuario habilita el check del campo "Creador".||El sistema permite habilitar el check de forma correcta y muestra la etiqueta "2. ¿Necesitas límites transacciónales para este usuario?
+Si la respuesta es no, el usuario asumirá los límites transaccionales de la empresa." con los radio button deshabilitados "Si" y "No".</t>
+  </si>
+  <si>
+    <t>El usuario habilita el check del campo "Aprobador".||El sistema permite habilitar el check de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario habilita el radio button "No" de la etiqueta "2. ¿Necesitas límites transacciónales para este usuario?"||El sistema permite habilitar el radio button de forma correcta, cambia el estado de la configuración a COMPLETO y habilita el campo "Continuar".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Selecciona el metodo de autenticacion para este usuario (Paso 5 de 6)" con la siguiente información:
+Primer Nombre
+Tipo de identificación
+Número de identificación
+Cargo
+Área
+Teléfono celular
+Correo electrónico
+"Asigne método de autenticación
+Seleccionar tipo de token"
+Campo de lista desplegable con el valor "Soft Token" predeterminado
+Botón "Volver"
+Botón "Continuar"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Revisa el resumen de la informacion (Paso 6 de 6)" con la siguiente información:
+Botón "Editar"
+Nombres
+Apellido paterno
+Apellido materno
+Tipo de identificación
+Número de identificación
+Cargo
+Área
+Teléfono celular
+Correo electrónico
+Permisos para administración con el botón "Editar"
+Etiqueta "Usuario administrador" con el valor "No"
+Sección "Permisos para consulta" con los productos listados, estado COMPLETO y botón Editar.
+"Sección ""Servicios transaccionales"" con los servicios habilitados, estado COMPLETO y con el botón "Editar" disponible.
+Botón "Volver"
+Botón "Crear"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Crear".||El sistema muestra el banner de color verde con el mensaje: "El usuario &lt;Primer nombre&gt; &lt;Segundo nombre&gt; fue creado con éxito. Se enviará una notificación.".</t>
+  </si>
+  <si>
+    <t>TC_002_37_administradorCrearUsuarioNoMancomunada</t>
+  </si>
+  <si>
+    <t>TC_002_39_administradorCrearUsuarioMancomunada</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el radio button de cada producto 
+Ejem. "Pagos de nómina"||El sistema muestra:
+el estado PENDIENTE de la configuración del producto
+Sección desplegada:
+Etiqueta "1. Selecciona el rol del usuario en este servicio"
+Campo "Creador" tipo check deshabilitado
+Campo "Aprobador" tipo check deshabilitado</t>
+  </si>
+  <si>
+    <t>El usuario habilita el radio button "No" de la etiqueta "2. ¿Necesitas límites transacciónales para este usuario?"||El sistema permite habilitar el radio button de forma correcta y muestra:
+La etiqueta "3. Selecciona las cuentas autorizadas"
+Campo de Búsqueda
+Lista de número de cuentas</t>
+  </si>
+  <si>
+    <t>El usuario habilita el check para agregar todas las cuentas.||El sistema muestra la ventana flotante "Estas seguro de esta acción?
+Al otorgar acceso total, el usuario podra consultar todas las cuentas y productos sin restricciones"
+Botón "Cancelar"
+Botón "Si, estoy seguro"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Si, estoy seguro".||El sistema permite habilitar todas las cuentas y el estado de la configuració cambia a "COMPLETO".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Revisa el resumen de la informacion (Paso 6 de 6)" con la siguiente información:
+Nombres
+Apellido paterno
+Apellido materno
+Tipo de identificación
+Número de identificación
+Cargo
+Área
+Teléfono celular
+Correo electrónico
+Permisos para administración con el botón "Editar"
+Etiqueta "Usuario administrador" con el valor "No"
+Sección "Permisos para consulta" con los productos listados.
+Sección "Servicios transaccionales" con los servicios habilitados con el botón "Editar" disponible.
+Botón "Volver"
+Botón "Crear"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Crear".||El sistema muestra el banner de color verde con el mensaje: "El usuario &lt;Primer nombre&gt; &lt;Segundo nombre&gt; se creó con éxito y está pendiente de autorización. Se enviará una notificación cuando el usuario esté autorizado".</t>
+  </si>
+  <si>
+    <t>Paso37</t>
+  </si>
+  <si>
+    <t>Paso38</t>
+  </si>
+  <si>
+    <t>Paso39</t>
+  </si>
+  <si>
+    <t>Paso40</t>
+  </si>
+  <si>
+    <t>Paso41</t>
+  </si>
+  <si>
+    <t>Paso42</t>
+  </si>
+  <si>
+    <t>TC_002_40_administradorCrearUsuarioAdministradorMancomunada</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el radio button "¿Es un usuario administrador?".||El sistema muestra el radio botón habilitado con la etiqueta "Si".</t>
+  </si>
+  <si>
+    <t>TC_002_38_administradorCrearUsuarioAdministradorNoMancomunada</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la pestaña "Productos y servicios"||El sistema muestra la página "Cuentas".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Linea Operativa"||El sistema muestra la lista de cuentas de Línea Operativa .</t>
+  </si>
+  <si>
+    <t>El usuario da clic en un número de crédito de Línea operativa.||El sistema muestra el detalle del número de crédito de Línea operativa.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Número de crédito".||El sistema muestra el campo "Número de crédito" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la pestaña "Movimientos".||El sistema muestra la sección Movimientos.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la pestaña "Estado de cuenta".||El sistema muestra la ventana "Autenticación de seguridad".</t>
+  </si>
+  <si>
+    <t>El usuario ingresa la contraseña.||El sistema permite ingresar la contraseña de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el token.||El sistema permite ingresar el token de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Entrar".||El sistema muestra los campos:
+"Periodos" (campo de fecha habilitado).
+Botón "Generar Estados de Cuenta" deshabilitado.</t>
+  </si>
+  <si>
+    <t>El usuario selecciona un periodo del campo "Periodos".||El sistema permite seleccionar el periodo de forma correcta y se habilita el campo "Generar Estados de Cuenta".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Generar Estados de Cuenta".||El sistema muestra los formatos:
+PDF
+"XML
+Botón para realizar descarga."</t>
+  </si>
+  <si>
+    <t>El usuario valida la selección del formato PDF.||El sistema muestra el formato PDF seleccionado por default.</t>
+  </si>
+  <si>
+    <t>El usuario selecciona el formato XML.||El sistema permite seleccionar el formato XML.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón para generar la descarga.||El sistema permite la descarga del archivo de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario indica la ruta para la descarga del archivo y da clic en el botón "Guardar".||El sistema descarga el archivo en formato PDF.</t>
+  </si>
+  <si>
+    <t>El usuario abre el archivo en formato PDF.||El sistema muestra de forma correcta el archivo en formato PDF.</t>
+  </si>
+  <si>
+    <t>TC_002_41_administradorConsultaLineaOperativaXML</t>
+  </si>
+  <si>
+    <t>TC_002_42_administradorConsultaLineaOperativaPDF</t>
+  </si>
+  <si>
+    <t>TC_002_43_administradorConsultaPrestamosPersonales</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Prestamos Personales"||El sistema muestra la lista de créditos de Préstamos Personales .</t>
+  </si>
+  <si>
+    <t>El usuario da clic en un crédito de Préstamo personal.||El sistema muestra el detalle del crédito de Préstamo personal.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Tipo de moneda".||El sistema muestra el campo "Tipo de moneda" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Número de crédito".||El sistema muestra el campo"Número de crédito" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Generar Estados de Cuenta".||El sistema muestra la ventana "Formato del Estado de Cuenta" con el formato:
+PDF
+Botón "Descargar".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Fondos"||El sistema muestra la lista de contratos de Fondos de Inversión .</t>
+  </si>
+  <si>
+    <t>El usuario da clic en un número de contrato de fondos de inversión.||El sistema muestra el detalle del número de contrato de fondos de inversión.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Número de contrato".||El sistema muestra el campo "Número de contrato" de forma correcta.</t>
+  </si>
+  <si>
+    <t>TC_002_44_administradorConsultaFondosInversionXML</t>
+  </si>
+  <si>
+    <t>TC_002_45_administradorConsultaFondosInversionPDF</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Hipotecarios"||El sistema muestra la lista de Créditos Hipotecarios.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en un crédito hipotecario.||El sistema muestra el detalle del Crédito Hipotecario.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Número Crédito"||El sistema muestra el campo "Número Crédito" de forma correcta.</t>
+  </si>
+  <si>
+    <t>TC_002_46_administradorConsultaCreditosHipotecariosXML</t>
+  </si>
+  <si>
+    <t>TC_002_47_administradorConsultaCreditosHipotecariosPDF</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Inversiones"||El sistema muestra la lista de Cuentas de Inversión .</t>
+  </si>
+  <si>
+    <t>El usuario da clic en un número de contrato de inversiones.||El sistema muestra el detalle del contrato de inversiones.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Contrato de inversión"||El sistema muestra el campo "Contrato de inversión" de forma correcta.</t>
+  </si>
+  <si>
+    <t>TC_002_48_administradorConsultaCuentasInversionXML</t>
+  </si>
+  <si>
+    <t>TC_002_49_administradorConsultaCuentasInversionPDF</t>
+  </si>
+  <si>
+    <t>TC_002_24_pagoProveedoresPe|rsonaFisicaScotiabank</t>
+  </si>
+  <si>
+    <t>TC_002_32_administradorIngresarMancomunada</t>
+  </si>
+  <si>
+    <t>TC_002_31_administradorIngresarNoMancomunada</t>
   </si>
 </sst>
 </file>
@@ -357,15 +2127,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -373,17 +2167,240 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -666,15 +2683,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF159"/>
+  <dimension ref="A1:AR159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P7" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
@@ -683,31 +2700,39 @@
     <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="34.85546875" customWidth="1"/>
     <col min="9" max="9" width="32.5703125" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" customWidth="1"/>
     <col min="11" max="11" width="37.7109375" customWidth="1"/>
-    <col min="12" max="12" width="32.140625" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" customWidth="1"/>
-    <col min="14" max="14" width="30.85546875" customWidth="1"/>
-    <col min="15" max="15" width="36.5703125" customWidth="1"/>
+    <col min="12" max="12" width="45.85546875" customWidth="1"/>
+    <col min="13" max="13" width="41.5703125" customWidth="1"/>
+    <col min="14" max="14" width="42.28515625" customWidth="1"/>
+    <col min="15" max="15" width="48.140625" customWidth="1"/>
     <col min="16" max="16" width="37.42578125" customWidth="1"/>
-    <col min="17" max="17" width="34" customWidth="1"/>
-    <col min="18" max="18" width="31.7109375" customWidth="1"/>
-    <col min="19" max="19" width="35.140625" customWidth="1"/>
+    <col min="17" max="17" width="40.140625" customWidth="1"/>
+    <col min="18" max="18" width="43.28515625" customWidth="1"/>
+    <col min="19" max="19" width="48.42578125" customWidth="1"/>
     <col min="20" max="20" width="38.5703125" customWidth="1"/>
-    <col min="21" max="21" width="40.42578125" customWidth="1"/>
-    <col min="22" max="22" width="35.7109375" customWidth="1"/>
-    <col min="23" max="23" width="32.85546875" customWidth="1"/>
-    <col min="24" max="24" width="28.28515625" customWidth="1"/>
-    <col min="25" max="25" width="30.85546875" customWidth="1"/>
-    <col min="26" max="26" width="33.28515625" customWidth="1"/>
-    <col min="27" max="27" width="33" customWidth="1"/>
-    <col min="28" max="28" width="32.85546875" customWidth="1"/>
+    <col min="21" max="21" width="54.42578125" customWidth="1"/>
+    <col min="22" max="22" width="49.85546875" customWidth="1"/>
+    <col min="23" max="23" width="46.140625" customWidth="1"/>
+    <col min="24" max="24" width="44.5703125" customWidth="1"/>
+    <col min="25" max="25" width="49" customWidth="1"/>
+    <col min="26" max="26" width="50.85546875" customWidth="1"/>
+    <col min="27" max="27" width="42" customWidth="1"/>
+    <col min="28" max="28" width="47.5703125" customWidth="1"/>
     <col min="29" max="29" width="43.140625" customWidth="1"/>
-    <col min="30" max="30" width="32.42578125" customWidth="1"/>
-    <col min="31" max="31" width="31.28515625" customWidth="1"/>
+    <col min="30" max="30" width="54.140625" customWidth="1"/>
+    <col min="31" max="31" width="54.28515625" customWidth="1"/>
+    <col min="32" max="32" width="39.7109375" customWidth="1"/>
+    <col min="33" max="33" width="40" customWidth="1"/>
+    <col min="34" max="34" width="48.28515625" customWidth="1"/>
+    <col min="35" max="35" width="40.5703125" customWidth="1"/>
+    <col min="36" max="36" width="52.7109375" customWidth="1"/>
+    <col min="37" max="37" width="44.140625" customWidth="1"/>
+    <col min="38" max="38" width="48.42578125" customWidth="1"/>
+    <col min="39" max="39" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,1442 +2770,3973 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="165" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="U2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="165" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="240" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="T3" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" ht="390" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="AA4" s="2" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="360" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AD6" s="2" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="V7" s="2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" ht="405" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="315" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="1:35" ht="195" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+    </row>
+    <row r="21" spans="1:35" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+    </row>
+    <row r="22" spans="1:35" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="C22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="C23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="180" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="C24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y24" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="C25" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z25" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="C26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB26" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="C27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y27" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB27" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="C28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="C29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y29" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="C30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA30" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="C31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA31" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="180" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="C32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="4"/>
+    </row>
+    <row r="33" spans="1:40" ht="180" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="C33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="N33" s="5"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="4"/>
+    </row>
+    <row r="34" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="C34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N34" s="5"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="4"/>
+    </row>
+    <row r="35" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="C35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="4"/>
+    </row>
+    <row r="36" spans="1:40" ht="240" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="C36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="4"/>
+    </row>
+    <row r="37" spans="1:40" ht="240" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="C37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="4"/>
+    </row>
+    <row r="38" spans="1:40" ht="345" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="C38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="M38" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="O38" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="P38" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q38" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="R38" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="S38" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="T38" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="U38" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="V38" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="W38" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="X38" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y38" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z38" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA38" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB38" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC38" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD38" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE38" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF38" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG38" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH38" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI38" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ38" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK38" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+    </row>
+    <row r="39" spans="1:40" ht="345" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="C39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="M39" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="O39" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="P39" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q39" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="R39" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="S39" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="T39" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="U39" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="V39" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="W39" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="X39" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y39" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z39" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA39" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB39" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC39" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD39" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE39" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF39" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG39" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH39" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI39" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ39" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK39" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+    </row>
+    <row r="40" spans="1:40" ht="330" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="C40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="M40" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="O40" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="P40" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q40" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="R40" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="S40" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="T40" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="U40" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="V40" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="W40" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="X40" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y40" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z40" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA40" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB40" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC40" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD40" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE40" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF40" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG40" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH40" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="AI40" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ40" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK40" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL40" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM40" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN40" s="3"/>
+    </row>
+    <row r="41" spans="1:40" ht="330" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="C41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J41" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="L41" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="N41" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="O41" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="P41" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q41" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="R41" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="S41" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="T41" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="U41" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="V41" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="W41" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="X41" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y41" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z41" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA41" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB41" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC41" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE41" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF41" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG41" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH41" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="AI41" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ41" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK41" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL41" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM41" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN41" s="3"/>
+    </row>
+    <row r="42" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="C42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="M42" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="O42" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="P42" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q42" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="R42" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="S42" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="U42" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+    </row>
+    <row r="43" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="C43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="M43" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="O43" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="P43" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q43" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="R43" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="S43" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="T43" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="U43" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="V43" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+    </row>
+    <row r="44" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="C44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="M44" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="N44" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="O44" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="P44" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q44" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="R44" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="S44" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="T44" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="U44" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+    </row>
+    <row r="45" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="C45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="L45" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="M45" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="N45" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="O45" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="P45" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q45" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="R45" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="S45" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="U45" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+    </row>
+    <row r="46" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="C46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="L46" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="M46" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="N46" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="O46" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="P46" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q46" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="R46" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="S46" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="T46" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="U46" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="V46" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3"/>
+    </row>
+    <row r="47" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="C47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="M47" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="N47" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="O47" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="P47" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q47" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="R47" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="S47" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="T47" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="U47" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+    </row>
+    <row r="48" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="C48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="K48" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="L48" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="M48" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="N48" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="O48" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="P48" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q48" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="R48" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="S48" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="T48" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="U48" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="V48" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+    </row>
+    <row r="49" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="C49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="K49" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="L49" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="M49" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="O49" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="P49" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q49" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="R49" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="S49" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="U49" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+    </row>
+    <row r="50" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="K50" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="L50" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="M50" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="N50" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="O50" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="P50" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q50" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="R50" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="S50" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="T50" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="U50" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="V50" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="3"/>
+      <c r="AN50" s="3"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2193,8 +6749,36 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="3"/>
+      <c r="AK51" s="3"/>
+      <c r="AL51" s="3"/>
+      <c r="AM51" s="3"/>
+      <c r="AN51" s="3"/>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2207,8 +6791,36 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="3"/>
+      <c r="AN52" s="3"/>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2221,8 +6833,36 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2235,8 +6875,36 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3"/>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2249,8 +6917,36 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+      <c r="AH55" s="3"/>
+      <c r="AI55" s="3"/>
+      <c r="AJ55" s="3"/>
+      <c r="AK55" s="3"/>
+      <c r="AL55" s="3"/>
+      <c r="AM55" s="3"/>
+      <c r="AN55" s="3"/>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2263,8 +6959,36 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+      <c r="AH56" s="3"/>
+      <c r="AI56" s="3"/>
+      <c r="AJ56" s="3"/>
+      <c r="AK56" s="3"/>
+      <c r="AL56" s="3"/>
+      <c r="AM56" s="3"/>
+      <c r="AN56" s="3"/>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2277,8 +7001,36 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="3"/>
+      <c r="AI57" s="3"/>
+      <c r="AJ57" s="3"/>
+      <c r="AK57" s="3"/>
+      <c r="AL57" s="3"/>
+      <c r="AM57" s="3"/>
+      <c r="AN57" s="3"/>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2291,8 +7043,25 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="4"/>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2305,8 +7074,25 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16"/>
+      <c r="AC59" s="4"/>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2319,8 +7105,25 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="16"/>
+      <c r="Y60" s="16"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16"/>
+      <c r="AC60" s="4"/>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2333,8 +7136,25 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="16"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="4"/>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2347,8 +7167,25 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
+      <c r="W62" s="16"/>
+      <c r="X62" s="16"/>
+      <c r="Y62" s="16"/>
+      <c r="Z62" s="16"/>
+      <c r="AA62" s="16"/>
+      <c r="AB62" s="16"/>
+      <c r="AC62" s="4"/>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2361,8 +7198,25 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="4"/>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2375,8 +7229,25 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="4"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2389,8 +7260,25 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="4"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2403,8 +7291,25 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="16"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="4"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2417,8 +7322,25 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="16"/>
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="16"/>
+      <c r="AC67" s="4"/>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2431,8 +7353,25 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+      <c r="AC68" s="4"/>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2445,8 +7384,25 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="16"/>
+      <c r="AC69" s="4"/>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2459,8 +7415,25 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="16"/>
+      <c r="AC70" s="4"/>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2473,8 +7446,25 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="4"/>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2487,8 +7477,24 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2501,8 +7507,24 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="16"/>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2515,8 +7537,9 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N74" s="5"/>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2529,8 +7552,9 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2543,8 +7567,9 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2557,8 +7582,9 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2571,8 +7597,9 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2586,7 +7613,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>

--- a/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
+++ b/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D328E74-35E2-4911-B06A-1F585DCA1615}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0715CD46-4343-40D9-AD5E-C6A2B77CBA69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,18 +306,6 @@
 Campo "Alias"
 Botón "Regresar"
 Botón "Siguiente"</t>
-  </si>
-  <si>
-    <t>El sistema muestra la pantalla de confirmación con el banner verde y el mensaje:
-"La creación del beneficiario fue éxitosa y quedará activado 30 minutos después de su autorización.
-Número de operación:"
-Sección "Resumen de la información"
-Campo "Tipo de beneficiario": Pagos de servicios y facturas
-Campo "Empresa prestadora de servicios"
-Campo "Número de Convenio"
-Campo "Alias"
-Botón ""Ir al inicio"
-Botón "Crear otro beneficiario"</t>
   </si>
   <si>
     <t>El usuario da clic en el botón "Continuar".||El sistema muestra la página "Configurar cuentas de destino (Paso 2 de 3)":
@@ -2105,6 +2093,18 @@
   </si>
   <si>
     <t>TC_002_31_administradorIngresarNoMancomunada</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Crear".||El sistema muestra la pantalla de confirmación con el banner verde y el mensaje:
+"La creación del beneficiario fue éxitosa y quedará activado 30 minutos después de su autorización.
+Número de operación:"
+Sección "Resumen de la información"
+Campo "Tipo de beneficiario": Pagos de servicios y facturas
+Campo "Empresa prestadora de servicios"
+Campo "Número de Convenio"
+Campo "Alias"
+Botón ""Ir al inicio"
+Botón "Crear otro beneficiario"</t>
   </si>
 </sst>
 </file>
@@ -2159,7 +2159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2297,11 +2297,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2403,11 +2412,46 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2685,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2830,40 +2874,40 @@
         <v>71</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="AM1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:44" ht="225" x14ac:dyDescent="0.25">
@@ -2886,50 +2930,50 @@
       <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" ht="240" x14ac:dyDescent="0.25">
+      <c r="U2" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2949,44 +2993,44 @@
       <c r="G3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>86</v>
+      <c r="T3" s="6" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:44" ht="390" x14ac:dyDescent="0.25">
@@ -3009,77 +3053,77 @@
       <c r="G4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="12" t="s">
         <v>60</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AA4" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="360" x14ac:dyDescent="0.25">
@@ -3102,62 +3146,62 @@
       <c r="G5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>87</v>
+      <c r="N5" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="W5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
@@ -3180,86 +3224,86 @@
       <c r="G6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="Q6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>60</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>97</v>
+      <c r="T6" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="U6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AC6" s="11" t="s">
         <v>65</v>
       </c>
       <c r="AD6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH6" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
@@ -3282,62 +3326,62 @@
       <c r="G7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>100</v>
+      <c r="N7" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="S7" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="11" t="s">
         <v>65</v>
       </c>
       <c r="V7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="W7" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:44" ht="195" x14ac:dyDescent="0.25">
@@ -3360,47 +3404,47 @@
       <c r="G8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:44" ht="195" x14ac:dyDescent="0.25">
@@ -3423,47 +3467,47 @@
       <c r="G9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:44" ht="195" x14ac:dyDescent="0.25">
@@ -3486,47 +3530,47 @@
       <c r="G10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:44" ht="195" x14ac:dyDescent="0.25">
@@ -3549,47 +3593,47 @@
       <c r="G11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" s="2" t="s">
+      <c r="O11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
@@ -3616,40 +3660,40 @@
         <v>37</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>56</v>
       </c>
       <c r="R12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
@@ -3676,49 +3720,49 @@
         <v>37</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="K13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="S13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
@@ -3745,46 +3789,46 @@
         <v>37</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="K14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="P14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="R14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>56</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:44" ht="405" x14ac:dyDescent="0.25">
@@ -3811,46 +3855,46 @@
         <v>37</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>56</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
@@ -3877,58 +3921,58 @@
         <v>37</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="U16" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="U16" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="V16" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>56</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
@@ -3955,52 +3999,52 @@
         <v>37</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="M17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="S17" s="4" t="s">
+      <c r="T17" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>56</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
@@ -4027,85 +4071,85 @@
         <v>37</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="W18" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="X18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y18" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y18" s="3" t="s">
+      <c r="Z18" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="AA18" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AB18" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AB18" s="3" t="s">
+      <c r="AC18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD18" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="AE18" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF18" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="315" x14ac:dyDescent="0.25">
@@ -4132,58 +4176,58 @@
         <v>37</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="M19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="U19" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="V19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y19" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z19" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
@@ -4213,58 +4257,58 @@
         <v>37</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q20" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="V20" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>56</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
@@ -4294,68 +4338,68 @@
         <v>37</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="L21" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="T21" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="W21" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="1:35" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="6" t="s">
@@ -4377,66 +4421,66 @@
         <v>37</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="V22" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="6" t="s">
@@ -4458,69 +4502,69 @@
         <v>37</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K23" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="T23" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="U23" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="V23" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="W23" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="W23" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="X23" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="6" t="s">
@@ -4542,70 +4586,70 @@
         <v>37</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="N24" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="O24" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q24" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="R24" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="R24" s="7" t="s">
+      <c r="S24" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="S24" s="8" t="s">
+      <c r="T24" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="T24" s="10" t="s">
-        <v>214</v>
-      </c>
       <c r="U24" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X24" s="11" t="s">
         <v>56</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>33</v>
@@ -4623,69 +4667,69 @@
         <v>37</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="U25" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="R25" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="S25" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="T25" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="U25" s="10" t="s">
+      <c r="V25" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="V25" s="10" t="s">
+      <c r="W25" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="W25" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="X25" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y25" s="11" t="s">
         <v>56</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="6" t="s">
@@ -4707,72 +4751,72 @@
         <v>37</v>
       </c>
       <c r="I26" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="M26" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="N26" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="O26" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="O26" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q26" s="7" t="s">
+      <c r="R26" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="S26" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="R26" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S26" s="8" t="s">
+      <c r="T26" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="U26" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="T26" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="U26" s="7" t="s">
+      <c r="V26" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="V26" s="7" t="s">
+      <c r="W26" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="W26" s="7" t="s">
+      <c r="X26" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="X26" s="7" t="s">
+      <c r="Y26" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Y26" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="Z26" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB26" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="6" t="s">
@@ -4794,72 +4838,72 @@
         <v>37</v>
       </c>
       <c r="I27" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="K27" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L27" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="N27" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="O27" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="O27" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q27" s="7" t="s">
+      <c r="R27" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="S27" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="R27" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S27" s="8" t="s">
+      <c r="T27" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="U27" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="T27" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="U27" s="7" t="s">
+      <c r="V27" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="V27" s="7" t="s">
+      <c r="W27" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="W27" s="7" t="s">
+      <c r="X27" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="X27" s="7" t="s">
+      <c r="Y27" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Y27" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="Z27" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB27" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="6" t="s">
@@ -4881,72 +4925,72 @@
         <v>37</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="L28" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="N28" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="O28" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="O28" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q28" s="7" t="s">
+      <c r="R28" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="S28" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="R28" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S28" s="8" t="s">
+      <c r="T28" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="U28" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="T28" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="U28" s="7" t="s">
+      <c r="V28" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="V28" s="7" t="s">
+      <c r="W28" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="W28" s="7" t="s">
+      <c r="X28" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="X28" s="7" t="s">
+      <c r="Y28" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Y28" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="Z28" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB28" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="6" t="s">
@@ -4968,72 +5012,72 @@
         <v>37</v>
       </c>
       <c r="I29" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="K29" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L29" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="N29" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="O29" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="O29" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q29" s="7" t="s">
+      <c r="R29" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="S29" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="R29" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S29" s="8" t="s">
+      <c r="T29" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="U29" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="T29" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="U29" s="7" t="s">
+      <c r="V29" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="V29" s="7" t="s">
+      <c r="W29" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="W29" s="7" t="s">
+      <c r="X29" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="X29" s="7" t="s">
+      <c r="Y29" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Y29" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="Z29" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB29" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="6" t="s">
@@ -5055,72 +5099,72 @@
         <v>37</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J30" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="L30" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="N30" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="O30" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="O30" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q30" s="7" t="s">
+      <c r="R30" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="S30" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="R30" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S30" s="8" t="s">
+      <c r="T30" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="U30" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="T30" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="U30" s="7" t="s">
+      <c r="V30" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="V30" s="7" t="s">
+      <c r="W30" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="W30" s="7" t="s">
+      <c r="X30" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="X30" s="7" t="s">
+      <c r="Y30" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Y30" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="Z30" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AA30" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB30" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="6" t="s">
@@ -5142,72 +5186,72 @@
         <v>37</v>
       </c>
       <c r="I31" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="K31" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L31" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="N31" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="O31" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="O31" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q31" s="7" t="s">
+      <c r="R31" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="S31" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="R31" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S31" s="8" t="s">
+      <c r="T31" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="U31" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="T31" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="U31" s="7" t="s">
+      <c r="V31" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="V31" s="7" t="s">
+      <c r="W31" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="W31" s="7" t="s">
+      <c r="X31" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="X31" s="7" t="s">
+      <c r="Y31" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Y31" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="Z31" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB31" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="6" t="s">
@@ -5226,19 +5270,19 @@
         <v>36</v>
       </c>
       <c r="H32" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="K32" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="L32" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="N32" s="5"/>
       <c r="P32" s="4"/>
@@ -5258,7 +5302,7 @@
     </row>
     <row r="33" spans="1:40" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="6" t="s">
@@ -5277,19 +5321,19 @@
         <v>36</v>
       </c>
       <c r="H33" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="K33" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="L33" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="N33" s="5"/>
       <c r="P33" s="4"/>
@@ -5309,7 +5353,7 @@
     </row>
     <row r="34" spans="1:40" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="6" t="s">
@@ -5328,19 +5372,19 @@
         <v>36</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I34" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J34" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="K34" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="K34" s="33" t="s">
+      <c r="L34" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="N34" s="5"/>
       <c r="P34" s="4"/>
@@ -5360,7 +5404,7 @@
     </row>
     <row r="35" spans="1:40" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="6" t="s">
@@ -5379,19 +5423,19 @@
         <v>36</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I35" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>266</v>
-      </c>
       <c r="K35" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="N35" s="5"/>
       <c r="P35" s="4"/>
@@ -5411,7 +5455,7 @@
     </row>
     <row r="36" spans="1:40" ht="240" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="6" t="s">
@@ -5430,28 +5474,28 @@
         <v>36</v>
       </c>
       <c r="H36" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="J36" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="K36" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="K36" s="6" t="s">
-        <v>262</v>
-      </c>
       <c r="L36" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="N36" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="O36" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="3"/>
@@ -5470,7 +5514,7 @@
     </row>
     <row r="37" spans="1:40" ht="240" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="6" t="s">
@@ -5489,28 +5533,28 @@
         <v>36</v>
       </c>
       <c r="H37" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="I37" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="J37" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="K37" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="K37" s="13" t="s">
-        <v>262</v>
-      </c>
       <c r="L37" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="M37" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="N37" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="O37" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>275</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="4"/>
@@ -5528,7 +5572,7 @@
     </row>
     <row r="38" spans="1:40" ht="345" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="6" t="s">
@@ -5547,94 +5591,94 @@
         <v>36</v>
       </c>
       <c r="H38" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="I38" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="J38" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="J38" s="20" t="s">
-        <v>261</v>
-      </c>
       <c r="K38" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="L38" s="20" t="s">
+      <c r="M38" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="M38" s="22" t="s">
+      <c r="N38" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="N38" s="23" t="s">
+      <c r="O38" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="O38" s="23" t="s">
+      <c r="P38" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="P38" s="23" t="s">
+      <c r="Q38" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="Q38" s="23" t="s">
+      <c r="R38" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="R38" s="23" t="s">
+      <c r="S38" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="S38" s="23" t="s">
+      <c r="T38" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="T38" s="23" t="s">
+      <c r="U38" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="U38" s="23" t="s">
+      <c r="V38" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="V38" s="23" t="s">
+      <c r="W38" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="W38" s="21" t="s">
+      <c r="X38" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="X38" s="24" t="s">
+      <c r="Y38" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="Y38" s="21" t="s">
+      <c r="Z38" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="Z38" s="21" t="s">
+      <c r="AA38" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="AA38" s="21" t="s">
+      <c r="AB38" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="AB38" s="21" t="s">
+      <c r="AC38" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="AC38" s="21" t="s">
+      <c r="AD38" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="AD38" s="21" t="s">
+      <c r="AE38" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="AE38" s="21" t="s">
+      <c r="AF38" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="AF38" s="21" t="s">
+      <c r="AG38" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="AG38" s="21" t="s">
+      <c r="AH38" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="AH38" s="21" t="s">
+      <c r="AI38" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="AI38" s="21" t="s">
+      <c r="AJ38" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="AJ38" s="21" t="s">
+      <c r="AK38" s="21" t="s">
         <v>303</v>
-      </c>
-      <c r="AK38" s="21" t="s">
-        <v>304</v>
       </c>
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
@@ -5642,7 +5686,7 @@
     </row>
     <row r="39" spans="1:40" ht="345" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="6" t="s">
@@ -5661,94 +5705,94 @@
         <v>36</v>
       </c>
       <c r="H39" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="I39" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="J39" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="J39" s="20" t="s">
-        <v>261</v>
-      </c>
       <c r="K39" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="L39" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="L39" s="20" t="s">
+      <c r="M39" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="M39" s="22" t="s">
+      <c r="N39" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="N39" s="23" t="s">
+      <c r="O39" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="O39" s="23" t="s">
+      <c r="P39" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="P39" s="23" t="s">
+      <c r="Q39" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="Q39" s="23" t="s">
+      <c r="R39" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="R39" s="23" t="s">
+      <c r="S39" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="S39" s="23" t="s">
+      <c r="T39" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="T39" s="23" t="s">
+      <c r="U39" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="U39" s="23" t="s">
+      <c r="V39" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="V39" s="23" t="s">
+      <c r="W39" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="W39" s="21" t="s">
-        <v>290</v>
-      </c>
       <c r="X39" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y39" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z39" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="Z39" s="25" t="s">
+      <c r="AA39" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="AA39" s="25" t="s">
+      <c r="AB39" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="AB39" s="25" t="s">
+      <c r="AC39" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="AC39" s="25" t="s">
+      <c r="AD39" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="AD39" s="25" t="s">
+      <c r="AE39" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="AE39" s="25" t="s">
+      <c r="AF39" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="AF39" s="25" t="s">
+      <c r="AG39" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="AG39" s="25" t="s">
+      <c r="AH39" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="AH39" s="25" t="s">
+      <c r="AI39" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="AI39" s="25" t="s">
+      <c r="AJ39" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="AJ39" s="25" t="s">
+      <c r="AK39" s="25" t="s">
         <v>303</v>
-      </c>
-      <c r="AK39" s="25" t="s">
-        <v>304</v>
       </c>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
@@ -5756,7 +5800,7 @@
     </row>
     <row r="40" spans="1:40" ht="330" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="6" t="s">
@@ -5775,106 +5819,106 @@
         <v>36</v>
       </c>
       <c r="H40" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="I40" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="J40" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="J40" s="20" t="s">
-        <v>261</v>
-      </c>
       <c r="K40" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="L40" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="L40" s="20" t="s">
+      <c r="M40" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="M40" s="22" t="s">
+      <c r="N40" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="N40" s="23" t="s">
+      <c r="O40" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="O40" s="23" t="s">
+      <c r="P40" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="P40" s="23" t="s">
+      <c r="Q40" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="Q40" s="23" t="s">
+      <c r="R40" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="R40" s="23" t="s">
+      <c r="S40" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="S40" s="23" t="s">
+      <c r="T40" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="T40" s="23" t="s">
+      <c r="U40" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="U40" s="23" t="s">
+      <c r="V40" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="V40" s="23" t="s">
+      <c r="W40" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="W40" s="21" t="s">
+      <c r="X40" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="X40" s="24" t="s">
+      <c r="Y40" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="Y40" s="21" t="s">
+      <c r="Z40" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="Z40" s="21" t="s">
+      <c r="AA40" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="AA40" s="21" t="s">
+      <c r="AB40" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="AB40" s="21" t="s">
+      <c r="AC40" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="AC40" s="21" t="s">
+      <c r="AD40" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="AD40" s="21" t="s">
-        <v>297</v>
-      </c>
       <c r="AE40" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF40" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG40" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH40" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="AF40" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG40" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH40" s="21" t="s">
+      <c r="AI40" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="AI40" s="21" t="s">
+      <c r="AJ40" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="AJ40" s="21" t="s">
+      <c r="AK40" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL40" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="AK40" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="AL40" s="21" t="s">
+      <c r="AM40" s="21" t="s">
         <v>311</v>
-      </c>
-      <c r="AM40" s="21" t="s">
-        <v>312</v>
       </c>
       <c r="AN40" s="3"/>
     </row>
     <row r="41" spans="1:40" ht="330" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="6" t="s">
@@ -5893,106 +5937,106 @@
         <v>36</v>
       </c>
       <c r="H41" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="I41" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="I41" s="28" t="s">
+      <c r="J41" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="J41" s="28" t="s">
-        <v>261</v>
-      </c>
       <c r="K41" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="L41" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="L41" s="28" t="s">
+      <c r="M41" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="M41" s="29" t="s">
+      <c r="N41" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="N41" s="30" t="s">
+      <c r="O41" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="O41" s="30" t="s">
+      <c r="P41" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="P41" s="30" t="s">
+      <c r="Q41" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="Q41" s="30" t="s">
+      <c r="R41" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="R41" s="30" t="s">
+      <c r="S41" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="S41" s="30" t="s">
+      <c r="T41" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="T41" s="23" t="s">
+      <c r="U41" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="U41" s="23" t="s">
+      <c r="V41" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="V41" s="23" t="s">
+      <c r="W41" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="W41" s="21" t="s">
-        <v>290</v>
-      </c>
       <c r="X41" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y41" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z41" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="Z41" s="21" t="s">
+      <c r="AA41" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="AA41" s="21" t="s">
+      <c r="AB41" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="AB41" s="21" t="s">
+      <c r="AC41" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="AC41" s="21" t="s">
+      <c r="AD41" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="AD41" s="21" t="s">
-        <v>297</v>
-      </c>
       <c r="AE41" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF41" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG41" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH41" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="AF41" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG41" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH41" s="21" t="s">
+      <c r="AI41" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="AI41" s="21" t="s">
+      <c r="AJ41" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="AJ41" s="21" t="s">
+      <c r="AK41" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL41" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="AK41" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="AL41" s="21" t="s">
+      <c r="AM41" s="21" t="s">
         <v>311</v>
-      </c>
-      <c r="AM41" s="21" t="s">
-        <v>312</v>
       </c>
       <c r="AN41" s="3"/>
     </row>
     <row r="42" spans="1:40" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="6" t="s">
@@ -6011,46 +6055,46 @@
         <v>36</v>
       </c>
       <c r="H42" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="I42" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="J42" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="J42" s="20" t="s">
+      <c r="K42" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="K42" s="20" t="s">
+      <c r="L42" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="L42" s="20" t="s">
+      <c r="M42" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="M42" s="21" t="s">
+      <c r="N42" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="N42" s="23" t="s">
+      <c r="O42" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="O42" s="23" t="s">
+      <c r="P42" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="P42" s="21" t="s">
+      <c r="Q42" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="Q42" s="21" t="s">
+      <c r="R42" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="R42" s="21" t="s">
+      <c r="S42" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="S42" s="21" t="s">
+      <c r="T42" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="T42" s="17" t="s">
+      <c r="U42" s="16" t="s">
         <v>334</v>
-      </c>
-      <c r="U42" s="16" t="s">
-        <v>335</v>
       </c>
       <c r="V42" s="16"/>
       <c r="W42" s="16"/>
@@ -6074,7 +6118,7 @@
     </row>
     <row r="43" spans="1:40" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="6" t="s">
@@ -6093,49 +6137,49 @@
         <v>36</v>
       </c>
       <c r="H43" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="I43" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="J43" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="K43" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="L43" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="L43" s="20" t="s">
+      <c r="M43" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="M43" s="21" t="s">
+      <c r="N43" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="N43" s="23" t="s">
+      <c r="O43" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="P43" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="P43" s="21" t="s">
+      <c r="Q43" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="Q43" s="21" t="s">
+      <c r="R43" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="R43" s="21" t="s">
+      <c r="S43" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="S43" s="21" t="s">
-        <v>333</v>
-      </c>
       <c r="T43" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="U43" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="U43" s="16" t="s">
+      <c r="V43" s="16" t="s">
         <v>336</v>
-      </c>
-      <c r="V43" s="16" t="s">
-        <v>337</v>
       </c>
       <c r="W43" s="16"/>
       <c r="X43" s="16"/>
@@ -6158,7 +6202,7 @@
     </row>
     <row r="44" spans="1:40" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="6" t="s">
@@ -6177,46 +6221,46 @@
         <v>36</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I44" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="M44" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="N44" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="O44" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="P44" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q44" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="R44" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="S44" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="M44" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="N44" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="O44" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="P44" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q44" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="R44" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="S44" s="31" t="s">
-        <v>345</v>
-      </c>
       <c r="T44" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U44" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V44" s="16"/>
       <c r="W44" s="16"/>
@@ -6240,7 +6284,7 @@
     </row>
     <row r="45" spans="1:40" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="6" t="s">
@@ -6259,46 +6303,46 @@
         <v>36</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I45" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="J45" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="J45" s="20" t="s">
+      <c r="K45" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="K45" s="20" t="s">
-        <v>348</v>
-      </c>
       <c r="L45" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="M45" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="M45" s="21" t="s">
+      <c r="N45" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="N45" s="23" t="s">
+      <c r="O45" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="O45" s="23" t="s">
+      <c r="P45" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="P45" s="21" t="s">
+      <c r="Q45" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="Q45" s="21" t="s">
+      <c r="R45" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="R45" s="21" t="s">
+      <c r="S45" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="S45" s="21" t="s">
+      <c r="T45" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="T45" s="17" t="s">
+      <c r="U45" s="16" t="s">
         <v>334</v>
-      </c>
-      <c r="U45" s="16" t="s">
-        <v>335</v>
       </c>
       <c r="V45" s="16"/>
       <c r="W45" s="16"/>
@@ -6322,7 +6366,7 @@
     </row>
     <row r="46" spans="1:40" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="6" t="s">
@@ -6341,49 +6385,49 @@
         <v>36</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I46" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="J46" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="J46" s="20" t="s">
+      <c r="K46" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="K46" s="20" t="s">
-        <v>348</v>
-      </c>
       <c r="L46" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="M46" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="M46" s="21" t="s">
+      <c r="N46" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="N46" s="23" t="s">
+      <c r="O46" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="O46" s="23" t="s">
+      <c r="P46" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="P46" s="21" t="s">
+      <c r="Q46" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="Q46" s="21" t="s">
+      <c r="R46" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="R46" s="21" t="s">
+      <c r="S46" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="S46" s="21" t="s">
-        <v>333</v>
-      </c>
       <c r="T46" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="U46" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="U46" s="16" t="s">
+      <c r="V46" s="16" t="s">
         <v>336</v>
-      </c>
-      <c r="V46" s="16" t="s">
-        <v>337</v>
       </c>
       <c r="W46" s="16"/>
       <c r="X46" s="16"/>
@@ -6406,7 +6450,7 @@
     </row>
     <row r="47" spans="1:40" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="6" t="s">
@@ -6425,46 +6469,46 @@
         <v>36</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I47" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="J47" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="J47" s="20" t="s">
+      <c r="K47" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="K47" s="20" t="s">
-        <v>353</v>
-      </c>
       <c r="L47" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="M47" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="M47" s="21" t="s">
+      <c r="N47" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="N47" s="23" t="s">
+      <c r="O47" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="O47" s="23" t="s">
+      <c r="P47" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="P47" s="32" t="s">
+      <c r="Q47" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="Q47" s="21" t="s">
+      <c r="R47" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="R47" s="21" t="s">
+      <c r="S47" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="S47" s="21" t="s">
+      <c r="T47" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="T47" s="17" t="s">
+      <c r="U47" s="16" t="s">
         <v>334</v>
-      </c>
-      <c r="U47" s="16" t="s">
-        <v>335</v>
       </c>
       <c r="V47" s="16"/>
       <c r="W47" s="16"/>
@@ -6488,7 +6532,7 @@
     </row>
     <row r="48" spans="1:40" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="6" t="s">
@@ -6507,49 +6551,49 @@
         <v>36</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I48" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="J48" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="J48" s="20" t="s">
+      <c r="K48" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="K48" s="20" t="s">
-        <v>353</v>
-      </c>
       <c r="L48" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="M48" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="M48" s="21" t="s">
+      <c r="N48" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="N48" s="23" t="s">
+      <c r="O48" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="O48" s="23" t="s">
+      <c r="P48" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="P48" s="32" t="s">
+      <c r="Q48" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="Q48" s="21" t="s">
+      <c r="R48" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="R48" s="21" t="s">
+      <c r="S48" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="S48" s="21" t="s">
-        <v>333</v>
-      </c>
       <c r="T48" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="U48" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="U48" s="16" t="s">
+      <c r="V48" s="16" t="s">
         <v>336</v>
-      </c>
-      <c r="V48" s="16" t="s">
-        <v>337</v>
       </c>
       <c r="W48" s="16"/>
       <c r="X48" s="16"/>
@@ -6572,7 +6616,7 @@
     </row>
     <row r="49" spans="1:40" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="6" t="s">
@@ -6591,46 +6635,46 @@
         <v>36</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I49" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="J49" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="J49" s="20" t="s">
+      <c r="K49" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="K49" s="20" t="s">
-        <v>358</v>
-      </c>
       <c r="L49" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="M49" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="M49" s="21" t="s">
+      <c r="N49" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="N49" s="23" t="s">
+      <c r="O49" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="O49" s="23" t="s">
+      <c r="P49" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="P49" s="21" t="s">
+      <c r="Q49" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="Q49" s="21" t="s">
+      <c r="R49" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="R49" s="21" t="s">
+      <c r="S49" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="S49" s="21" t="s">
+      <c r="T49" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="T49" s="17" t="s">
+      <c r="U49" s="16" t="s">
         <v>334</v>
-      </c>
-      <c r="U49" s="16" t="s">
-        <v>335</v>
       </c>
       <c r="V49" s="16"/>
       <c r="W49" s="16"/>
@@ -6654,7 +6698,7 @@
     </row>
     <row r="50" spans="1:40" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="6" t="s">
@@ -6673,49 +6717,49 @@
         <v>36</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I50" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="J50" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="J50" s="20" t="s">
+      <c r="K50" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="K50" s="20" t="s">
-        <v>358</v>
-      </c>
       <c r="L50" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="M50" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="M50" s="21" t="s">
+      <c r="N50" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="N50" s="23" t="s">
+      <c r="O50" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="O50" s="23" t="s">
+      <c r="P50" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="P50" s="21" t="s">
+      <c r="Q50" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="Q50" s="21" t="s">
+      <c r="R50" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="R50" s="21" t="s">
+      <c r="S50" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="S50" s="21" t="s">
-        <v>333</v>
-      </c>
       <c r="T50" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="U50" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="U50" s="16" t="s">
+      <c r="V50" s="16" t="s">
         <v>336</v>
-      </c>
-      <c r="V50" s="16" t="s">
-        <v>337</v>
       </c>
       <c r="W50" s="16"/>
       <c r="X50" s="16"/>
@@ -8734,6 +8778,9 @@
       <c r="L159" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H10:O11 U10:U11 Q10:R11">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
+++ b/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0715CD46-4343-40D9-AD5E-C6A2B77CBA69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B86EBC-B79A-4898-B65B-394CDCA89FC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2310,7 +2310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2433,14 +2433,260 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -2729,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3530,25 +3776,25 @@
       <c r="G10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="K10" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="42" t="s">
+      <c r="L10" s="43" t="s">
         <v>118</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="42" t="s">
+      <c r="N10" s="43" t="s">
         <v>120</v>
       </c>
       <c r="O10" s="11" t="s">
@@ -3560,7 +3806,7 @@
       <c r="Q10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="R10" s="42" t="s">
+      <c r="R10" s="43" t="s">
         <v>116</v>
       </c>
       <c r="S10" s="9" t="s">
@@ -3593,25 +3839,25 @@
       <c r="G11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="43" t="s">
         <v>118</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="N11" s="43" t="s">
         <v>120</v>
       </c>
       <c r="O11" s="11" t="s">
@@ -3623,7 +3869,7 @@
       <c r="Q11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="R11" s="42" t="s">
+      <c r="R11" s="43" t="s">
         <v>116</v>
       </c>
       <c r="S11" s="9" t="s">
@@ -3716,46 +3962,46 @@
       <c r="G13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="11" t="s">
         <v>140</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="U13" s="9" t="s">
         <v>131</v>
       </c>
       <c r="V13" s="2" t="s">
@@ -3785,28 +4031,28 @@
       <c r="G14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="43" t="s">
         <v>138</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -3815,13 +4061,13 @@
       <c r="Q14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="T14" s="9" t="s">
         <v>131</v>
       </c>
       <c r="U14" s="2" t="s">
@@ -3917,19 +4163,19 @@
       <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="6" t="s">
         <v>159</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -3995,19 +4241,19 @@
       <c r="G17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="6" t="s">
         <v>159</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -4292,22 +4538,22 @@
       <c r="T20" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="V20" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="W20" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="X20" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="Z20" s="2" t="s">
+      <c r="Z20" s="13" t="s">
         <v>204</v>
       </c>
       <c r="AA20" s="3"/>
@@ -4376,22 +4622,22 @@
       <c r="U21" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="V21" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="W21" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="X21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Y21" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="Z21" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="AA21" s="2" t="s">
+      <c r="AA21" s="6" t="s">
         <v>204</v>
       </c>
       <c r="AB21" s="3"/>
@@ -4435,10 +4681,10 @@
       <c r="M22" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="O22" s="3" t="s">
+      <c r="N22" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="O22" s="46" t="s">
         <v>164</v>
       </c>
       <c r="P22" s="3" t="s">
@@ -4459,7 +4705,7 @@
       <c r="U22" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="V22" s="2" t="s">
+      <c r="V22" s="6" t="s">
         <v>219</v>
       </c>
       <c r="W22" s="2" t="s">
@@ -4591,7 +4837,7 @@
       <c r="J24" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="42" t="s">
         <v>206</v>
       </c>
       <c r="L24" s="6" t="s">
@@ -4621,10 +4867,10 @@
       <c r="T24" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="U24" s="10" t="s">
+      <c r="U24" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="V24" s="2" t="s">
+      <c r="V24" s="6" t="s">
         <v>219</v>
       </c>
       <c r="W24" s="2" t="s">
@@ -4705,7 +4951,7 @@
       <c r="U25" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="V25" s="10" t="s">
+      <c r="V25" s="45" t="s">
         <v>218</v>
       </c>
       <c r="W25" s="2" t="s">
@@ -8779,7 +9025,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:O11 U10:U11 Q10:R11">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:O14">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:O19">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:S21">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:AA24 H22:AA22">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
+++ b/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B86EBC-B79A-4898-B65B-394CDCA89FC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B063176-3A7D-4C6B-AE10-9030803BE324}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="445">
   <si>
     <t>Escenario</t>
   </si>
@@ -2106,6 +2106,309 @@
 Botón ""Ir al inicio"
 Botón "Crear otro beneficiario"</t>
   </si>
+  <si>
+    <t>El usuario da clic en la pestaña "Cuentas Cheque USD"||El sistema muestra la lista de cuentas de cheques USD.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Número de cuenta cheque USD".||El sistema muestra el número de la cuenta cheque USD de forma correcta.</t>
+  </si>
+  <si>
+    <t>TC_002_50_administradorConsultaCuentasChequeUSDPDF</t>
+  </si>
+  <si>
+    <t>TC_002_51_administradorConsultaCuentasChequeUSDXML</t>
+  </si>
+  <si>
+    <t>El usuario valida las cuentas de cheques de la pestaña "Cuentas Cheque MXN"||El sistema muestra la lista de cuentas de cheques MXN.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en una cuenta cheque MXN.||El sistema muestra el detalle de la cuenta cheque MXN.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en una cuenta cheque USD.||El sistema muestra el detalle de la cuenta cheque USD.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Número de cuenta cheque MXN".||El sistema muestra el número de la cuenta cheque MXN de forma correcta.</t>
+  </si>
+  <si>
+    <t>TC_002_52_administradorConsultaCuentasChequeMXNXML</t>
+  </si>
+  <si>
+    <t>TC_002_53_administradorConsultaCuentasChequeMXNPDF</t>
+  </si>
+  <si>
+    <t>El usuario da clic en un número de crédito.||El sistema muestra el detalle del número de crédito de Línea operativa.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Descargar reporte".||El sistema muestra la página "Opciones de descarga" con las opciones "Manual" y "Plantilla".</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción "Manual".||El sistema muestra las opciones:
+Tipo de formato
+Tipo de separador
+Archivo con encabezado
+Selecciona campos del reporte
+Guardar plantilla de reporte (La plantilla se guardará al momento de la descarga)
+Botón "Limpiar Selección"
+Botón "Cancelar"
+Botón "Descargar"</t>
+  </si>
+  <si>
+    <t>El usuario valida las opciones del campo "Tipo de formato".||El sistema muestra los formatos:
+TXT
+CSV</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción del campo "Tipo de formato": CSV||El sistema permite seleccionar la opción de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida las opciones del campo "Tipo de separador".||El sistema muestra los formatos:
+Coma [,]
+Pipe [ |]
+Punto y coma [ ;]
+Tabulador [ &lt;--&gt;]
+Longitud fija</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción del campo "Tipo de separador": Punto y coma [ ;]||El sistema permite seleccionar la opción de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida la opción "Archivo con encabezado"||El sistema muestra la opción "Archivo con encabezado" deshabilitado.</t>
+  </si>
+  <si>
+    <t>El usuario mantiene deshabilitada la opción "Archivo con encabezado"||El sistema mantiene deshabilitado el radio botton de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el check "Seleccionar todos los campos de la plantilla".||El sistema muestra el check de la opción "Seleccionar todos los campos de la plantilla" deshabilitado.</t>
+  </si>
+  <si>
+    <t>El usuario activa el check "Seleccionar todos los campos de la plantilla".||El sistema permite habilitar los campos de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Descargar".||El sistema permite descargar el reporte de cuentas de Línea Operativa en formato CSV de forma correcta .</t>
+  </si>
+  <si>
+    <t>TC_002_54_administradorConsultaCuentasLineaOperativaCSV</t>
+  </si>
+  <si>
+    <t>El usuario da clic en un número de crédito.||El sistema muestra el detalle del número de crédito de Préstamos personales.</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción del campo "Tipo de formato": TXT||El sistema permite seleccionar la opción de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción del campo "Tipo de separador": Pipe [ |]||El sistema permite seleccionar la opción de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Descargar".||El sistema permite descargar el reporte de cuentas de Préstamos Personales en formato TXT de forma correcta .</t>
+  </si>
+  <si>
+    <t>TC_002_55_administradorConsultaCuentasPrestamosPersonalesTXT</t>
+  </si>
+  <si>
+    <t>El usuario da clic en un número de contrato.||El sistema muestra el detalle del número de contrato de fondos de inversión.</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción del campo "Tipo de separador": Coma [,]||El sistema permite seleccionar la opción de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Descargar".||El sistema permite descargar el reporte de cuentas de Fondos de Inversión en formato CSV de forma correcta .</t>
+  </si>
+  <si>
+    <t>TC_002_56_administradorConsultaCuentasFondosInversionCSV</t>
+  </si>
+  <si>
+    <t>El usuario da clic en un número de crédito.||El sistema muestra el detalle del número de crédito hipotecario.</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción del campo "Tipo de separador": Longitud fija||El sistema permite seleccionar la opción de forma correcta mostrando la longitud de todos los campos en la sección "Selecciona campos del reporte".</t>
+  </si>
+  <si>
+    <t>TC_002_57_administradorConsultaCreditosHipotecariosTXT</t>
+  </si>
+  <si>
+    <t>El sisitema da clic en un número de contrato de inversiones.||El sistema muestra el detalle del número de contrato de inversiones.</t>
+  </si>
+  <si>
+    <t>El usuario selecciona la opción del campo "Tipo de separador": Tabulador [ &lt;--&gt;]||El sistema permite seleccionar la opción de forma correcta.</t>
+  </si>
+  <si>
+    <t>TC_002_58_administradorConsultaCuentasInversionCSV</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Tarjetas de Crédito"||El sistema muestra la lista de Tarjetas de Crédito .</t>
+  </si>
+  <si>
+    <t>El usuario da clic en un número de tarjeta.||El sistema muestra el detalle del número de tarjeta de crédito.</t>
+  </si>
+  <si>
+    <t>TC_002_59_administradorConsultaCuentasTDCMXNTXT</t>
+  </si>
+  <si>
+    <t>TC_002_60_administradorConsultaCuentasChequeUSDCSV</t>
+  </si>
+  <si>
+    <t>TC_002_61_administradorConsultaCuentasChequeMXNTXT</t>
+  </si>
+  <si>
+    <t>TC_002_62_administradorConsultaCuentasLineaOperativa</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "País".||El sistema muestra el campo "País" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Ciudad".||El sistema muestra el campo "Ciudad" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Estado de la cuenta".||El sistema muestra el campo "Estado de la cuenta" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Tasa ordinaria".||El sistema muestra el campo "Tasa ordinaria" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Tasa moratoria".||El sistema muestra el campo "Tasa moratoria" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Importe autorizado".||El sistema muestra la columna "Importe autorizado" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Capital disponible".||El sistema muestra la columna "Capital disponible" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Capital dispuesto".||El sistema muestra la columna "Capital dispuesto" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Interés ordinario".||El sistema muestra la columna "Interés ordinario" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Interés moratorio".||El sistema muestra la columna "Interés moratorio" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Comisiones".||El sistema muestra la columna "Comisiones" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "IVA de comisiones".||El sistema muestra la columna "IVA de comisiones" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo a la fecha".||El sistema muestra la columna "Saldo a la fecha" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Fecha de vencimiento contrato".||El sistema muestra el campo "Fecha de vencimiento contrato" en formato DD/MMM/AAAA".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Fecha de vencimiento de la línea".||El sistema muestra el campo "Fecha de vencimiento de la línea" en formato DD/MMM/AAAA".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Valor actual TIIE".||El sistema muestra el campo "Valor actual TIIE" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Ocultar detalles".||El sistema permite que la opción "Ocultar detalles" oculte la sección de Saldos.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo de búsqueda "Seleccione fecha inicio".||El sistema muestra el campo de fecha habilitado.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo de búsqueda "Seleccione fecha fin".||El sistema muestra el campo de fecha deshabilitado.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el botón "Descargar reporte".||El sistema muestra el botón de "Descargar reporte" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Fecha del movimiento".||El sistema muestra la columna "Fecha del movimiento" en formato DD/MMM/AAAA".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Referencia".||El sistema muestra la columna "Referencia" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Importe operación".||El sistema muestra la columna "Importe operación" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Tipo transacción".||El sistema muestra la columna "Tipo transacción" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Tipo operación".||El sistema muestra la columna "Tipo de operación" con los valores "CARGO" o "ABONO".</t>
+  </si>
+  <si>
+    <t>El usuario indica una fecha de inicio en el campo de búsqueda "Seleccione fecha inicio".||El sistema muestra la fecha de inicio de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario indica una fecha fin en el campo de búsqueda "Seleccione fecha fin".||El sistema muestra la fecha fin de forma correcta y el resultado de la búsqueda de movimientos en la siguiente tabla:
+Columna "Fecha del movimiento"
+Columna "Referencia"
+Columna "Importe operación"
+Columna "Tipo transacción"
+Columna "Tipo operación"</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Opciones" con el icono (…).||El sistema muestra la pantalla modal de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Imprimir".||El sistema muestra la descarga del archivo PDF de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Ciudad".||El sistema muestra la ciudad de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Cuenta cheque".||El sistema muestra la cuenta cheque de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Fecha última pago".||El sistema muestra la fecha último pago de forma correcta en formato DD/MMM/AAAA".</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Importe último pago".||El sistema muestra el campo "Importe último pago" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Plazo del crédito".||El sistema muestra el plazo del crédito de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Número de pagos pendientes".||El sistema muestra el número de pagos pendientes de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Nombre del cliente".||El sistema muestra el nombre del cliente de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Tasa".||El sistema muestra la tasa de forma correcta.</t>
+  </si>
 </sst>
 </file>
 
@@ -2127,7 +2430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2158,8 +2461,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2306,11 +2615,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2448,21 +2781,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color auto="1"/>
@@ -2534,148 +2869,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2975,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="T62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,6 +3213,11 @@
     <col min="37" max="37" width="44.140625" customWidth="1"/>
     <col min="38" max="38" width="48.42578125" customWidth="1"/>
     <col min="39" max="39" width="39.42578125" customWidth="1"/>
+    <col min="40" max="40" width="56.85546875" customWidth="1"/>
+    <col min="41" max="41" width="53" customWidth="1"/>
+    <col min="42" max="42" width="62" customWidth="1"/>
+    <col min="43" max="43" width="58.28515625" customWidth="1"/>
+    <col min="44" max="44" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -6860,7 +7058,7 @@
       <c r="AM48" s="3"/>
       <c r="AN48" s="3"/>
     </row>
-    <row r="49" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>358</v>
       </c>
@@ -6942,7 +7140,7 @@
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
     </row>
-    <row r="50" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>359</v>
       </c>
@@ -6965,13 +7163,13 @@
       <c r="H50" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="I50" s="20" t="s">
+      <c r="I50" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="J50" s="20" t="s">
+      <c r="J50" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="K50" s="20" t="s">
+      <c r="K50" s="28" t="s">
         <v>357</v>
       </c>
       <c r="L50" s="20" t="s">
@@ -7026,28 +7224,68 @@
       <c r="AM50" s="3"/>
       <c r="AN50" s="3"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+    <row r="51" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
+      <c r="C51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="L51" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="M51" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="N51" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="O51" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="P51" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q51" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="R51" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="S51" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="T51" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="U51" s="16" t="s">
+        <v>334</v>
+      </c>
       <c r="V51" s="16"/>
       <c r="W51" s="16"/>
       <c r="X51" s="16"/>
@@ -7068,29 +7306,71 @@
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+    <row r="52" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
+      <c r="C52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="L52" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="M52" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="N52" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="O52" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="P52" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q52" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="R52" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="S52" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="T52" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="U52" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="V52" s="16" t="s">
+        <v>336</v>
+      </c>
       <c r="W52" s="16"/>
       <c r="X52" s="16"/>
       <c r="Y52" s="16"/>
@@ -7110,28 +7390,68 @@
       <c r="AM52" s="3"/>
       <c r="AN52" s="3"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+    <row r="53" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
+      <c r="C53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="L53" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="M53" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="N53" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="O53" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="P53" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q53" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="R53" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="S53" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="T53" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="U53" s="16" t="s">
+        <v>334</v>
+      </c>
       <c r="V53" s="16"/>
       <c r="W53" s="16"/>
       <c r="X53" s="16"/>
@@ -7152,29 +7472,71 @@
       <c r="AM53" s="3"/>
       <c r="AN53" s="3"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+    <row r="54" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
+      <c r="C54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="L54" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="M54" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="O54" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="P54" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q54" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="R54" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="S54" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="T54" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="U54" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="V54" s="16" t="s">
+        <v>336</v>
+      </c>
       <c r="W54" s="16"/>
       <c r="X54" s="16"/>
       <c r="Y54" s="16"/>
@@ -7194,28 +7556,68 @@
       <c r="AM54" s="3"/>
       <c r="AN54" s="3"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+    <row r="55" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
+      <c r="C55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="N55" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="O55" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="P55" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="T55" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="U55" s="16" t="s">
+        <v>385</v>
+      </c>
       <c r="V55" s="16"/>
       <c r="W55" s="16"/>
       <c r="X55" s="16"/>
@@ -7236,28 +7638,68 @@
       <c r="AM55" s="3"/>
       <c r="AN55" s="3"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+    <row r="56" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
+      <c r="C56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="N56" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="O56" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="P56" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="R56" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="U56" s="16" t="s">
+        <v>390</v>
+      </c>
       <c r="V56" s="16"/>
       <c r="W56" s="16"/>
       <c r="X56" s="16"/>
@@ -7278,28 +7720,68 @@
       <c r="AM56" s="3"/>
       <c r="AN56" s="3"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+    <row r="57" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16"/>
+      <c r="C57" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="N57" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="O57" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="P57" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="R57" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="U57" s="16" t="s">
+        <v>394</v>
+      </c>
       <c r="V57" s="16"/>
       <c r="W57" s="16"/>
       <c r="X57" s="16"/>
@@ -7320,28 +7802,68 @@
       <c r="AM57" s="3"/>
       <c r="AN57" s="3"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+    <row r="58" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="16"/>
+      <c r="C58" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="N58" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="O58" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="P58" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="R58" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="S58" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="T58" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="U58" s="16" t="s">
+        <v>390</v>
+      </c>
       <c r="V58" s="16"/>
       <c r="W58" s="16"/>
       <c r="X58" s="16"/>
@@ -7351,28 +7873,68 @@
       <c r="AB58" s="16"/>
       <c r="AC58" s="4"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+    <row r="59" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
+      <c r="C59" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="N59" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="O59" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="P59" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="R59" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="T59" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="U59" s="16" t="s">
+        <v>394</v>
+      </c>
       <c r="V59" s="16"/>
       <c r="W59" s="16"/>
       <c r="X59" s="16"/>
@@ -7382,28 +7944,68 @@
       <c r="AB59" s="16"/>
       <c r="AC59" s="4"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+    <row r="60" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>404</v>
+      </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
+      <c r="C60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="N60" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="O60" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="P60" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="R60" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="S60" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="T60" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="U60" s="16" t="s">
+        <v>390</v>
+      </c>
       <c r="V60" s="16"/>
       <c r="W60" s="16"/>
       <c r="X60" s="16"/>
@@ -7413,28 +8015,68 @@
       <c r="AB60" s="16"/>
       <c r="AC60" s="4"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+    <row r="61" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
+      <c r="C61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="N61" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="O61" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="P61" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="R61" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="T61" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="U61" s="16" t="s">
+        <v>394</v>
+      </c>
       <c r="V61" s="16"/>
       <c r="W61" s="16"/>
       <c r="X61" s="16"/>
@@ -7444,28 +8086,68 @@
       <c r="AB61" s="16"/>
       <c r="AC61" s="4"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+    <row r="62" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
+      <c r="C62" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="N62" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="O62" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="P62" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="R62" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="S62" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="T62" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="U62" s="16" t="s">
+        <v>394</v>
+      </c>
       <c r="V62" s="16"/>
       <c r="W62" s="16"/>
       <c r="X62" s="16"/>
@@ -7475,58 +8157,189 @@
       <c r="AB62" s="16"/>
       <c r="AC62" s="4"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+    <row r="63" spans="1:42" ht="150" x14ac:dyDescent="0.25">
+      <c r="A63" s="50" t="s">
+        <v>407</v>
+      </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="16"/>
-      <c r="Z63" s="16"/>
-      <c r="AA63" s="16"/>
-      <c r="AB63" s="16"/>
-      <c r="AC63" s="4"/>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C63" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M63" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="N63" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="O63" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="P63" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q63" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="R63" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="S63" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="T63" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="U63" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="V63" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="W63" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="X63" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y63" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z63" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA63" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB63" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC63" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD63" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE63" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF63" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG63" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH63" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="AI63" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AJ63" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK63" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="AL63" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM63" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="AN63" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="AO63" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="AP63" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
+      <c r="C64" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="M64" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="N64" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="O64" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="P64" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q64" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="R64" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="S64" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="T64" s="16" t="s">
+        <v>444</v>
+      </c>
       <c r="U64" s="16"/>
       <c r="V64" s="16"/>
       <c r="W64" s="16"/>
@@ -7535,9 +8348,22 @@
       <c r="Z64" s="16"/>
       <c r="AA64" s="16"/>
       <c r="AB64" s="16"/>
-      <c r="AC64" s="4"/>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
+      <c r="AG64" s="3"/>
+      <c r="AH64" s="3"/>
+      <c r="AI64" s="3"/>
+      <c r="AJ64" s="3"/>
+      <c r="AK64" s="3"/>
+      <c r="AL64" s="3"/>
+      <c r="AM64" s="3"/>
+      <c r="AN64" s="3"/>
+      <c r="AO64" s="3"/>
+      <c r="AP64" s="3"/>
+    </row>
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -7566,9 +8392,22 @@
       <c r="Z65" s="16"/>
       <c r="AA65" s="16"/>
       <c r="AB65" s="16"/>
-      <c r="AC65" s="4"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="3"/>
+      <c r="AH65" s="3"/>
+      <c r="AI65" s="3"/>
+      <c r="AJ65" s="3"/>
+      <c r="AK65" s="3"/>
+      <c r="AL65" s="3"/>
+      <c r="AM65" s="3"/>
+      <c r="AN65" s="3"/>
+      <c r="AO65" s="3"/>
+      <c r="AP65" s="3"/>
+    </row>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -7597,9 +8436,22 @@
       <c r="Z66" s="16"/>
       <c r="AA66" s="16"/>
       <c r="AB66" s="16"/>
-      <c r="AC66" s="4"/>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
+      <c r="AG66" s="3"/>
+      <c r="AH66" s="3"/>
+      <c r="AI66" s="3"/>
+      <c r="AJ66" s="3"/>
+      <c r="AK66" s="3"/>
+      <c r="AL66" s="3"/>
+      <c r="AM66" s="3"/>
+      <c r="AN66" s="3"/>
+      <c r="AO66" s="3"/>
+      <c r="AP66" s="3"/>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -7628,9 +8480,22 @@
       <c r="Z67" s="16"/>
       <c r="AA67" s="16"/>
       <c r="AB67" s="16"/>
-      <c r="AC67" s="4"/>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+      <c r="AH67" s="3"/>
+      <c r="AI67" s="3"/>
+      <c r="AJ67" s="3"/>
+      <c r="AK67" s="3"/>
+      <c r="AL67" s="3"/>
+      <c r="AM67" s="3"/>
+      <c r="AN67" s="3"/>
+      <c r="AO67" s="3"/>
+      <c r="AP67" s="3"/>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -7659,9 +8524,22 @@
       <c r="Z68" s="16"/>
       <c r="AA68" s="16"/>
       <c r="AB68" s="16"/>
-      <c r="AC68" s="4"/>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="3"/>
+      <c r="AG68" s="3"/>
+      <c r="AH68" s="3"/>
+      <c r="AI68" s="3"/>
+      <c r="AJ68" s="3"/>
+      <c r="AK68" s="3"/>
+      <c r="AL68" s="3"/>
+      <c r="AM68" s="3"/>
+      <c r="AN68" s="3"/>
+      <c r="AO68" s="3"/>
+      <c r="AP68" s="3"/>
+    </row>
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -7690,9 +8568,22 @@
       <c r="Z69" s="16"/>
       <c r="AA69" s="16"/>
       <c r="AB69" s="16"/>
-      <c r="AC69" s="4"/>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+      <c r="AG69" s="3"/>
+      <c r="AH69" s="3"/>
+      <c r="AI69" s="3"/>
+      <c r="AJ69" s="3"/>
+      <c r="AK69" s="3"/>
+      <c r="AL69" s="3"/>
+      <c r="AM69" s="3"/>
+      <c r="AN69" s="3"/>
+      <c r="AO69" s="3"/>
+      <c r="AP69" s="3"/>
+    </row>
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -7721,9 +8612,22 @@
       <c r="Z70" s="16"/>
       <c r="AA70" s="16"/>
       <c r="AB70" s="16"/>
-      <c r="AC70" s="4"/>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC70" s="3"/>
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+      <c r="AG70" s="3"/>
+      <c r="AH70" s="3"/>
+      <c r="AI70" s="3"/>
+      <c r="AJ70" s="3"/>
+      <c r="AK70" s="3"/>
+      <c r="AL70" s="3"/>
+      <c r="AM70" s="3"/>
+      <c r="AN70" s="3"/>
+      <c r="AO70" s="3"/>
+      <c r="AP70" s="3"/>
+    </row>
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -7752,9 +8656,22 @@
       <c r="Z71" s="16"/>
       <c r="AA71" s="16"/>
       <c r="AB71" s="16"/>
-      <c r="AC71" s="4"/>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
+      <c r="AG71" s="3"/>
+      <c r="AH71" s="3"/>
+      <c r="AI71" s="3"/>
+      <c r="AJ71" s="3"/>
+      <c r="AK71" s="3"/>
+      <c r="AL71" s="3"/>
+      <c r="AM71" s="3"/>
+      <c r="AN71" s="3"/>
+      <c r="AO71" s="3"/>
+      <c r="AP71" s="3"/>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -7783,8 +8700,22 @@
       <c r="Z72" s="16"/>
       <c r="AA72" s="16"/>
       <c r="AB72" s="16"/>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="3"/>
+      <c r="AF72" s="3"/>
+      <c r="AG72" s="3"/>
+      <c r="AH72" s="3"/>
+      <c r="AI72" s="3"/>
+      <c r="AJ72" s="3"/>
+      <c r="AK72" s="3"/>
+      <c r="AL72" s="3"/>
+      <c r="AM72" s="3"/>
+      <c r="AN72" s="3"/>
+      <c r="AO72" s="3"/>
+      <c r="AP72" s="3"/>
+    </row>
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7813,8 +8744,22 @@
       <c r="Z73" s="16"/>
       <c r="AA73" s="16"/>
       <c r="AB73" s="16"/>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+      <c r="AG73" s="3"/>
+      <c r="AH73" s="3"/>
+      <c r="AI73" s="3"/>
+      <c r="AJ73" s="3"/>
+      <c r="AK73" s="3"/>
+      <c r="AL73" s="3"/>
+      <c r="AM73" s="3"/>
+      <c r="AN73" s="3"/>
+      <c r="AO73" s="3"/>
+      <c r="AP73" s="3"/>
+    </row>
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7828,8 +8773,22 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="N74" s="5"/>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+      <c r="AG74" s="3"/>
+      <c r="AH74" s="3"/>
+      <c r="AI74" s="3"/>
+      <c r="AJ74" s="3"/>
+      <c r="AK74" s="3"/>
+      <c r="AL74" s="3"/>
+      <c r="AM74" s="3"/>
+      <c r="AN74" s="3"/>
+      <c r="AO74" s="3"/>
+      <c r="AP74" s="3"/>
+    </row>
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -7843,8 +8802,22 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="N75" s="5"/>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
+      <c r="AG75" s="3"/>
+      <c r="AH75" s="3"/>
+      <c r="AI75" s="3"/>
+      <c r="AJ75" s="3"/>
+      <c r="AK75" s="3"/>
+      <c r="AL75" s="3"/>
+      <c r="AM75" s="3"/>
+      <c r="AN75" s="3"/>
+      <c r="AO75" s="3"/>
+      <c r="AP75" s="3"/>
+    </row>
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -7858,8 +8831,22 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="N76" s="5"/>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3"/>
+      <c r="AG76" s="3"/>
+      <c r="AH76" s="3"/>
+      <c r="AI76" s="3"/>
+      <c r="AJ76" s="3"/>
+      <c r="AK76" s="3"/>
+      <c r="AL76" s="3"/>
+      <c r="AM76" s="3"/>
+      <c r="AN76" s="3"/>
+      <c r="AO76" s="3"/>
+      <c r="AP76" s="3"/>
+    </row>
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -7873,8 +8860,22 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="N77" s="5"/>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="3"/>
+      <c r="AI77" s="3"/>
+      <c r="AJ77" s="3"/>
+      <c r="AK77" s="3"/>
+      <c r="AL77" s="3"/>
+      <c r="AM77" s="3"/>
+      <c r="AN77" s="3"/>
+      <c r="AO77" s="3"/>
+      <c r="AP77" s="3"/>
+    </row>
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -7888,8 +8889,22 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="N78" s="5"/>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="3"/>
+      <c r="AH78" s="3"/>
+      <c r="AI78" s="3"/>
+      <c r="AJ78" s="3"/>
+      <c r="AK78" s="3"/>
+      <c r="AL78" s="3"/>
+      <c r="AM78" s="3"/>
+      <c r="AN78" s="3"/>
+      <c r="AO78" s="3"/>
+      <c r="AP78" s="3"/>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -7902,8 +8917,22 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="3"/>
+      <c r="AI79" s="3"/>
+      <c r="AJ79" s="3"/>
+      <c r="AK79" s="3"/>
+      <c r="AL79" s="3"/>
+      <c r="AM79" s="3"/>
+      <c r="AN79" s="3"/>
+      <c r="AO79" s="3"/>
+      <c r="AP79" s="3"/>
+    </row>
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -7916,8 +8945,22 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+      <c r="AH80" s="3"/>
+      <c r="AI80" s="3"/>
+      <c r="AJ80" s="3"/>
+      <c r="AK80" s="3"/>
+      <c r="AL80" s="3"/>
+      <c r="AM80" s="3"/>
+      <c r="AN80" s="3"/>
+      <c r="AO80" s="3"/>
+      <c r="AP80" s="3"/>
+    </row>
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7930,8 +8973,21 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD81" s="4"/>
+      <c r="AE81" s="4"/>
+      <c r="AF81" s="4"/>
+      <c r="AG81" s="4"/>
+      <c r="AH81" s="4"/>
+      <c r="AI81" s="4"/>
+      <c r="AJ81" s="4"/>
+      <c r="AK81" s="4"/>
+      <c r="AL81" s="4"/>
+      <c r="AM81" s="4"/>
+      <c r="AN81" s="4"/>
+      <c r="AO81" s="3"/>
+      <c r="AP81" s="3"/>
+    </row>
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7944,8 +9000,10 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO82" s="3"/>
+      <c r="AP82" s="3"/>
+    </row>
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7958,8 +9016,10 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO83" s="3"/>
+      <c r="AP83" s="3"/>
+    </row>
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -7972,8 +9032,10 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO84" s="3"/>
+      <c r="AP84" s="3"/>
+    </row>
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -7986,8 +9048,10 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO85" s="3"/>
+      <c r="AP85" s="3"/>
+    </row>
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -8000,8 +9064,10 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO86" s="3"/>
+      <c r="AP86" s="3"/>
+    </row>
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -8014,8 +9080,10 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO87" s="3"/>
+      <c r="AP87" s="3"/>
+    </row>
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -8028,8 +9096,10 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO88" s="3"/>
+      <c r="AP88" s="3"/>
+    </row>
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -8042,8 +9112,10 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO89" s="3"/>
+      <c r="AP89" s="3"/>
+    </row>
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -8056,8 +9128,10 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO90" s="3"/>
+      <c r="AP90" s="3"/>
+    </row>
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -8070,8 +9144,10 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO91" s="3"/>
+      <c r="AP91" s="3"/>
+    </row>
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -8084,8 +9160,10 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO92" s="3"/>
+      <c r="AP92" s="3"/>
+    </row>
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -8098,8 +9176,10 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO93" s="3"/>
+      <c r="AP93" s="3"/>
+    </row>
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -8112,8 +9192,10 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO94" s="3"/>
+      <c r="AP94" s="3"/>
+    </row>
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -8126,8 +9208,10 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO95" s="3"/>
+      <c r="AP95" s="3"/>
+    </row>
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -8140,8 +9224,10 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO96" s="3"/>
+      <c r="AP96" s="3"/>
+    </row>
+    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -8154,8 +9240,10 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO97" s="3"/>
+      <c r="AP97" s="3"/>
+    </row>
+    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -8168,8 +9256,10 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO98" s="3"/>
+      <c r="AP98" s="3"/>
+    </row>
+    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -8182,8 +9272,10 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO99" s="3"/>
+      <c r="AP99" s="3"/>
+    </row>
+    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -8196,8 +9288,10 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO100" s="3"/>
+      <c r="AP100" s="3"/>
+    </row>
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -8210,8 +9304,10 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO101" s="3"/>
+      <c r="AP101" s="3"/>
+    </row>
+    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -8224,8 +9320,10 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AO102" s="3"/>
+      <c r="AP102" s="3"/>
+    </row>
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -8239,7 +9337,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -8253,7 +9351,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -8267,7 +9365,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -8281,7 +9379,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -8295,7 +9393,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -8309,7 +9407,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -8323,7 +9421,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -8337,7 +9435,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -8351,7 +9449,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -9025,19 +10123,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:O11 U10:U11 Q10:R11">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:O14">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:O19">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:S21">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:AA24 H22:AA22">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
+++ b/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B063176-3A7D-4C6B-AE10-9030803BE324}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFB2C0C-162D-494C-A560-D5A09E5F3073}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3168,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T64" sqref="T64"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
+++ b/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFB2C0C-162D-494C-A560-D5A09E5F3073}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEEB48A-069C-4FB7-85D6-E45DA1978238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="526">
   <si>
     <t>Escenario</t>
   </si>
@@ -2251,9 +2251,6 @@
     <t>TC_002_61_administradorConsultaCuentasChequeMXNTXT</t>
   </si>
   <si>
-    <t>TC_002_62_administradorConsultaCuentasLineaOperativa</t>
-  </si>
-  <si>
     <t>El usuario valida que se muestre el campo "País".||El sistema muestra el campo "País" de forma correcta.</t>
   </si>
   <si>
@@ -2409,12 +2406,420 @@
   <si>
     <t>El usuario valida el campo "Tasa".||El sistema muestra la tasa de forma correcta.</t>
   </si>
+  <si>
+    <t>TC_002_62_administradorConsultaCuentasLineaOperativaPDF</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Descripción del préstamo".||El sistema muestra la descripción del préstamo de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Pagos vencidos".||El sistema muestra los pagos vencidos de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Estado del crédito".||El sistema muestra el estado del crédito de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Total del saldo".||El sistema muestra el campo "Total del saldo " del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Adeudo Vencido Capital".||El sistema muestra el campo "Adeudo Vencido Capital" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Adeudo Vencido Intereses".||El sistema muestra el campo "Adeudo Vencido Intereses" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Adeudo Vencido Seguro".||El sistema muestra el campo "Adeudo Vencido Seguro" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Adeudo Vencido Comisiones".||El sistema muestra el campo "Adeudo Vencido Comisiones" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Adeudo Vencido Gastos de cobranza".||El sistema muestra el campo "Adeudo Vencido Gastos de cobranza" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Adeudo Vencido Moratorios".||
+El sistema muestra el campo "Adeudo Vencido Moratorios" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Adeudo Vencido IVA".||El sistema muestra el campo "Adeudo Vencido IVA" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Adeudo Vencido Total vencido".||El sistema muestra el campo "Adeudo Vencido Total vencido" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Mensualidad Vigente: Capital".||El sistema muestra el campo "Mensualidad Vigente: Capital" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Mensualidad Vigente: Intereses".||El sistema muestra el campo "Total del saldo " del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Mensualidad Vigente:IVA Intereses".||El sistema muestra el campo "Mensualidad Vigente:IVA Intereses" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Mensualidad Vigente: Seguros".||El sistema muestra el campo "Mensualidad Vigente: Seguros" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Mensualidad Vigente: IVA Seguros".||
+El sistema muestra el campo "Mensualidad Vigente: IVA Seguros"" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Mensualidad Vigente: Comisiones".||El sistema muestra el campo "Mensualidad Vigente: Comisiones" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Mensualidad Vigente: IVA Comisiones".||El sistema muestra el campo "Mensualidad Vigente: IVA Comisiones" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Mensualidad Vigente: Total".||El sistema muestra el campo "Mensualidad Vigente: Total" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Tipo operación".||El sistema muestra la columna "Tipo de operación" con los valores "Cargo" o "Abono".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Descripción del movimiento".||El sistema muestra la columna "Descripción del movimiento" con la descripción del movimiento.</t>
+  </si>
+  <si>
+    <t>El usuario indica una fecha fin en el campo de búsqueda "Seleccione fecha fin".||El sistema muestra la fecha fin de forma correcta y el resultado de la búsqueda de movimientos en la siguiente tabla:
+Columna "Fecha del movimiento"
+Columna "Referencia"
+Columna "Importe operación"
+Columna "Tipo operación"
+Columna "Descripción del movimiento"</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Fondo".||El sistema muestra el fondo de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Número de títulos".||El sistema muestra el número de títulos de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Mostrar detalles".||El sistema permite mostrar la sección de Saldos con los siguientes campos:
+Precio de títulos
+Valuación
+Estado
+Opción "Ocutar detalles"</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Precio de títulos".||El sistema muestra la columna "Precio de títulos" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Valuación".||El sistema muestra la columna "Precio de títulos" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Estado".||El sistema muestra el estado de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Fecha".||El sistema muestra la columna "Fecha" en formato DD/MMM/AAAA".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Referencia Numérica".||El sistema muestra la columna "Referencia Numérica" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Importe de operación".||El sistema muestra la columna "Importe de operación" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Tipo de operación".||El sistema muestra la columna "Tipo de operación" con los valores "Cargo" o "Abono".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Transacción".||El sistema muestra la columna "Transacción" con la descripción del movimiento.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna opciones (…).||El sistema muestra el comprobante del movimiento.</t>
+  </si>
+  <si>
+    <t>El usuario indica una fecha fin en el campo de búsqueda "Seleccione fecha fin".||El sistema muestra la fecha fin de forma correcta y el resultado de la búsqueda de movimientos en la siguiente tabla:
+Columna "Fecha"
+Columna "Referencia Numérica"
+Columna "Importe de operación"
+Columna "Tipo de operación"
+Columna "Transacción"</t>
+  </si>
+  <si>
+    <t>TC_002_65_administradorConsulta CresitosHipotecarios</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "País".||El sistema muestra el país de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Ciudad".||El sistema muestra el país de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Valor Crédito Original".||El sistema muestra el campo "Valor Crédito Original" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Mostrar detalles".||El sistema permite mostrar la sección de Saldos con los siguientes campos:
+Saldo vigente
+Saldo vencido
+Valor del UDI
+Sucursal de Asignación
+Fecha de Otorgamiento
+Pagos vencidos
+Opción "Ocutar detalles"</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo vigente"||El sistema muestra la columna "Saldo vigente" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo vencido"||El sistema muestra la columna "Saldo vencido" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Valor del UDI".||El sistema muestra el valor del UDI de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Sucursal de Asignación".||El sistema muestra la sucursal de asignación de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Fecha de Otorgamiento".||El sistema muestra la fecha de otorgamiento de forma correcta en formato DD/MMM/AAAA.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Importe operación".||El sistema muestra la columna "Importe operación" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales
+Se muestra el valor positivo si se trata de un Abono.
+Se muestra el valor negativo si se trata de un Cargo.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Tipo de operación".||El sistema muestra la columna "Tipo de operación".</t>
+  </si>
+  <si>
+    <t>El usuario indica una fecha fin en el campo de búsqueda "Seleccione fecha fin".||El sistema muestra la fecha fin de forma correcta y el resultado de la búsqueda de movimientos en la siguiente tabla:
+Columna "Fecha del movimiento"
+Columna "Importe operación"
+Columna "Referencia"
+Columna "Descripción del movimiento"
+Columna "Tipo de operación"</t>
+  </si>
+  <si>
+    <t>TC_002_66_administradorConsulta Contar con permisos para consultar cuentas de Inversión</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Número de Cuenta eje"||El sistema muestra el campo "Número de Cuenta eje" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Importe de Capital".||El sistema muestra el campo "Importe de Capital" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario selecciona un número de inversión.||El sistema muestra el detalle del número de inversión seleccionado.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Sucursal de asignación".||El sistema muestra la columna "Sucursal de asignación" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Nombre del cliente".||El sistema muestra el campo "Nombre del cliente" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Fecha de apertura".||El sistema muestra el campo "Fecha de apertura" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Fecha de vencimiento".||El sistema muestra el campo "Fecha de vencimiento" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Clave renovación".||El sistema muestra el campo "Clave renovación" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Sobretasa".||El sistema muestra el campo "Sobretasa" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Tasa".||El sistema muestra el campo "Tasa" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Intereses".||El sistema muestra el campo "Intereses" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Plazo".||El sistema muestra el campo "Plazo" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario indica una fecha fin en el campo de búsqueda "Seleccione fecha fin".||El sistema muestra la fecha fin de forma correcta y el resultado de la búsqueda de movimientos en la siguiente tabla:
+Columna "Fecha "
+Columna "Tipo de operación"
+Columna "Descripción"
+Columna "Importe"
+Columna "Saldo final importe de capital"</t>
+  </si>
+  <si>
+    <t>TC_002_63_administradorConsultaCuentasPrestamosPersonalesPDF</t>
+  </si>
+  <si>
+    <t>TC_002_64_administradorConsultaCuentasFondosInversionPDF</t>
+  </si>
+  <si>
+    <t>TC_002_67_administradorConsultaCuentasTDCMXNPDF</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Número de la tarjeta"||El sistema muestra el campo "Número de la tarjeta" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Nombre de cliente".||El sistema muestra el nombre del cliente de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "País".||El sistema muestra el país de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Moneda".||El sistema muestra la moneda de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en "Ver detalles".||El sistema muestra los campos:
+Saldo disponible
+Límite de Crédito
+Estado de la cuenta
+Fecha Límite de pago
+Pago mínimo
+Fecha de corte
+Pagos vencidos</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo disponible".||El sistema muestra el campo "Saldo disponible" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Límite de crédito"||El sistema muestra el campo "Límite de crédito" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Estado de la cuenta"||El sistema muestra el estado de la cuenta como "ACTIVA".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Fecha Límite de pago"||El sistema muestra la fecha límite de pago de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Pago mínimo"||El sistema muestra el campo "Pago mínimo" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Fecha de corte"||El sistema muestra la fecha de corte de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Pagos vencidos"||El sistema muestra el número de Pagos vencidos de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la opción del cuadro de Búsqueda.||El sistema muestra la opción del cuadro de "Búsqueda" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la opción "Ver consolidado"||El sistema muestra la opción "Ver consolidado" de forma correcta como hipervínculo.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el botón de Descarga.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2429,8 +2834,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2465,6 +2877,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2640,10 +3057,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2793,8 +3211,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -3166,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR159"/>
+  <dimension ref="A1:BC159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="V66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y68" sqref="Y68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3218,6 +3640,17 @@
     <col min="42" max="42" width="62" customWidth="1"/>
     <col min="43" max="43" width="58.28515625" customWidth="1"/>
     <col min="44" max="44" width="49.28515625" customWidth="1"/>
+    <col min="45" max="45" width="46.42578125" customWidth="1"/>
+    <col min="46" max="46" width="42.42578125" customWidth="1"/>
+    <col min="47" max="47" width="42.140625" customWidth="1"/>
+    <col min="48" max="48" width="40.42578125" customWidth="1"/>
+    <col min="49" max="49" width="47" customWidth="1"/>
+    <col min="50" max="50" width="43.42578125" customWidth="1"/>
+    <col min="51" max="51" width="43" customWidth="1"/>
+    <col min="52" max="52" width="45.85546875" customWidth="1"/>
+    <col min="53" max="53" width="46.140625" customWidth="1"/>
+    <col min="54" max="54" width="50.7109375" customWidth="1"/>
+    <col min="55" max="55" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -7058,7 +7491,7 @@
       <c r="AM48" s="3"/>
       <c r="AN48" s="3"/>
     </row>
-    <row r="49" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>358</v>
       </c>
@@ -7140,7 +7573,7 @@
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
     </row>
-    <row r="50" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>359</v>
       </c>
@@ -7224,7 +7657,7 @@
       <c r="AM50" s="3"/>
       <c r="AN50" s="3"/>
     </row>
-    <row r="51" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>366</v>
       </c>
@@ -7306,7 +7739,7 @@
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
     </row>
-    <row r="52" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>367</v>
       </c>
@@ -7390,7 +7823,7 @@
       <c r="AM52" s="3"/>
       <c r="AN52" s="3"/>
     </row>
-    <row r="53" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>372</v>
       </c>
@@ -7472,7 +7905,7 @@
       <c r="AM53" s="3"/>
       <c r="AN53" s="3"/>
     </row>
-    <row r="54" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>373</v>
       </c>
@@ -7556,7 +7989,7 @@
       <c r="AM54" s="3"/>
       <c r="AN54" s="3"/>
     </row>
-    <row r="55" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:55" ht="180" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>386</v>
       </c>
@@ -7638,7 +8071,7 @@
       <c r="AM55" s="3"/>
       <c r="AN55" s="3"/>
     </row>
-    <row r="56" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:55" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>391</v>
       </c>
@@ -7720,7 +8153,7 @@
       <c r="AM56" s="3"/>
       <c r="AN56" s="3"/>
     </row>
-    <row r="57" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" ht="180" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>395</v>
       </c>
@@ -7802,7 +8235,7 @@
       <c r="AM57" s="3"/>
       <c r="AN57" s="3"/>
     </row>
-    <row r="58" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>398</v>
       </c>
@@ -7873,7 +8306,7 @@
       <c r="AB58" s="16"/>
       <c r="AC58" s="4"/>
     </row>
-    <row r="59" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" ht="180" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>401</v>
       </c>
@@ -7944,7 +8377,7 @@
       <c r="AB59" s="16"/>
       <c r="AC59" s="4"/>
     </row>
-    <row r="60" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" ht="180" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>404</v>
       </c>
@@ -8015,7 +8448,7 @@
       <c r="AB60" s="16"/>
       <c r="AC60" s="4"/>
     </row>
-    <row r="61" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" ht="180" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>405</v>
       </c>
@@ -8086,7 +8519,7 @@
       <c r="AB61" s="16"/>
       <c r="AC61" s="4"/>
     </row>
-    <row r="62" spans="1:42" ht="180" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" ht="180" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>406</v>
       </c>
@@ -8157,9 +8590,9 @@
       <c r="AB62" s="16"/>
       <c r="AC62" s="4"/>
     </row>
-    <row r="63" spans="1:42" ht="150" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:55" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="6" t="s">
@@ -8190,101 +8623,103 @@
         <v>324</v>
       </c>
       <c r="L63" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="M63" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="M63" s="16" t="s">
+      <c r="N63" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="N63" s="16" t="s">
+      <c r="O63" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="O63" s="16" t="s">
+      <c r="P63" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="P63" s="16" t="s">
+      <c r="Q63" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="Q63" s="16" t="s">
+      <c r="R63" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="R63" s="16" t="s">
+      <c r="S63" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="S63" s="16" t="s">
+      <c r="T63" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="T63" s="16" t="s">
+      <c r="U63" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="U63" s="16" t="s">
+      <c r="V63" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="V63" s="16" t="s">
+      <c r="W63" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="W63" s="16" t="s">
+      <c r="X63" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="X63" s="16" t="s">
+      <c r="Y63" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="Y63" s="16" t="s">
+      <c r="Z63" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="Z63" s="16" t="s">
+      <c r="AA63" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="AA63" s="16" t="s">
+      <c r="AB63" s="16" t="s">
         <v>423</v>
-      </c>
-      <c r="AB63" s="16" t="s">
-        <v>424</v>
       </c>
       <c r="AC63" s="3" t="s">
         <v>325</v>
       </c>
       <c r="AD63" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE63" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="AE63" s="3" t="s">
+      <c r="AF63" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="AF63" s="3" t="s">
+      <c r="AG63" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="AG63" s="3" t="s">
+      <c r="AH63" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="AH63" s="3" t="s">
+      <c r="AI63" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="AI63" s="3" t="s">
+      <c r="AJ63" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="AJ63" s="3" t="s">
+      <c r="AK63" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="AK63" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="AL63" s="3" t="s">
         <v>325</v>
       </c>
       <c r="AM63" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="AN63" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="AN63" s="3" t="s">
+      <c r="AO63" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="AO63" s="3" t="s">
+      <c r="AP63" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="AP63" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="64" spans="1:42" ht="150" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+    </row>
+    <row r="64" spans="1:55" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="B64" s="2"/>
       <c r="C64" s="6" t="s">
         <v>32</v>
@@ -8317,88 +8752,239 @@
         <v>343</v>
       </c>
       <c r="M64" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="N64" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="N64" s="16" t="s">
+      <c r="O64" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="O64" s="16" t="s">
+      <c r="P64" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="P64" s="16" t="s">
+      <c r="Q64" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="Q64" s="16" t="s">
+      <c r="R64" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="R64" s="16" t="s">
+      <c r="S64" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="S64" s="16" t="s">
+      <c r="T64" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="T64" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="16"/>
-      <c r="AB64" s="16"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
-      <c r="AG64" s="3"/>
-      <c r="AH64" s="3"/>
-      <c r="AI64" s="3"/>
-      <c r="AJ64" s="3"/>
-      <c r="AK64" s="3"/>
-      <c r="AL64" s="3"/>
-      <c r="AM64" s="3"/>
-      <c r="AN64" s="3"/>
-      <c r="AO64" s="3"/>
-      <c r="AP64" s="3"/>
-    </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="U64" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="V64" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="W64" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="X64" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y64" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z64" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA64" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB64" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC64" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="AD64" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="AE64" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="AF64" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG64" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="AH64" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="AI64" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AJ64" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="AK64" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="AL64" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="AM64" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN64" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="AO64" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AP64" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AQ64" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="AR64" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AS64" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="AT64" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="AU64" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AV64" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="AW64" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="AX64" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="AY64" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AZ64" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="BA64" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="BB64" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="BC64" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>509</v>
+      </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="16"/>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="16"/>
-      <c r="AB65" s="16"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-      <c r="AF65" s="3"/>
-      <c r="AG65" s="3"/>
-      <c r="AH65" s="3"/>
-      <c r="AI65" s="3"/>
+      <c r="C65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M65" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="N65" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="O65" s="43" t="s">
+        <v>469</v>
+      </c>
+      <c r="P65" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q65" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="R65" s="43" t="s">
+        <v>472</v>
+      </c>
+      <c r="S65" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="T65" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="U65" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="V65" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="W65" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="X65" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y65" s="43" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z65" s="43" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA65" s="43" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB65" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC65" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD65" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE65" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF65" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG65" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AH65" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AI65" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="AJ65" s="3"/>
       <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
@@ -8407,81 +8993,211 @@
       <c r="AO65" s="3"/>
       <c r="AP65" s="3"/>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+    <row r="66" spans="1:42" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="51" t="s">
+        <v>481</v>
+      </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="16"/>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="16"/>
-      <c r="AB66" s="16"/>
-      <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-      <c r="AF66" s="3"/>
-      <c r="AG66" s="3"/>
-      <c r="AH66" s="3"/>
-      <c r="AI66" s="3"/>
-      <c r="AJ66" s="3"/>
-      <c r="AK66" s="3"/>
+      <c r="C66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M66" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="N66" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="O66" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="P66" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q66" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="R66" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="S66" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="T66" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="U66" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="V66" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="W66" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="X66" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y66" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z66" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA66" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB66" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC66" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD66" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE66" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AF66" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="AG66" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AH66" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AI66" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="AJ66" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK66" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="AL66" s="3"/>
       <c r="AM66" s="3"/>
       <c r="AN66" s="3"/>
       <c r="AO66" s="3"/>
       <c r="AP66" s="3"/>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+    <row r="67" spans="1:42" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="51" t="s">
+        <v>494</v>
+      </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="16"/>
-      <c r="W67" s="16"/>
-      <c r="X67" s="16"/>
-      <c r="Y67" s="16"/>
-      <c r="Z67" s="16"/>
-      <c r="AA67" s="16"/>
-      <c r="AB67" s="16"/>
-      <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
+      <c r="C67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="M67" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="N67" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="O67" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="P67" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q67" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="R67" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="S67" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="T67" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="U67" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="V67" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="W67" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="X67" s="43" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y67" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z67" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA67" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB67" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="AC67" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD67" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
@@ -8495,32 +9211,80 @@
       <c r="AO67" s="3"/>
       <c r="AP67" s="3"/>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+    <row r="68" spans="1:42" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>510</v>
+      </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="16"/>
+      <c r="C68" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="M68" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="N68" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="O68" s="43" t="s">
+        <v>515</v>
+      </c>
+      <c r="P68" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q68" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="R68" s="43" t="s">
+        <v>518</v>
+      </c>
+      <c r="S68" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="T68" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="U68" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="V68" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="W68" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="X68" s="43" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y68" s="16" t="s">
+        <v>525</v>
+      </c>
       <c r="Z68" s="16"/>
       <c r="AA68" s="16"/>
       <c r="AB68" s="16"/>

--- a/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
+++ b/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEEB48A-069C-4FB7-85D6-E45DA1978238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDCFD34-2EAF-4CFC-8232-E3E0B649EA96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="557">
   <si>
     <t>Escenario</t>
   </si>
@@ -2812,7 +2812,148 @@
     <t>El usuario valida que se muestre la opción "Ver consolidado"||El sistema muestra la opción "Ver consolidado" de forma correcta como hipervínculo.</t>
   </si>
   <si>
-    <t>El usuario valida que se muestre el botón de Descarga.</t>
+    <t>El usuario valida que se muestre el botón de Descarga.||El sistema muestra el botón de "Descarga" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Número de autorización".||El sistema muestra la columna "Número de autorización" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Transacción".||El sistema muestra la columna "Transacción" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Monto".||El sistema muestra la columna "Monto" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales
+Se muestra el valor positivo si se trata de un Abono.
+Se muestra el valor negativo si se trata de un Cargo.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna opciones (…).||El sistema la columna opciones (…) de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario indica una fecha fin en el campo de búsqueda "Seleccione fecha fin".||El sistema muestra la fecha fin de forma correcta y el resultado de la búsqueda de movimientos en la siguiente tabla:
+Columna "Fecha"
+Columna "Número de autorización"
+Columna "Transacción"
+Columna "Monto"
+Columna "Tipo de operación"</t>
+  </si>
+  <si>
+    <t>TC_002_68_administradorConsulta</t>
+  </si>
+  <si>
+    <t>El usuario valida el campo "Identificación cliente".||El sistema muestra la identificación del cliente de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el Nombre de cliente.||El sistema muestra el nombre del cliente de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida el estado de la cuenta.||El sistema muestra el estado de la cuenta en la parte superior derecha como "ACTIVA".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo total".||El sistema muestra la columna "Saldo total" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo disponible"||El sistema muestra la columna "Saldo disponible" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo salvo buen cobro"||El sistema muestra la columna "Saldo salvo buen cobro" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo límite de sobregiro"||El sistema muestra la columna "Saldo límite de sobregiro" de forma correcta con formato de moneda:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Alias".||El sistema muestra el campo Alias de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Descripción".||El sistema muestra la columna "Descripción" con la descripción del movimiento.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo final".||El sistema muestra la columna "Monto" del movimiento con el siguiente formato:
+Signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario indica una fecha fin en el campo de búsqueda "Seleccione fecha fin".||El sistema muestra la fecha fin de forma correcta y el resultado de la búsqueda de movimientos en la siguiente tabla:
+Columna "Fecha del movimiento"
+Columna "Tipo de operación"
+Columna "Descripción"
+Columna "Monto"
+Columna "Saldo final"</t>
+  </si>
+  <si>
+    <t>TC_002_69_administradorConsulta</t>
+  </si>
+  <si>
+    <t>TC_002_70_administradorConsulta</t>
+  </si>
+  <si>
+    <t>El usuario valida el total de cuentas mostradas entre paréntesis en la sección "LÍNEA OPERATIVA CONSOLIDADOS".||El sistema muestra el total de créditos de Línea Operativa de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Linea operativa"||El sistema muestra la lista de créditos de Línea Operativa y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "LÍNEA OPERATIVA CONSOLIDADOS".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Ver consolidado"||El sistema muestra la sección "LÍNEA OPERATIVA CONSOLIDADOS" con el número total de cuentas indicadas entre paréntesis y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "LÍNEA OPERATIVA CONSOLIDADOS".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo total del crédito".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "LÍNEA OPERATIVA CONSOLIDADOS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Saldo total del crédito".||El sistema muestra el campo "Saldo total del crédito" de forma correcta con el siguiente formato:
+Formato de moneda con signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo total del crédito".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Saldo total del crédito".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Capital disponible".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "LÍNEA OPERATIVA CONSOLIDADOS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Capital disponible".||El sistema muestra el campo "Capital disponible" de forma correcta con el siguiente formato:
+Formato de moneda con signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Capital disponible".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Capital disponible".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Importe autorizado".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "LÍNEA OPERATIVA CONSOLIDADOS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Importe autorizado"||El sistema muestra el campo "Importe autorizado" de forma correcta con el siguiente formato:
+Formato de moneda con signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Importe autorizado".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Importe autorizado".</t>
   </si>
 </sst>
 </file>
@@ -3590,8 +3731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y68" sqref="Y68"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9285,61 +9426,161 @@
       <c r="Y68" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="16"/>
-      <c r="AB68" s="16"/>
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
-      <c r="AG68" s="3"/>
-      <c r="AH68" s="3"/>
-      <c r="AI68" s="3"/>
-      <c r="AJ68" s="3"/>
-      <c r="AK68" s="3"/>
-      <c r="AL68" s="3"/>
-      <c r="AM68" s="3"/>
-      <c r="AN68" s="3"/>
+      <c r="Z68" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA68" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB68" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC68" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD68" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="AE68" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF68" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG68" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="AH68" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="AI68" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AJ68" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK68" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="AL68" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AM68" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN68" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="AO68" s="3"/>
       <c r="AP68" s="3"/>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+    <row r="69" spans="1:42" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="51" t="s">
+        <v>531</v>
+      </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="16"/>
-      <c r="Z69" s="16"/>
-      <c r="AA69" s="16"/>
-      <c r="AB69" s="16"/>
-      <c r="AC69" s="3"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
-      <c r="AF69" s="3"/>
-      <c r="AG69" s="3"/>
-      <c r="AH69" s="3"/>
-      <c r="AI69" s="3"/>
-      <c r="AJ69" s="3"/>
+      <c r="C69" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="M69" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="N69" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="O69" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="P69" s="43" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q69" s="43" t="s">
+        <v>536</v>
+      </c>
+      <c r="R69" s="43" t="s">
+        <v>537</v>
+      </c>
+      <c r="S69" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="T69" s="43" t="s">
+        <v>539</v>
+      </c>
+      <c r="U69" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="V69" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="W69" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="X69" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y69" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z69" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA69" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB69" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="AC69" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AD69" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE69" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF69" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG69" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH69" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="AI69" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ69" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="AK69" s="3"/>
       <c r="AL69" s="3"/>
       <c r="AM69" s="3"/>
@@ -9347,43 +9588,113 @@
       <c r="AO69" s="3"/>
       <c r="AP69" s="3"/>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+    <row r="70" spans="1:42" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="51" t="s">
+        <v>543</v>
+      </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="16"/>
-      <c r="Y70" s="16"/>
-      <c r="Z70" s="16"/>
-      <c r="AA70" s="16"/>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-      <c r="AE70" s="3"/>
-      <c r="AF70" s="3"/>
-      <c r="AG70" s="3"/>
-      <c r="AH70" s="3"/>
-      <c r="AI70" s="3"/>
-      <c r="AJ70" s="3"/>
+      <c r="C70" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="M70" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="N70" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="O70" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="P70" s="43" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q70" s="43" t="s">
+        <v>536</v>
+      </c>
+      <c r="R70" s="43" t="s">
+        <v>537</v>
+      </c>
+      <c r="S70" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="T70" s="43" t="s">
+        <v>539</v>
+      </c>
+      <c r="U70" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="V70" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="W70" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="X70" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y70" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z70" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA70" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB70" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="AC70" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AD70" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE70" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF70" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG70" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH70" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="AI70" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ70" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="AK70" s="3"/>
       <c r="AL70" s="3"/>
       <c r="AM70" s="3"/>
@@ -9391,28 +9702,68 @@
       <c r="AO70" s="3"/>
       <c r="AP70" s="3"/>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+    <row r="71" spans="1:42" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="51" t="s">
+        <v>544</v>
+      </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
+      <c r="C71" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="M71" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="N71" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="O71" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="P71" s="43" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q71" s="43" t="s">
+        <v>552</v>
+      </c>
+      <c r="R71" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="S71" s="43" t="s">
+        <v>554</v>
+      </c>
+      <c r="T71" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="U71" s="43" t="s">
+        <v>556</v>
+      </c>
       <c r="V71" s="16"/>
       <c r="W71" s="16"/>
       <c r="X71" s="16"/>
@@ -9435,7 +9786,7 @@
       <c r="AO71" s="3"/>
       <c r="AP71" s="3"/>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>

--- a/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
+++ b/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDCFD34-2EAF-4CFC-8232-E3E0B649EA96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655B4969-4AFA-4449-8FA4-A7E257196385}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="574">
   <si>
     <t>Escenario</t>
   </si>
@@ -2955,12 +2955,63 @@
   <si>
     <t>El usuario valida el monto mostrado en el campo "Importe autorizado".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Importe autorizado".</t>
   </si>
+  <si>
+    <t>TC_002_86_administradorConsultaCuentasLineaOperativaCSV</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Descarga".||El sistema muestra la página "Opciones de descarga" con las opciones "Manual" y "Plantilla".</t>
+  </si>
+  <si>
+    <t>TC_002_87_administradorConsultaCuentasPrestamosPersonalesTXT</t>
+  </si>
+  <si>
+    <t>El usuario habilita la opción "Archivo con encabezado"||El sistema permite habilitar el radio botton de forma correcta.</t>
+  </si>
+  <si>
+    <t>TC_002_88_administradorConsultaCuentasFondosInversionCSV</t>
+  </si>
+  <si>
+    <t>TC_002_89_administradorConsultaCreditosHipotecarioTXT</t>
+  </si>
+  <si>
+    <t>TC_002_90_administradorConsultaCuentasInversionCSV</t>
+  </si>
+  <si>
+    <t>TC_002_91_administradorConsultaCuentasTDCMXNTXT</t>
+  </si>
+  <si>
+    <t>TC_002_92_administradorConsultaCuentasChequeUSDCSV</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la pestaña "Cuentas Cheque USD"||El sistema muestra la lista de Cuentas Cheque USD.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Descargar".||El sistema permite descargar el reporte de Créditos Hipotecarios en formato TXT de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Descargar".||El sistema permite descargar el reporte de cuentas de Inversión en formato CSV de forma correcta .</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Descargar".||El sistema permite descargar el reporte de cuentas de Tarjetas de Crédito en formato TXT de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Descargar".||El sistema permite descargar el reporte de Cuentas Cheque USD de forma correcta en formato CSV .</t>
+  </si>
+  <si>
+    <t>TC_002_93_administradorConsultaCuentasChequeMXNTXT</t>
+  </si>
+  <si>
+    <t>El usuario valida las cuentas de cheques de la pestaña "Cuentas Cheque MXN"||El sistema muestra la lista de Cuentas Cheque MXN.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Descargar".||El sistema permite descargar el reporte de Cuenta Cheque MXN de forma correcta en formato TXT .</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2978,6 +3029,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3026,7 +3084,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3197,12 +3255,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE1E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3354,6 +3423,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3731,8 +3803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="N40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T94" sqref="T94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10182,131 +10254,499 @@
       <c r="AO86" s="3"/>
       <c r="AP86" s="3"/>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+    <row r="87" spans="1:42" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
+      <c r="C87" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="AO87" s="3"/>
       <c r="AP87" s="3"/>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+    <row r="88" spans="1:42" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>559</v>
+      </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
+      <c r="C88" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J88" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="AO88" s="3"/>
       <c r="AP88" s="3"/>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+    <row r="89" spans="1:42" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>561</v>
+      </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
+      <c r="C89" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J89" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>394</v>
+      </c>
       <c r="AO89" s="3"/>
       <c r="AP89" s="3"/>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+    <row r="90" spans="1:42" ht="213" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
+      <c r="C90" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J90" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>567</v>
+      </c>
       <c r="AO90" s="3"/>
       <c r="AP90" s="3"/>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+    <row r="91" spans="1:42" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>563</v>
+      </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
+      <c r="C91" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J91" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>568</v>
+      </c>
       <c r="AO91" s="3"/>
       <c r="AP91" s="3"/>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+    <row r="92" spans="1:42" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
+      <c r="C92" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J92" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>569</v>
+      </c>
       <c r="AO92" s="3"/>
       <c r="AP92" s="3"/>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
+    <row r="93" spans="1:42" ht="213" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>565</v>
+      </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
+      <c r="C93" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="J93" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>570</v>
+      </c>
       <c r="AO93" s="3"/>
       <c r="AP93" s="3"/>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
+    <row r="94" spans="1:42" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>571</v>
+      </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
+      <c r="C94" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="J94" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>573</v>
+      </c>
       <c r="AO94" s="3"/>
       <c r="AP94" s="3"/>
     </row>

--- a/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
+++ b/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655B4969-4AFA-4449-8FA4-A7E257196385}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ED278F-C8E3-4663-93CD-22B9A9F42264}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="744">
   <si>
     <t>Escenario</t>
   </si>
@@ -3005,6 +3005,733 @@
   </si>
   <si>
     <t>El usuario da clic en el botón "Descargar".||El sistema permite descargar el reporte de Cuenta Cheque MXN de forma correcta en formato TXT .</t>
+  </si>
+  <si>
+    <t>TC_002_78_administradorConsultaCuentasLineaOperativaBD</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el siguiente dato:
+Nombre de usuario.||El sistema permite ingresar el nombre de usuario de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el siguiente dato:
+Contraseña.||El sistema permite ingresar la contraseña de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa el siguiente dato:
+Token.||El sistema permite ingresar el token de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón "Ingresar".||El sistema muestra la página principal de CCOP "Resumen consolidado de productos".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la pestaña "Productos y servicios".||El sistema muestra la página "Cuentas".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Linea Operativa".||El sistema muestra la lista de cuentas de Línea Operativa.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Número de crédito".||El sistema muestra la columna "Número de crédito" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo total del crédito".||El sistema muestra la columna "Saldo total del crédito" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Capital disponible".||El sistema muestra la columna "Capital disponible" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Importe autorizado".||El sistema muestra la columna "Importe autorizado" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la opción "Ver consolidado".||El sistema muestra la opción "Ver consolidado" de forma correcta como hipervínculo.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el botón de Descarga.||El sistema muestra el botón de "Descarga" de forma correcta.
+Nota: Puede presentarse con el icono de impresora o flecha hacia abajo en lugar del botón de Descarga.</t>
+  </si>
+  <si>
+    <t>TC_002_79_administradorConsultaCuentasPrestamosPersonalesBD</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Prestamos Personales".||El sistema muestra la lista de créditos de Préstamos Personales .</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Pago vigente".||El sistema muestra la columna "Pago vigente" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Pago vencido".||El sistema muestra la columna "Pago vencido" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>TC_002_80_administradorConsultaCuentasFondosInversionBD</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Fondos".||El sistema muestra la lista de contratos de Fondos de Inversión.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Número de contrato".||El sistema muestra la columna "Número de contrato" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo total".||El sistema muestra la columna "Saldo total" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>TC_002_81_administradorConsultaCreditosHipotecariosBD</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Hipotecarios".||El sistema muestra la lista de Créditos Hipotecarios.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "N° Crédito".||El sistema muestra la columna "N° Crédito" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Valor Crédito Original".||El sistema muestra la columna "Valor Crédito Original" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo vigente".||El sistema muestra la columna "Saldo vigente" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo vencido".||El sistema muestra la columna "Saldo vencido" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>TC_002_82_administradorConsulta CuentasInversionBD</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Inversiones".||El sistema muestra la lista de Cuentas de Inversión .</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Importe de Capital".||El sistema muestra la columna "Importe de Capital" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>TC_002_83_administradorConsultaCuentasTDCMXNBD</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Tarjetas de Crédito".||El sistema muestra la lista de Tarjetas de Crédito .</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Número de tarjeta".||El sistema muestra la columna "Número de tarjeta" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo disponible".||El sistema muestra la columna "Saldo disponible" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo utilizado".||El sistema muestra la columna "Saldo utilizado" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Límite de crédito".||El sistema muestra la columna "Límite de crédito de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>TC_002_84_administradorConsultaCuentasChequesUSDBD</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la pestaña "Cuentas Cheque USD".||El sistema muestra la lista de cuentas de cheques USD.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "No de cuenta".||El sistema muestra la columna "No de cuenta" de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo total".||El sistema muestra la columna "Saldo total" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo disponible".||El sistema muestra la columna "Saldo disponible" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo salvo buen cobro".||El sistema muestra la columna "Saldo salvo buen cobro" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo límite de sobregiro".||El sistema muestra la columna "Saldo límite de sobregiro" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>TC_002_85_administradorConsultaCuentasChequeMXNBD</t>
+  </si>
+  <si>
+    <t>El usuario valida las cuentas de cheques de la pestaña "Cuentas Cheque MXN".||El sistema muestra la lista de cuentas de cheques MXN.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo disponible".||El sistema muestra la columna "Saldo disponible" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario valida que se muestre la columna "Saldo salvo buen cobro".||El sistema muestra la columna "Saldo salvo buen cobro" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para </t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Saldo límite de sobregiro".||El sistema muestra la columna "Saldo límite de sobregiro" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto</t>
+  </si>
+  <si>
+    <t>TC_002_94_administradorConsultaCuentasLineaOperativaFM</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la sección LÍNEA OPERATIVA CONSOLIDADOS.||El sistema muestra de forma correcta la sección LÍNEA OPERATIVA CONSOLIDADOS.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el link "Ver créditos&gt;" en la sección LÍNEA OPERATIVA CONSOLIDADOS.||El sistema muestra de forma correcta el link "Ver créditos&gt;".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo total del crédito".||El sistema muestra el campo "Saldo total del crédito" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Capital disponible".||El sistema muestra el campo "Capital disponible" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Importe autorizado".||El sistema muestra el campo "Importe autorizado" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>TC_002_95_administradorConsultaCuentasPrestamosPersonalesFM</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la sección PRÉSTAMOS PERSONALES CONSOLIDADOS.||El sistema muestra de forma correcta la sección PRÉSTAMOS PERSONALES CONSOLIDADOS.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el link "Ver préstamos&gt;" en la sección PRÉSTAMOS PERSONALES CONSOLIDADOS.||El sistema muestra de forma correcta el link "Ver préstamos&gt;".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo total".||El sistema muestra el campo "Saldo total" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Pagos vigentes".||El sistema muestra el campo "Pagos vigentes" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Pagos vencidos".||El sistema muestra el campo "Pagos vencidos" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>TC_002_96_administradorConsultaCuentasFondosInversonFM</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la sección FONDOS DE INVERSIÓN CONSOLIDADOS.||El sistema muestra de forma correcta la sección FONDOS DE INVERSIÓN CONSOLIDADOS.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el link "Ver fondos&gt;" en la sección FONDOS DE INVERSIÓN CONSOLIDADOS.||El sistema muestra de forma correcta el link "Ver fondos&gt;".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo total".|El sistema muestra el campo "Saldo total" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>TC_002_97_administradorConsultaCreditoHipotecarioFM</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la sección CRÉDITOS HIPOTECARIOS CONSOLIDADOS.||El sistema muestra de forma correcta la sección CRÉDITOS HIPOTECARIOS CONSOLIDADOS.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el link "Ver créditos&gt;" en la sección CRÉDITOS HIPOTECARIOS CONSOLIDADOS.||El sistema muestra de forma correcta el link "Ver créditos&gt;".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Valor Crédito Original".||El sistema muestra el campo "Valor Crédito Original" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo vigente".||El sistema muestra el campo "Saldo vigente" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo vencido".||El sistema muestra el campo "Saldo vencido" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>TC_002_98_administradorConsultaCuentasInversionFM</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la sección CONTRATOS DE INVERSIÓN CONSOLIDADOS.||El sistema muestra de forma correcta la sección CONTRATOS DE INVERSIÓN CONSOLIDADOS.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el link "Ver contratos&gt;" en la sección CONTRATOS DE INVERSIÓN CONSOLIDADOS.||El sistema muestra de forma correcta el link "Ver contratos&gt;".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la columna "Importe de Capital".||El sistema muestra la columna "Importe de Capital" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>TC_002_99_administradorConsultaCuentasTDCMXNFM</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la sección TARJETAS DE CRÉDITO CONSOLIDADAS.||El sistema muestra de forma correcta la sección TARJETAS DE CRÉDITO CONSOLIDADAS.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el link "Ver tarjetas&gt;" en la sección TARJETAS DE CRÉDITO CONSOLIDADAS.||El sistema muestra de forma correcta el link "Ver tarjetas&gt;".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo disponible".||El sistema muestra el campo "Saldo disponible" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo utilizado".||El sistema muestra el campo "Saldo utilizado" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Límite de crédito".||El sistema muestra el campo "Límite de crédito" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>TC_002_100_administradorConsultaCuentasChequesUSDFM</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la sección CUENTAS CHEQUE USD CONSOLIDADAS.||El sistema muestra de forma correcta la sección CUENTAS CHEQUE USD CONSOLIDADAS.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el link "Ver cuentas&gt;" en la sección CUENTAS CHEQUE USD CONSOLIDADAS.||El sistema muestra de forma correcta el link "Ver cuentas&gt;".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo salvo buen cobro".||El sistema muestra el campo "Saldo salvo buen cobro" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo límite de sobregiro".||El sistema muestra el campo "Saldo límite de sobregiro" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decim</t>
+  </si>
+  <si>
+    <t>TC_002_101_administradorConsultaCuentasChequesMXNFM</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre la sección CUENTAS CHEQUE MXN CONSOLIDADAS.||El sistema muestra de forma correcta la sección CUENTAS CHEQUE MXN CONSOLIDADAS.</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el link "Ver cuentas&gt;".||El sistema muestra de forma correcta el link "Ver cuentas&gt;".</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo disponible".||El sistema muestra el campo "Saldo disponible" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo salvo buen cobro".||El sistema muestra el campo "Saldo salvo buen cobro" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para deci</t>
+  </si>
+  <si>
+    <t>El usuario valida que se muestre el campo "Saldo límite de sobregiro".||El sistema muestra el campo "Saldo límite de sobregiro" de forma correcta con formato de moneda:
+-Signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>TC_002_102_administradorConsulta</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el botón " V " ubicado en el lado superior derecho posterior al nombre de usuario.||El sistema muestra la opción "Cerrar sesión".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Cerrar sesión".||El sistema muestra la página de inicio de CCOP.</t>
+  </si>
+  <si>
+    <t>TC_002_103_administradorConsulta</t>
+  </si>
+  <si>
+    <t>El usuario valida el total de cuentas mostradas entre paréntesis en la sección "PRÉSTAMOS PERSONALES CONSOLIDADOS".||El sistema muestra el total de créditos de Préstamos Personales de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Prestamos personales".||El sistema muestra la lista de créditos de Préstamos Personales y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "PRÉSTAMOS PERSONALES CONSOLIDADOS".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Ver consolidado".||El sistema muestra la sección "PRÉSTAMOS PERSONALES CONSOLIDADOS" con el número total de créditos indicado entre paréntesis y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "PRÉSTAMOS PERSONALES CONSOLIDADOS".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo total".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "PRÉSTAMOS PERSONALES CONSOLIDADOS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Saldo total".||El sistema muestra el campo "Saldo total" de forma correcta con el siguiente formato:
+Formato de moneda con signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo total".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Saldo total".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Pagos vigentes".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "PRÉSTAMOS PERSONALES CONSOLIDADOS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Pagos vigentes".||El sistema muestra el campo "Pagos vigentes" de forma correcta con el siguiente formato:
+Formato de moneda con signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Pagos vigentes.||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Pagos vigentes".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Pagos vencidos".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "PRÉSTAMOS PERSONALES CONSOLIDADOS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Pagos vencidos".||El sistema muestra el campo "Pagos vencidos" de forma correcta con el siguiente formato:
+Formato de moneda con signo $
+Separación de miles y millones con separador de coma (,)
+Signo de punto para decimales (.)
+2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Pagos vencidos".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Pagos vencidos".</t>
+  </si>
+  <si>
+    <t>SC_002_71_administradorConsultaCuentasPrestamosPersonalesConsolidado</t>
+  </si>
+  <si>
+    <t>SC_002_72_administradorConsultaCuentasFondosInversionConsolidado</t>
+  </si>
+  <si>
+    <t>El usuario valida el total de cuentas mostradas entre paréntesis en la sección "FONDOS DE INVERSIÓN CONSOLIDADOS".||El sistema muestra el total de contratos de Fondos de Inversión de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Fondos".||El sistema muestra la lista de contratos de Fondos de Inversión y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "FONDOS DE INVERSIÓN CONSOLIDADOS".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Ver consolidado".||El sistema muestra la sección "FONDOS DE INVERSIÓN CONSOLIDADOS" con el número total de contratos indicado entre paréntesis y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "FONDOS DE INVERSIÓN CONSOLIDADOS".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo total".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "FONDOS DE INVERSIÓN CONSOLIDADOS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Saldo total".||El sistema muestra el campo "Saldo total" de forma correcta con el siguiente formato:
+-Formato de moneda con signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>SC_002_73_administradorConsultaCreditosHipotecariosConsolidado</t>
+  </si>
+  <si>
+    <t>El usuario valida el total de cuentas mostradas entre paréntesis en la sección "CRÉDITOS HIPOTECARIOS CONSOLIDADOS".||El sistema muestra el total de Créditos Hipotecarios de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Hipotecarios".||El sistema muestra la lista de Créditos Hipotecarios y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "CRÉDITOS HIPOTECARIOS CONSOLIDADOS".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Ver consolidado".||El sistema muestra la sección "CRÉDITOS HIPOTECARIOS CONSOLIDADOS" con el número total de créditos indicados entre paréntesis y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "CRÉDITOS HIPOTECARIOS CONSOLIDADOS".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Valor Crédito Original".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "CRÉDITOS HIPOTECARIOS CONSOLIDADOS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Valor Crédito Original".||El sistema muestra el campo "Valor Crédito Original" de forma correcta con el siguiente formato:
+-Formato de moneda con signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Valor Crédito Original".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Valor Crédito Original".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo vigente".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "CRÉDITOS HIPOTECARIOS CONSOLIDADOS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Saldo vigente".||El sistema muestra el campo "Saldo vigente" de forma correcta con el siguiente formato:
+-Formato de moneda con signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo vigente".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Saldo vigente".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo vencido".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "CRÉDITOS HIPOTECARIOS CONSOLIDADOS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Saldo vencido".||El sistema muestra el campo "Saldo vencido" de forma correcta con el siguiente formato:
+-Formato de moneda con signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo vencido".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Saldo vencido".</t>
+  </si>
+  <si>
+    <t>SC_002_74_administradorConsultaCuentasInversionesConsolidado</t>
+  </si>
+  <si>
+    <t>El usuario valida el total de cuentas mostradas entre paréntesis en la sección "CONTRATOS DE INVERSIÓN CONSOLIDADOS".||El sistema muestra el total de créditos de inversiones de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Inversiones".||El sistema muestra la lista de créditos de inversiones y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "CONTRATOS DE INVERSIÓN CONSOLIDADOS".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Ver consolidado".||El sistema muestra la sección "CONTRATOS DE INVERSIÓN CONSOLIDADOS" con el número total de contratos indicado entre paréntesis y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "CONTRATOS DE INVERSIÓN CONSOLIDADOS".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Importe de Capital".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "CONTRATOS DE INVERSIÓN CONSOLIDADOS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Importe de Capital".||El sistema muestra el campo "Importe de Capital" de forma correcta con el siguiente formato:
+-Formato de moneda con signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Importe de Capital".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Importe de Capital".</t>
+  </si>
+  <si>
+    <t>SC_002_75_administradorConsultaCuentasTDCMXNConsolidado</t>
+  </si>
+  <si>
+    <t>El usuario valida el total de cuentas mostradas entre paréntesis en la sección "TARJETAS DE CRÉDITO CONSOLIDADAS".||El sistema muestra el total de cuentas de tarjetas de crédito de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en el menú "Tarjetas de Crédito".||El sistema muestra la lista de cuentas de tarjetas de crédito y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "TARJETAS DE CRÉDITO CONSOLIDADAS".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Ver consolidado".||El sistema muestra la sección "TARJETAS DE CRÉDITO CONSOLIDADAS" con el número total de cuentas indicadas entre paréntesis y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "TARJETAS DE CRÉDITO CONSOLIDADAS".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo disponible".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "TARJETAS DE CRÉDITO CONSOLIDADAS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Saldo disponible".||El sistema muestra el campo "Saldo disponible" de forma correcta con el siguiente formato:
+-Formato de moneda con signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo disponible".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Saldo disponible".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo utilizado".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "TARJETAS DE CRÉDITO CONSOLIDADAS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Saldo utilizado".||El sistema muestra el campo "Saldo utilizado" de forma correcta con el siguiente formato:
+-Formato de moneda con signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo utilizado".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Saldo utilizado".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Límite de crédito".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "TARJETAS DE CRÉDITO CONSOLIDADAS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Límite de crédito".||El sistema muestra el campo "Límite de crédito" de forma correcta con el siguiente formato:
+-Formato de moneda con signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Límite de crédito".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Límite de crédito".</t>
+  </si>
+  <si>
+    <t>SC_002_76_administradorConsultacuentasChequesUSDConsolidado</t>
+  </si>
+  <si>
+    <t>El usuario valida el total de cuentas mostradas entre paréntesis en la sección "CUENTAS CHEQUE USD CONSOLIDADAS".||El sistema muestra el total de Cuentas Cheque USD de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la pestaña "Cuentas Cheque USD".||El sistema muestra la lista de cuentas de cheques USD y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "CUENTAS CHEQUE USD CONSOLIDADAS".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Ver consolidado".||El sistema muestra la sección "CUENTAS CHEQUE CONSOLIDADAS" con el número total de cuentas indicadas entre paréntesis y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "CUENTAS CHEQUE USD CONSOLIDADAS".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo total".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "CUENTAS CHEQUE USD CONSOLIDADAS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo disponible".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "CUENTAS CHEQUE USD CONSOLIDADAS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo salvo buen cobro".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "CUENTAS CHEQUE USD CONSOLIDADAS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Saldo salvo buen cobro".||El sistema muestra el campo "Saldo salvo buen cobro" de forma correcta con el siguiente formato:
+-Formato de moneda con signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo salvo buen cobro".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Saldo salvo buen cobro".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Cupo total de Sobregiros" con el del Dashboard
+"Saldo límite de sobregiro".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "CUENTAS CHEQUE USD CONSOLIDADAS" en el campo "Saldo límite de sobregiro".</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Cupo total de Sobregiros" con el del Dashboard "Saldo límite de sobregiro".||El sistema muestra el campo "Cupo total de Sobregiros" de forma correcta con el siguiente formato:
+-Formato de moneda con signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Cupo total de Sobregiros".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Cupo total de Sobregiros".</t>
+  </si>
+  <si>
+    <t>SC_002_77_administradorConsultaCuentasChequesMXNConsolidado</t>
+  </si>
+  <si>
+    <t>El usuario valida el total de cuentas mostradas entre paréntesis en la sección "CUENTAS CHEQUE MXN CONSOLIDADAS".||El sistema muestra el total de Cuentas Cheque MXN de forma correcta.</t>
+  </si>
+  <si>
+    <t>El usuario valida las cuentas de cheques de la pestaña "Cuentas Cheque MXN".||El sistema muestra la lista de cuentas de cheques MXN y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "CUENTAS CHEQUE MXN CONSOLIDADAS".</t>
+  </si>
+  <si>
+    <t>El usuario da clic en la opción "Ver consolidado".||El sistema muestra la sección "CUENTAS CHEQUE CONSOLIDADAS" con el número total de cuentas indicadas entre paréntesis y debe coincidir con el total de cuentas mostradas en el Dashboard en la sección "CUENTAS CHEQUE MXN CONSOLIDADAS".</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo total".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "CUENTAS CHEQUE MXN CONSOLIDADAS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo disponible".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "CUENTAS CHEQUE MXN CONSOLIDADAS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Saldo disponible".El sistema muestra el campo "Saldo disponible" de forma correcta con el siguiente formato:
+-Formato de moneda con signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo salvo buen cobro".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "CUENTAS CHEQUE MXN CONSOLIDADAS"</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo bloqueado".||El sistema debe mostrar el mismo monto que el mostrado en el Dashboard en la sección "CUENTAS CHEQUE MXN CONSOLIDADAS" en el campo "Saldo límite de sobregiro".</t>
+  </si>
+  <si>
+    <t>El usuario valida el formato mostrado en el campo "Saldo bloqueado".||El sistema muestra el campo "Saldo límite de sobregiro" de forma correcta con el siguiente formato:
+-Formato de moneda con signo $
+-Separación de miles y millones con separador de coma (,)
+-Signo de punto para decimales (.)
+-2 decimales</t>
+  </si>
+  <si>
+    <t>El usuario valida el monto mostrado en el campo "Saldo bloqueado".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Saldo bloqueado".</t>
   </si>
 </sst>
 </file>
@@ -3271,7 +3998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3425,6 +4152,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3803,8 +4542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T94" sqref="T94"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9858,28 +10597,68 @@
       <c r="AO71" s="3"/>
       <c r="AP71" s="3"/>
     </row>
-    <row r="72" spans="1:42" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+    <row r="72" spans="1:42" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>681</v>
+      </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
+      <c r="C72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="M72" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="N72" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="O72" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="P72" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q72" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="R72" s="16" t="s">
+        <v>677</v>
+      </c>
+      <c r="S72" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="T72" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="U72" s="16" t="s">
+        <v>680</v>
+      </c>
       <c r="V72" s="16"/>
       <c r="W72" s="16"/>
       <c r="X72" s="16"/>
@@ -9902,22 +10681,50 @@
       <c r="AO72" s="3"/>
       <c r="AP72" s="3"/>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+    <row r="73" spans="1:42" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>682</v>
+      </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
+      <c r="C73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="M73" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="N73" s="43" t="s">
+        <v>687</v>
+      </c>
+      <c r="O73" s="16" t="s">
+        <v>674</v>
+      </c>
       <c r="P73" s="16"/>
       <c r="Q73" s="16"/>
       <c r="R73" s="16"/>
@@ -9946,20 +10753,68 @@
       <c r="AO73" s="3"/>
       <c r="AP73" s="3"/>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+    <row r="74" spans="1:42" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>688</v>
+      </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="N74" s="5"/>
+      <c r="C74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="M74" s="53" t="s">
+        <v>692</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="O74" s="53" t="s">
+        <v>694</v>
+      </c>
+      <c r="P74" s="54" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q74" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="R74" s="54" t="s">
+        <v>697</v>
+      </c>
+      <c r="S74" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="T74" s="53" t="s">
+        <v>699</v>
+      </c>
+      <c r="U74" s="54" t="s">
+        <v>700</v>
+      </c>
       <c r="AC74" s="5"/>
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
@@ -9975,20 +10830,50 @@
       <c r="AO74" s="3"/>
       <c r="AP74" s="3"/>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+    <row r="75" spans="1:42" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>701</v>
+      </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="N75" s="5"/>
+      <c r="C75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M75" s="53" t="s">
+        <v>705</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="O75" s="53" t="s">
+        <v>707</v>
+      </c>
       <c r="AC75" s="5"/>
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
@@ -10004,20 +10889,68 @@
       <c r="AO75" s="3"/>
       <c r="AP75" s="3"/>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+    <row r="76" spans="1:42" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>708</v>
+      </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="N76" s="5"/>
+      <c r="C76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="M76" s="53" t="s">
+        <v>712</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="O76" s="53" t="s">
+        <v>714</v>
+      </c>
+      <c r="P76" s="55" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q76" s="56" t="s">
+        <v>716</v>
+      </c>
+      <c r="R76" s="55" t="s">
+        <v>717</v>
+      </c>
+      <c r="S76" s="56" t="s">
+        <v>718</v>
+      </c>
+      <c r="T76" s="56" t="s">
+        <v>719</v>
+      </c>
+      <c r="U76" s="56" t="s">
+        <v>720</v>
+      </c>
       <c r="AC76" s="5"/>
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
@@ -10033,20 +10966,77 @@
       <c r="AO76" s="3"/>
       <c r="AP76" s="3"/>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+    <row r="77" spans="1:42" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>721</v>
+      </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="N77" s="5"/>
+      <c r="C77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="M77" s="53" t="s">
+        <v>725</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="O77" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="P77" s="55" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q77" s="56" t="s">
+        <v>713</v>
+      </c>
+      <c r="R77" s="55" t="s">
+        <v>714</v>
+      </c>
+      <c r="S77" s="56" t="s">
+        <v>727</v>
+      </c>
+      <c r="T77" s="56" t="s">
+        <v>728</v>
+      </c>
+      <c r="U77" s="56" t="s">
+        <v>729</v>
+      </c>
+      <c r="V77" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="X77" s="56" t="s">
+        <v>732</v>
+      </c>
       <c r="AC77" s="5"/>
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
@@ -10062,20 +11052,77 @@
       <c r="AO77" s="3"/>
       <c r="AP77" s="3"/>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
+    <row r="78" spans="1:42" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>733</v>
+      </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="N78" s="5"/>
+      <c r="C78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="M78" s="53" t="s">
+        <v>737</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="O78" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="P78" s="55" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q78" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="R78" s="55" t="s">
+        <v>714</v>
+      </c>
+      <c r="S78" s="56" t="s">
+        <v>740</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="U78" s="56" t="s">
+        <v>729</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="W78" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="X78" s="2" t="s">
+        <v>743</v>
+      </c>
       <c r="AC78" s="5"/>
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
@@ -10091,19 +11138,53 @@
       <c r="AO78" s="3"/>
       <c r="AP78" s="3"/>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+    <row r="79" spans="1:42" ht="150" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>574</v>
+      </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="AC79" s="5"/>
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
@@ -10119,19 +11200,53 @@
       <c r="AO79" s="3"/>
       <c r="AP79" s="3"/>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+    <row r="80" spans="1:42" ht="150" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>587</v>
+      </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>586</v>
+      </c>
       <c r="AC80" s="5"/>
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
@@ -10147,19 +11262,47 @@
       <c r="AO80" s="3"/>
       <c r="AP80" s="3"/>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+    <row r="81" spans="1:42" ht="135" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>591</v>
+      </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
       <c r="AF81" s="4"/>
@@ -10174,83 +11317,253 @@
       <c r="AO81" s="3"/>
       <c r="AP81" s="3"/>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+    <row r="82" spans="1:42" ht="150" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>595</v>
+      </c>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>586</v>
+      </c>
       <c r="AO82" s="3"/>
       <c r="AP82" s="3"/>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+    <row r="83" spans="1:42" ht="150" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>601</v>
+      </c>
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>586</v>
+      </c>
       <c r="AO83" s="3"/>
       <c r="AP83" s="3"/>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
+    <row r="84" spans="1:42" ht="150" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>604</v>
+      </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>586</v>
+      </c>
       <c r="AO84" s="3"/>
       <c r="AP84" s="3"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
+    <row r="85" spans="1:42" ht="150" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>610</v>
+      </c>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="AO85" s="3"/>
       <c r="AP85" s="3"/>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
+    <row r="86" spans="1:42" ht="135" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>617</v>
+      </c>
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>586</v>
+      </c>
       <c r="AO86" s="3"/>
       <c r="AP86" s="3"/>
     </row>
@@ -10750,156 +12063,358 @@
       <c r="AO94" s="3"/>
       <c r="AP94" s="3"/>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
+    <row r="95" spans="1:42" ht="150" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>622</v>
+      </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>627</v>
+      </c>
       <c r="AO95" s="3"/>
       <c r="AP95" s="3"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+    <row r="96" spans="1:42" ht="135" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>628</v>
+      </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>633</v>
+      </c>
       <c r="AO96" s="3"/>
       <c r="AP96" s="3"/>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
+    <row r="97" spans="1:42" ht="135" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>634</v>
+      </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>637</v>
+      </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="AO97" s="3"/>
       <c r="AP97" s="3"/>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+    <row r="98" spans="1:42" ht="150" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>638</v>
+      </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>643</v>
+      </c>
       <c r="AO98" s="3"/>
       <c r="AP98" s="3"/>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
+    <row r="99" spans="1:42" ht="150" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>644</v>
+      </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>647</v>
+      </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="AO99" s="3"/>
       <c r="AP99" s="3"/>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+    <row r="100" spans="1:42" ht="135" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>648</v>
+      </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>653</v>
+      </c>
       <c r="AO100" s="3"/>
       <c r="AP100" s="3"/>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
+    <row r="101" spans="1:42" ht="135" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>654</v>
+      </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
+      <c r="C101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>658</v>
+      </c>
       <c r="AO101" s="3"/>
       <c r="AP101" s="3"/>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
+    <row r="102" spans="1:42" ht="135" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>659</v>
+      </c>
       <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>664</v>
+      </c>
       <c r="AO102" s="3"/>
       <c r="AP102" s="3"/>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
+    <row r="103" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>665</v>
+      </c>
       <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>667</v>
+      </c>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
+    <row r="104" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>668</v>
+      </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>578</v>
+      </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>

--- a/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
+++ b/src/test/resources/Descriptions/DC_AUT_002_CashManagmentTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ED278F-C8E3-4663-93CD-22B9A9F42264}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB74858-5732-4D41-8815-90217C3825A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="755">
   <si>
     <t>Escenario</t>
   </si>
@@ -2407,9 +2407,6 @@
     <t>El usuario valida el campo "Tasa".||El sistema muestra la tasa de forma correcta.</t>
   </si>
   <si>
-    <t>TC_002_62_administradorConsultaCuentasLineaOperativaPDF</t>
-  </si>
-  <si>
     <t>El usuario valida el campo "Descripción del préstamo".||El sistema muestra la descripción del préstamo de forma correcta.</t>
   </si>
   <si>
@@ -2742,9 +2739,6 @@
 Columna "Saldo final importe de capital"</t>
   </si>
   <si>
-    <t>TC_002_63_administradorConsultaCuentasPrestamosPersonalesPDF</t>
-  </si>
-  <si>
     <t>TC_002_64_administradorConsultaCuentasFondosInversionPDF</t>
   </si>
   <si>
@@ -2956,33 +2950,12 @@
     <t>El usuario valida el monto mostrado en el campo "Importe autorizado".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Importe autorizado".</t>
   </si>
   <si>
-    <t>TC_002_86_administradorConsultaCuentasLineaOperativaCSV</t>
-  </si>
-  <si>
     <t>El usuario da clic en la opción "Descarga".||El sistema muestra la página "Opciones de descarga" con las opciones "Manual" y "Plantilla".</t>
   </si>
   <si>
-    <t>TC_002_87_administradorConsultaCuentasPrestamosPersonalesTXT</t>
-  </si>
-  <si>
     <t>El usuario habilita la opción "Archivo con encabezado"||El sistema permite habilitar el radio botton de forma correcta.</t>
   </si>
   <si>
-    <t>TC_002_88_administradorConsultaCuentasFondosInversionCSV</t>
-  </si>
-  <si>
-    <t>TC_002_89_administradorConsultaCreditosHipotecarioTXT</t>
-  </si>
-  <si>
-    <t>TC_002_90_administradorConsultaCuentasInversionCSV</t>
-  </si>
-  <si>
-    <t>TC_002_91_administradorConsultaCuentasTDCMXNTXT</t>
-  </si>
-  <si>
-    <t>TC_002_92_administradorConsultaCuentasChequeUSDCSV</t>
-  </si>
-  <si>
     <t>El usuario da clic en la pestaña "Cuentas Cheque USD"||El sistema muestra la lista de Cuentas Cheque USD.</t>
   </si>
   <si>
@@ -2996,9 +2969,6 @@
   </si>
   <si>
     <t>El usuario da clic en el botón "Descargar".||El sistema permite descargar el reporte de Cuentas Cheque USD de forma correcta en formato CSV .</t>
-  </si>
-  <si>
-    <t>TC_002_93_administradorConsultaCuentasChequeMXNTXT</t>
   </si>
   <si>
     <t>El usuario valida las cuentas de cheques de la pestaña "Cuentas Cheque MXN"||El sistema muestra la lista de Cuentas Cheque MXN.</t>
@@ -3301,13 +3271,6 @@
     <t>El usuario valida que se muestre el link "Ver fondos&gt;" en la sección FONDOS DE INVERSIÓN CONSOLIDADOS.||El sistema muestra de forma correcta el link "Ver fondos&gt;".</t>
   </si>
   <si>
-    <t>El usuario valida que se muestre el campo "Saldo total".|El sistema muestra el campo "Saldo total" de forma correcta con formato de moneda:
--Signo $
--Separación de miles y millones con separador de coma (,)
--Signo de punto para decimales (.)
--2 decim</t>
-  </si>
-  <si>
     <t>TC_002_97_administradorConsultaCreditoHipotecarioFM</t>
   </si>
   <si>
@@ -3732,6 +3695,72 @@
   </si>
   <si>
     <t>El usuario valida el monto mostrado en el campo "Saldo bloqueado".||El sistema debe mostrar el mismo monto que la suma de las cuentas de la columna "Saldo bloqueado".</t>
+  </si>
+  <si>
+    <t>SC_002_63_administradorConsultaCuentasCreditosPrestamosPersonalesPDF</t>
+  </si>
+  <si>
+    <t>SC_002_62_administradorConsultaCuentasLineaOperativaPDF</t>
+  </si>
+  <si>
+    <t>Paso43</t>
+  </si>
+  <si>
+    <t>Paso44</t>
+  </si>
+  <si>
+    <t>Paso45</t>
+  </si>
+  <si>
+    <t>Paso46</t>
+  </si>
+  <si>
+    <t>Paso47</t>
+  </si>
+  <si>
+    <t>Paso48</t>
+  </si>
+  <si>
+    <t>Paso49</t>
+  </si>
+  <si>
+    <t>Paso50</t>
+  </si>
+  <si>
+    <t>Paso51</t>
+  </si>
+  <si>
+    <t>Paso52</t>
+  </si>
+  <si>
+    <t>Paso53</t>
+  </si>
+  <si>
+    <t>Paso54</t>
+  </si>
+  <si>
+    <t>SC_002_86_administradorConsultaCuentasLineaOperativaCSV</t>
+  </si>
+  <si>
+    <t>SC_002_87_administradorConsultaCuentasPrestamosPersonalesTXT</t>
+  </si>
+  <si>
+    <t>SC_002_88_administradorConsultaCuentasFondosInversionCSV</t>
+  </si>
+  <si>
+    <t>SC_002_89_administradorConsultaCreditosHipotecariosTXT</t>
+  </si>
+  <si>
+    <t>SC_002_90_administradorConsultaCuentasInversionCSV</t>
+  </si>
+  <si>
+    <t>SC_002_91_administradorConsultaCuentasTDCMXNTXT</t>
+  </si>
+  <si>
+    <t>SC_002_92_administradorConsultaCuentasChequeUSDCSV</t>
+  </si>
+  <si>
+    <t>SC_002_93_administradorConsultaCuentasChequeMXNTXT</t>
   </si>
 </sst>
 </file>
@@ -4540,10 +4569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC159"/>
+  <dimension ref="A1:BD159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="D98" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4605,7 +4634,7 @@
     <col min="55" max="55" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4738,8 +4767,44 @@
       <c r="AR1" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" ht="225" x14ac:dyDescent="0.25">
+      <c r="AS1" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -4802,7 +4867,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="255" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -4862,7 +4927,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="390" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" ht="390" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -4955,7 +5020,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="360" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" ht="360" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -5033,7 +5098,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -5135,7 +5200,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -5213,7 +5278,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="195" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -5276,7 +5341,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="195" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -5339,7 +5404,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="195" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -5402,7 +5467,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -5465,7 +5530,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -5525,7 +5590,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -5594,7 +5659,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -5660,7 +5725,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="405" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" ht="405" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -5726,7 +5791,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -9544,7 +9609,7 @@
     </row>
     <row r="63" spans="1:55" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
-        <v>444</v>
+        <v>734</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="6" t="s">
@@ -9670,7 +9735,7 @@
     </row>
     <row r="64" spans="1:55" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>508</v>
+        <v>733</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="6" t="s">
@@ -9728,64 +9793,64 @@
         <v>443</v>
       </c>
       <c r="U64" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="V64" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="V64" s="16" t="s">
+      <c r="W64" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="W64" s="16" t="s">
+      <c r="X64" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="X64" s="16" t="s">
+      <c r="Y64" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="Y64" s="16" t="s">
+      <c r="Z64" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="Z64" s="16" t="s">
+      <c r="AA64" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="AA64" s="16" t="s">
+      <c r="AB64" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="AB64" s="16" t="s">
+      <c r="AC64" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="AC64" s="3" t="s">
+      <c r="AD64" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="AD64" s="3" t="s">
+      <c r="AE64" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="AE64" s="3" t="s">
+      <c r="AF64" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="AF64" s="3" t="s">
+      <c r="AG64" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="AG64" s="3" t="s">
+      <c r="AH64" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="AH64" s="3" t="s">
+      <c r="AI64" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="AI64" s="3" t="s">
+      <c r="AJ64" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="AJ64" s="3" t="s">
+      <c r="AK64" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="AK64" s="3" t="s">
+      <c r="AL64" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="AL64" s="3" t="s">
+      <c r="AM64" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="AM64" s="3" t="s">
+      <c r="AN64" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="AN64" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="AO64" s="3" t="s">
         <v>423</v>
@@ -9812,10 +9877,10 @@
         <v>429</v>
       </c>
       <c r="AW64" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="AX64" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="AX64" s="3" t="s">
-        <v>466</v>
       </c>
       <c r="AY64" s="3" t="s">
         <v>325</v>
@@ -9824,7 +9889,7 @@
         <v>432</v>
       </c>
       <c r="BA64" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB64" s="3" t="s">
         <v>434</v>
@@ -9835,7 +9900,7 @@
     </row>
     <row r="65" spans="1:42" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="6" t="s">
@@ -9872,22 +9937,22 @@
         <v>436</v>
       </c>
       <c r="N65" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="O65" s="43" t="s">
         <v>468</v>
       </c>
-      <c r="O65" s="43" t="s">
+      <c r="P65" s="43" t="s">
         <v>469</v>
       </c>
-      <c r="P65" s="43" t="s">
+      <c r="Q65" s="43" t="s">
         <v>470</v>
       </c>
-      <c r="Q65" s="43" t="s">
+      <c r="R65" s="43" t="s">
         <v>471</v>
       </c>
-      <c r="R65" s="43" t="s">
+      <c r="S65" s="43" t="s">
         <v>472</v>
-      </c>
-      <c r="S65" s="43" t="s">
-        <v>473</v>
       </c>
       <c r="T65" s="43" t="s">
         <v>423</v>
@@ -9905,22 +9970,22 @@
         <v>426</v>
       </c>
       <c r="Y65" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z65" s="43" t="s">
         <v>474</v>
       </c>
-      <c r="Z65" s="43" t="s">
+      <c r="AA65" s="43" t="s">
         <v>475</v>
       </c>
-      <c r="AA65" s="43" t="s">
+      <c r="AB65" s="43" t="s">
         <v>476</v>
       </c>
-      <c r="AB65" s="43" t="s">
+      <c r="AC65" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="AC65" s="2" t="s">
+      <c r="AD65" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="AD65" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="AE65" s="3" t="s">
         <v>325</v>
@@ -9929,7 +9994,7 @@
         <v>432</v>
       </c>
       <c r="AG65" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AH65" s="2" t="s">
         <v>434</v>
@@ -9947,7 +10012,7 @@
     </row>
     <row r="66" spans="1:42" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="51" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="6" t="s">
@@ -9981,34 +10046,34 @@
         <v>442</v>
       </c>
       <c r="M66" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="N66" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="N66" s="43" t="s">
+      <c r="O66" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="O66" s="43" t="s">
+      <c r="P66" s="43" t="s">
         <v>484</v>
       </c>
-      <c r="P66" s="43" t="s">
+      <c r="Q66" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="Q66" s="43" t="s">
+      <c r="R66" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="R66" s="43" t="s">
+      <c r="S66" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="S66" s="16" t="s">
+      <c r="T66" s="43" t="s">
         <v>488</v>
       </c>
-      <c r="T66" s="43" t="s">
+      <c r="U66" s="43" t="s">
         <v>489</v>
       </c>
-      <c r="U66" s="43" t="s">
-        <v>490</v>
-      </c>
       <c r="V66" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W66" s="16" t="s">
         <v>423</v>
@@ -10029,16 +10094,16 @@
         <v>427</v>
       </c>
       <c r="AC66" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AD66" s="2" t="s">
         <v>428</v>
       </c>
       <c r="AE66" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF66" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG66" s="2" t="s">
         <v>325</v>
@@ -10047,7 +10112,7 @@
         <v>432</v>
       </c>
       <c r="AI66" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AJ66" s="2" t="s">
         <v>434</v>
@@ -10063,7 +10128,7 @@
     </row>
     <row r="67" spans="1:42" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="51" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="6" t="s">
@@ -10094,13 +10159,13 @@
         <v>357</v>
       </c>
       <c r="L67" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="M67" s="43" t="s">
         <v>495</v>
       </c>
-      <c r="M67" s="43" t="s">
+      <c r="N67" s="43" t="s">
         <v>496</v>
-      </c>
-      <c r="N67" s="43" t="s">
-        <v>497</v>
       </c>
       <c r="O67" s="43" t="s">
         <v>407</v>
@@ -10109,31 +10174,31 @@
         <v>408</v>
       </c>
       <c r="Q67" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="R67" s="43" t="s">
         <v>498</v>
       </c>
-      <c r="R67" s="43" t="s">
+      <c r="S67" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="S67" s="16" t="s">
+      <c r="T67" s="43" t="s">
         <v>500</v>
       </c>
-      <c r="T67" s="43" t="s">
+      <c r="U67" s="43" t="s">
         <v>501</v>
       </c>
-      <c r="U67" s="43" t="s">
+      <c r="V67" s="43" t="s">
         <v>502</v>
       </c>
-      <c r="V67" s="43" t="s">
+      <c r="W67" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="W67" s="43" t="s">
+      <c r="X67" s="43" t="s">
         <v>504</v>
       </c>
-      <c r="X67" s="43" t="s">
+      <c r="Y67" s="16" t="s">
         <v>505</v>
-      </c>
-      <c r="Y67" s="16" t="s">
-        <v>506</v>
       </c>
       <c r="Z67" s="43" t="s">
         <v>325</v>
@@ -10142,7 +10207,7 @@
         <v>432</v>
       </c>
       <c r="AB67" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AC67" s="2" t="s">
         <v>434</v>
@@ -10165,7 +10230,7 @@
     </row>
     <row r="68" spans="1:42" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="6" t="s">
@@ -10193,49 +10258,49 @@
         <v>403</v>
       </c>
       <c r="K68" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="M68" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="N68" s="43" t="s">
         <v>512</v>
       </c>
-      <c r="M68" s="16" t="s">
+      <c r="O68" s="43" t="s">
         <v>513</v>
       </c>
-      <c r="N68" s="43" t="s">
+      <c r="P68" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="O68" s="43" t="s">
+      <c r="Q68" s="43" t="s">
         <v>515</v>
       </c>
-      <c r="P68" s="43" t="s">
+      <c r="R68" s="43" t="s">
         <v>516</v>
       </c>
-      <c r="Q68" s="43" t="s">
+      <c r="S68" s="43" t="s">
         <v>517</v>
       </c>
-      <c r="R68" s="43" t="s">
+      <c r="T68" s="43" t="s">
         <v>518</v>
       </c>
-      <c r="S68" s="43" t="s">
+      <c r="U68" s="43" t="s">
         <v>519</v>
       </c>
-      <c r="T68" s="43" t="s">
+      <c r="V68" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="U68" s="43" t="s">
+      <c r="W68" s="43" t="s">
         <v>521</v>
       </c>
-      <c r="V68" s="43" t="s">
+      <c r="X68" s="43" t="s">
         <v>522</v>
       </c>
-      <c r="W68" s="43" t="s">
+      <c r="Y68" s="16" t="s">
         <v>523</v>
-      </c>
-      <c r="X68" s="43" t="s">
-        <v>524</v>
-      </c>
-      <c r="Y68" s="16" t="s">
-        <v>525</v>
       </c>
       <c r="Z68" s="43" t="s">
         <v>325</v>
@@ -10247,25 +10312,25 @@
         <v>425</v>
       </c>
       <c r="AC68" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="AD68" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE68" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF68" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="AD68" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="AE68" s="2" t="s">
+      <c r="AG68" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="AF68" s="3" t="s">
+      <c r="AH68" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="AI68" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="AG68" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="AH68" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="AI68" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="AJ68" s="2" t="s">
         <v>325</v>
@@ -10274,7 +10339,7 @@
         <v>432</v>
       </c>
       <c r="AL68" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AM68" s="2" t="s">
         <v>434</v>
@@ -10287,7 +10352,7 @@
     </row>
     <row r="69" spans="1:42" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="51" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="6" t="s">
@@ -10318,31 +10383,31 @@
         <v>365</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M69" s="43" t="s">
         <v>436</v>
       </c>
       <c r="N69" s="43" t="s">
+        <v>531</v>
+      </c>
+      <c r="O69" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="P69" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="O69" s="43" t="s">
+      <c r="Q69" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="P69" s="43" t="s">
+      <c r="R69" s="43" t="s">
         <v>535</v>
       </c>
-      <c r="Q69" s="43" t="s">
+      <c r="S69" s="43" t="s">
         <v>536</v>
       </c>
-      <c r="R69" s="43" t="s">
+      <c r="T69" s="43" t="s">
         <v>537</v>
-      </c>
-      <c r="S69" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="T69" s="43" t="s">
-        <v>539</v>
       </c>
       <c r="U69" s="43" t="s">
         <v>423</v>
@@ -10363,19 +10428,19 @@
         <v>427</v>
       </c>
       <c r="AA69" s="43" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AB69" s="43" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AC69" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AD69" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AE69" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AF69" s="3" t="s">
         <v>325</v>
@@ -10384,7 +10449,7 @@
         <v>432</v>
       </c>
       <c r="AH69" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AI69" s="3" t="s">
         <v>434</v>
@@ -10401,7 +10466,7 @@
     </row>
     <row r="70" spans="1:42" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="51" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="6" t="s">
@@ -10432,31 +10497,31 @@
         <v>371</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M70" s="43" t="s">
         <v>436</v>
       </c>
       <c r="N70" s="43" t="s">
+        <v>531</v>
+      </c>
+      <c r="O70" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="P70" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="O70" s="43" t="s">
+      <c r="Q70" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="P70" s="43" t="s">
+      <c r="R70" s="43" t="s">
         <v>535</v>
       </c>
-      <c r="Q70" s="43" t="s">
+      <c r="S70" s="43" t="s">
         <v>536</v>
       </c>
-      <c r="R70" s="43" t="s">
+      <c r="T70" s="43" t="s">
         <v>537</v>
-      </c>
-      <c r="S70" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="T70" s="43" t="s">
-        <v>539</v>
       </c>
       <c r="U70" s="43" t="s">
         <v>423</v>
@@ -10471,25 +10536,25 @@
         <v>425</v>
       </c>
       <c r="Y70" s="43" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="Z70" s="43" t="s">
         <v>427</v>
       </c>
       <c r="AA70" s="43" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AB70" s="43" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AC70" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AD70" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AE70" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AF70" s="3" t="s">
         <v>325</v>
@@ -10498,7 +10563,7 @@
         <v>432</v>
       </c>
       <c r="AH70" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AI70" s="3" t="s">
         <v>434</v>
@@ -10515,7 +10580,7 @@
     </row>
     <row r="71" spans="1:42" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="51" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="6" t="s">
@@ -10534,46 +10599,46 @@
         <v>36</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>321</v>
       </c>
       <c r="J71" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="M71" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="K71" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="L71" s="2" t="s">
+      <c r="N71" s="43" t="s">
         <v>547</v>
       </c>
-      <c r="M71" s="16" t="s">
+      <c r="O71" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="N71" s="43" t="s">
+      <c r="P71" s="43" t="s">
         <v>549</v>
       </c>
-      <c r="O71" s="16" t="s">
+      <c r="Q71" s="43" t="s">
         <v>550</v>
       </c>
-      <c r="P71" s="43" t="s">
+      <c r="R71" s="43" t="s">
         <v>551</v>
       </c>
-      <c r="Q71" s="43" t="s">
+      <c r="S71" s="43" t="s">
         <v>552</v>
       </c>
-      <c r="R71" s="43" t="s">
+      <c r="T71" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="S71" s="43" t="s">
+      <c r="U71" s="43" t="s">
         <v>554</v>
-      </c>
-      <c r="T71" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="U71" s="43" t="s">
-        <v>556</v>
       </c>
       <c r="V71" s="16"/>
       <c r="W71" s="16"/>
@@ -10599,7 +10664,7 @@
     </row>
     <row r="72" spans="1:42" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
@@ -10618,46 +10683,46 @@
         <v>36</v>
       </c>
       <c r="H72" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="M72" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="N72" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="O72" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="P72" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q72" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="R72" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="S72" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="T72" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="U72" s="16" t="s">
         <v>669</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="M72" s="16" t="s">
-        <v>672</v>
-      </c>
-      <c r="N72" s="16" t="s">
-        <v>673</v>
-      </c>
-      <c r="O72" s="16" t="s">
-        <v>674</v>
-      </c>
-      <c r="P72" s="16" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q72" s="16" t="s">
-        <v>676</v>
-      </c>
-      <c r="R72" s="16" t="s">
-        <v>677</v>
-      </c>
-      <c r="S72" s="16" t="s">
-        <v>678</v>
-      </c>
-      <c r="T72" s="16" t="s">
-        <v>679</v>
-      </c>
-      <c r="U72" s="16" t="s">
-        <v>680</v>
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="16"/>
@@ -10683,7 +10748,7 @@
     </row>
     <row r="73" spans="1:42" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
@@ -10702,28 +10767,28 @@
         <v>36</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="M73" s="16" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="N73" s="43" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="P73" s="16"/>
       <c r="Q73" s="16"/>
@@ -10755,7 +10820,7 @@
     </row>
     <row r="74" spans="1:42" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
@@ -10774,46 +10839,46 @@
         <v>36</v>
       </c>
       <c r="H74" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="M74" s="53" t="s">
+        <v>681</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="O74" s="53" t="s">
+        <v>683</v>
+      </c>
+      <c r="P74" s="54" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q74" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="R74" s="54" t="s">
+        <v>686</v>
+      </c>
+      <c r="S74" s="54" t="s">
+        <v>687</v>
+      </c>
+      <c r="T74" s="53" t="s">
+        <v>688</v>
+      </c>
+      <c r="U74" s="54" t="s">
         <v>689</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="M74" s="53" t="s">
-        <v>692</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="O74" s="53" t="s">
-        <v>694</v>
-      </c>
-      <c r="P74" s="54" t="s">
-        <v>695</v>
-      </c>
-      <c r="Q74" s="54" t="s">
-        <v>696</v>
-      </c>
-      <c r="R74" s="54" t="s">
-        <v>697</v>
-      </c>
-      <c r="S74" s="54" t="s">
-        <v>698</v>
-      </c>
-      <c r="T74" s="53" t="s">
-        <v>699</v>
-      </c>
-      <c r="U74" s="54" t="s">
-        <v>700</v>
       </c>
       <c r="AC74" s="5"/>
       <c r="AD74" s="3"/>
@@ -10832,7 +10897,7 @@
     </row>
     <row r="75" spans="1:42" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
@@ -10851,28 +10916,28 @@
         <v>36</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="M75" s="53" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="O75" s="53" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="AC75" s="5"/>
       <c r="AD75" s="3"/>
@@ -10891,7 +10956,7 @@
     </row>
     <row r="76" spans="1:42" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
@@ -10910,46 +10975,46 @@
         <v>36</v>
       </c>
       <c r="H76" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="M76" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="O76" s="53" t="s">
+        <v>703</v>
+      </c>
+      <c r="P76" s="55" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q76" s="56" t="s">
+        <v>705</v>
+      </c>
+      <c r="R76" s="55" t="s">
+        <v>706</v>
+      </c>
+      <c r="S76" s="56" t="s">
+        <v>707</v>
+      </c>
+      <c r="T76" s="56" t="s">
+        <v>708</v>
+      </c>
+      <c r="U76" s="56" t="s">
         <v>709</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="M76" s="53" t="s">
-        <v>712</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="O76" s="53" t="s">
-        <v>714</v>
-      </c>
-      <c r="P76" s="55" t="s">
-        <v>715</v>
-      </c>
-      <c r="Q76" s="56" t="s">
-        <v>716</v>
-      </c>
-      <c r="R76" s="55" t="s">
-        <v>717</v>
-      </c>
-      <c r="S76" s="56" t="s">
-        <v>718</v>
-      </c>
-      <c r="T76" s="56" t="s">
-        <v>719</v>
-      </c>
-      <c r="U76" s="56" t="s">
-        <v>720</v>
       </c>
       <c r="AC76" s="5"/>
       <c r="AD76" s="3"/>
@@ -10968,7 +11033,7 @@
     </row>
     <row r="77" spans="1:42" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
@@ -10987,55 +11052,55 @@
         <v>36</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="M77" s="53" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="O77" s="53" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="P77" s="55" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="Q77" s="56" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="R77" s="55" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="S77" s="56" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="T77" s="56" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="U77" s="56" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="X77" s="56" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="AC77" s="5"/>
       <c r="AD77" s="3"/>
@@ -11054,7 +11119,7 @@
     </row>
     <row r="78" spans="1:42" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
@@ -11073,55 +11138,55 @@
         <v>36</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="M78" s="53" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="O78" s="53" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="P78" s="55" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="Q78" s="56" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="R78" s="55" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="S78" s="56" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="U78" s="56" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="W78" s="56" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="AC78" s="5"/>
       <c r="AD78" s="3"/>
@@ -11140,50 +11205,50 @@
     </row>
     <row r="79" spans="1:42" ht="150" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="O79" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="P79" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="AC79" s="5"/>
       <c r="AD79" s="3"/>
@@ -11202,50 +11267,50 @@
     </row>
     <row r="80" spans="1:42" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="P80" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="P80" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="AC80" s="5"/>
       <c r="AD80" s="3"/>
@@ -11264,44 +11329,44 @@
     </row>
     <row r="81" spans="1:42" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="M81" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="N81" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
@@ -11319,257 +11384,257 @@
     </row>
     <row r="82" spans="1:42" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="O82" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="P82" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="P82" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="AO82" s="3"/>
       <c r="AP82" s="3"/>
     </row>
     <row r="83" spans="1:42" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="M83" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="N83" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="N83" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="AO83" s="3"/>
       <c r="AP83" s="3"/>
     </row>
     <row r="84" spans="1:42" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="O84" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="P84" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="P84" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="AO84" s="3"/>
       <c r="AP84" s="3"/>
     </row>
     <row r="85" spans="1:42" ht="150" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="P85" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="Q85" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="AO85" s="3"/>
       <c r="AP85" s="3"/>
     </row>
     <row r="86" spans="1:42" ht="135" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="P86" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="Q86" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="M86" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="N86" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q86" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="AO86" s="3"/>
       <c r="AP86" s="3"/>
     </row>
     <row r="87" spans="1:42" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>557</v>
+        <v>747</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="6" t="s">
@@ -11594,7 +11659,7 @@
         <v>322</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>376</v>
@@ -11631,7 +11696,7 @@
     </row>
     <row r="88" spans="1:42" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>559</v>
+        <v>748</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="6" t="s">
@@ -11656,7 +11721,7 @@
         <v>340</v>
       </c>
       <c r="J88" s="52" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>376</v>
@@ -11677,7 +11742,7 @@
         <v>381</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="R88" s="2" t="s">
         <v>383</v>
@@ -11693,7 +11758,7 @@
     </row>
     <row r="89" spans="1:42" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>561</v>
+        <v>749</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="6" t="s">
@@ -11718,7 +11783,7 @@
         <v>345</v>
       </c>
       <c r="J89" s="52" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>376</v>
@@ -11739,7 +11804,7 @@
         <v>381</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="R89" s="2" t="s">
         <v>383</v>
@@ -11755,7 +11820,7 @@
     </row>
     <row r="90" spans="1:42" ht="213" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="6" t="s">
@@ -11780,7 +11845,7 @@
         <v>350</v>
       </c>
       <c r="J90" s="52" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>376</v>
@@ -11801,7 +11866,7 @@
         <v>381</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="R90" s="2" t="s">
         <v>383</v>
@@ -11810,14 +11875,14 @@
         <v>384</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="AO90" s="3"/>
       <c r="AP90" s="3"/>
     </row>
     <row r="91" spans="1:42" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>563</v>
+        <v>751</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="6" t="s">
@@ -11842,7 +11907,7 @@
         <v>355</v>
       </c>
       <c r="J91" s="52" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>376</v>
@@ -11863,7 +11928,7 @@
         <v>381</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="R91" s="2" t="s">
         <v>383</v>
@@ -11872,14 +11937,14 @@
         <v>384</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="AO91" s="3"/>
       <c r="AP91" s="3"/>
     </row>
     <row r="92" spans="1:42" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>564</v>
+        <v>752</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="6" t="s">
@@ -11904,7 +11969,7 @@
         <v>402</v>
       </c>
       <c r="J92" s="52" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>376</v>
@@ -11925,7 +11990,7 @@
         <v>381</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="R92" s="2" t="s">
         <v>383</v>
@@ -11934,14 +11999,14 @@
         <v>384</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="AO92" s="3"/>
       <c r="AP92" s="3"/>
     </row>
     <row r="93" spans="1:42" ht="213" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>565</v>
+        <v>753</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="6" t="s">
@@ -11963,10 +12028,10 @@
         <v>321</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="J93" s="52" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>376</v>
@@ -11987,7 +12052,7 @@
         <v>381</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="R93" s="2" t="s">
         <v>383</v>
@@ -11996,14 +12061,14 @@
         <v>384</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="AO93" s="3"/>
       <c r="AP93" s="3"/>
     </row>
     <row r="94" spans="1:42" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>571</v>
+        <v>754</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="6" t="s">
@@ -12025,10 +12090,10 @@
         <v>321</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="J94" s="52" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>376</v>
@@ -12049,7 +12114,7 @@
         <v>381</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="R94" s="2" t="s">
         <v>383</v>
@@ -12058,115 +12123,115 @@
         <v>384</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="AO94" s="3"/>
       <c r="AP94" s="3"/>
     </row>
     <row r="95" spans="1:42" ht="150" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="AO95" s="3"/>
       <c r="AP95" s="3"/>
     </row>
     <row r="96" spans="1:42" ht="135" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="AO96" s="3"/>
       <c r="AP96" s="3"/>
     </row>
     <row r="97" spans="1:42" ht="135" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
@@ -12175,70 +12240,70 @@
     </row>
     <row r="98" spans="1:42" ht="150" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="AO98" s="3"/>
       <c r="AP98" s="3"/>
     </row>
     <row r="99" spans="1:42" ht="150" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
@@ -12247,149 +12312,149 @@
     </row>
     <row r="100" spans="1:42" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="AO100" s="3"/>
       <c r="AP100" s="3"/>
     </row>
     <row r="101" spans="1:42" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="AO101" s="3"/>
       <c r="AP101" s="3"/>
     </row>
     <row r="102" spans="1:42" ht="135" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="AO102" s="3"/>
       <c r="AP102" s="3"/>
     </row>
     <row r="103" spans="1:42" ht="105" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -12397,23 +12462,23 @@
     </row>
     <row r="104" spans="1:42" ht="105" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
